--- a/人工統計.xlsx
+++ b/人工統計.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjl/Projects/WRA/WRA06-Volunteer-LineBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014FB688-2892-A443-9668-F97721F51A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EA466F-6EB0-2D49-B413-B0AC94E922AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{EF7ACEBC-F2E8-7045-AC62-F08FDFDE8746}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="308">
   <si>
     <t>A21</t>
   </si>
@@ -1356,10 +1356,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E88F8-DEC5-7B4B-A024-E6B831749FC0}">
-  <dimension ref="A1:I1333"/>
+  <dimension ref="A1:I1481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J348" sqref="J348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -35758,7 +35759,7 @@
         <v>1</v>
       </c>
       <c r="I1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:9">
@@ -35787,7 +35788,7 @@
         <v>1</v>
       </c>
       <c r="I1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:9">
@@ -35816,7 +35817,7 @@
         <v>1</v>
       </c>
       <c r="I1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:9">
@@ -35845,7 +35846,7 @@
         <v>1</v>
       </c>
       <c r="I1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:9">
@@ -35903,7 +35904,7 @@
         <v>1</v>
       </c>
       <c r="I1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:9">
@@ -35990,7 +35991,7 @@
         <v>1</v>
       </c>
       <c r="I1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:9">
@@ -36077,7 +36078,7 @@
         <v>1</v>
       </c>
       <c r="I1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:9">
@@ -36106,7 +36107,7 @@
         <v>1</v>
       </c>
       <c r="I1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:9">
@@ -36135,7 +36136,7 @@
         <v>1</v>
       </c>
       <c r="I1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:9">
@@ -36222,7 +36223,7 @@
         <v>1</v>
       </c>
       <c r="I1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:9">
@@ -36396,7 +36397,7 @@
         <v>1</v>
       </c>
       <c r="I1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:9">
@@ -36454,7 +36455,7 @@
         <v>1</v>
       </c>
       <c r="I1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:9">
@@ -36483,7 +36484,7 @@
         <v>1</v>
       </c>
       <c r="I1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:9">
@@ -36512,7 +36513,7 @@
         <v>1</v>
       </c>
       <c r="I1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:9">
@@ -36570,7 +36571,7 @@
         <v>1</v>
       </c>
       <c r="I1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:9">
@@ -36599,7 +36600,7 @@
         <v>1</v>
       </c>
       <c r="I1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:9">
@@ -36628,7 +36629,7 @@
         <v>1</v>
       </c>
       <c r="I1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:9">
@@ -36657,7 +36658,7 @@
         <v>1</v>
       </c>
       <c r="I1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:9">
@@ -36686,7 +36687,7 @@
         <v>1</v>
       </c>
       <c r="I1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:9">
@@ -36715,7 +36716,7 @@
         <v>1</v>
       </c>
       <c r="I1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:9">
@@ -36744,7 +36745,7 @@
         <v>1</v>
       </c>
       <c r="I1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:9">
@@ -36773,7 +36774,7 @@
         <v>1</v>
       </c>
       <c r="I1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:9">
@@ -36831,7 +36832,7 @@
         <v>1</v>
       </c>
       <c r="I1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:9">
@@ -36860,7 +36861,7 @@
         <v>1</v>
       </c>
       <c r="I1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:9">
@@ -36947,7 +36948,7 @@
         <v>1</v>
       </c>
       <c r="I1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:9">
@@ -37005,7 +37006,7 @@
         <v>1</v>
       </c>
       <c r="I1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:9">
@@ -37034,7 +37035,7 @@
         <v>0</v>
       </c>
       <c r="I1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:9">
@@ -37063,7 +37064,7 @@
         <v>1</v>
       </c>
       <c r="I1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:9">
@@ -37150,7 +37151,7 @@
         <v>1</v>
       </c>
       <c r="I1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:9">
@@ -37208,7 +37209,7 @@
         <v>1</v>
       </c>
       <c r="I1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:9">
@@ -37324,7 +37325,7 @@
         <v>1</v>
       </c>
       <c r="I1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:9">
@@ -37382,7 +37383,7 @@
         <v>1</v>
       </c>
       <c r="I1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:9">
@@ -37411,7 +37412,7 @@
         <v>1</v>
       </c>
       <c r="I1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:9">
@@ -37469,7 +37470,7 @@
         <v>1</v>
       </c>
       <c r="I1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:9">
@@ -37527,7 +37528,7 @@
         <v>1</v>
       </c>
       <c r="I1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:9">
@@ -37556,7 +37557,7 @@
         <v>1</v>
       </c>
       <c r="I1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:9">
@@ -37614,7 +37615,7 @@
         <v>1</v>
       </c>
       <c r="I1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:9">
@@ -37643,7 +37644,7 @@
         <v>1</v>
       </c>
       <c r="I1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:9">
@@ -37672,7 +37673,7 @@
         <v>1</v>
       </c>
       <c r="I1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:9">
@@ -37701,7 +37702,7 @@
         <v>1</v>
       </c>
       <c r="I1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:9">
@@ -37759,7 +37760,7 @@
         <v>1</v>
       </c>
       <c r="I1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:9">
@@ -37788,7 +37789,7 @@
         <v>1</v>
       </c>
       <c r="I1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:9">
@@ -37817,7 +37818,7 @@
         <v>1</v>
       </c>
       <c r="I1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:9">
@@ -37846,7 +37847,7 @@
         <v>1</v>
       </c>
       <c r="I1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:9">
@@ -37933,7 +37934,7 @@
         <v>1</v>
       </c>
       <c r="I1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:9">
@@ -37962,7 +37963,7 @@
         <v>1</v>
       </c>
       <c r="I1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:9">
@@ -37991,7 +37992,7 @@
         <v>1</v>
       </c>
       <c r="I1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:9">
@@ -38020,7 +38021,7 @@
         <v>1</v>
       </c>
       <c r="I1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:9">
@@ -38078,7 +38079,7 @@
         <v>1</v>
       </c>
       <c r="I1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:9">
@@ -38107,7 +38108,7 @@
         <v>1</v>
       </c>
       <c r="I1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:9">
@@ -38136,7 +38137,7 @@
         <v>1</v>
       </c>
       <c r="I1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:9">
@@ -38165,7 +38166,7 @@
         <v>1</v>
       </c>
       <c r="I1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:9">
@@ -38194,7 +38195,7 @@
         <v>1</v>
       </c>
       <c r="I1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:9">
@@ -38223,7 +38224,7 @@
         <v>1</v>
       </c>
       <c r="I1271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:9">
@@ -38252,7 +38253,7 @@
         <v>1</v>
       </c>
       <c r="I1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:9">
@@ -38310,7 +38311,7 @@
         <v>1</v>
       </c>
       <c r="I1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:9">
@@ -38339,7 +38340,7 @@
         <v>1</v>
       </c>
       <c r="I1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:9">
@@ -38368,7 +38369,7 @@
         <v>1</v>
       </c>
       <c r="I1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:9">
@@ -38397,7 +38398,7 @@
         <v>1</v>
       </c>
       <c r="I1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:9">
@@ -38455,7 +38456,7 @@
         <v>1</v>
       </c>
       <c r="I1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:9">
@@ -38513,7 +38514,7 @@
         <v>1</v>
       </c>
       <c r="I1281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:9">
@@ -38542,7 +38543,7 @@
         <v>1</v>
       </c>
       <c r="I1282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:9">
@@ -38600,7 +38601,7 @@
         <v>1</v>
       </c>
       <c r="I1284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:9">
@@ -38629,7 +38630,7 @@
         <v>1</v>
       </c>
       <c r="I1285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:9">
@@ -38658,7 +38659,7 @@
         <v>1</v>
       </c>
       <c r="I1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:9">
@@ -38687,7 +38688,7 @@
         <v>1</v>
       </c>
       <c r="I1287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:9">
@@ -38716,7 +38717,7 @@
         <v>1</v>
       </c>
       <c r="I1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:9">
@@ -38803,7 +38804,7 @@
         <v>1</v>
       </c>
       <c r="I1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:9">
@@ -38832,7 +38833,7 @@
         <v>1</v>
       </c>
       <c r="I1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:9">
@@ -38861,7 +38862,7 @@
         <v>1</v>
       </c>
       <c r="I1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:9">
@@ -38948,7 +38949,7 @@
         <v>1</v>
       </c>
       <c r="I1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:9">
@@ -38977,7 +38978,7 @@
         <v>1</v>
       </c>
       <c r="I1297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:9">
@@ -39006,7 +39007,7 @@
         <v>1</v>
       </c>
       <c r="I1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:9">
@@ -39035,7 +39036,7 @@
         <v>1</v>
       </c>
       <c r="I1299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:9">
@@ -39064,7 +39065,7 @@
         <v>1</v>
       </c>
       <c r="I1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:9">
@@ -39093,7 +39094,7 @@
         <v>1</v>
       </c>
       <c r="I1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:9">
@@ -39122,7 +39123,7 @@
         <v>1</v>
       </c>
       <c r="I1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:9">
@@ -39180,7 +39181,7 @@
         <v>1</v>
       </c>
       <c r="I1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:9">
@@ -39209,7 +39210,7 @@
         <v>1</v>
       </c>
       <c r="I1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:9">
@@ -39238,7 +39239,7 @@
         <v>1</v>
       </c>
       <c r="I1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:9">
@@ -39267,7 +39268,7 @@
         <v>1</v>
       </c>
       <c r="I1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:9">
@@ -39325,7 +39326,7 @@
         <v>1</v>
       </c>
       <c r="I1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:9">
@@ -39354,7 +39355,7 @@
         <v>1</v>
       </c>
       <c r="I1310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:9">
@@ -39383,7 +39384,7 @@
         <v>1</v>
       </c>
       <c r="I1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:9">
@@ -39412,7 +39413,7 @@
         <v>1</v>
       </c>
       <c r="I1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:9">
@@ -39441,7 +39442,7 @@
         <v>1</v>
       </c>
       <c r="I1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:9">
@@ -39470,7 +39471,7 @@
         <v>1</v>
       </c>
       <c r="I1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:9">
@@ -39528,7 +39529,7 @@
         <v>1</v>
       </c>
       <c r="I1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:9">
@@ -39673,7 +39674,7 @@
         <v>1</v>
       </c>
       <c r="I1321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:9">
@@ -39731,7 +39732,7 @@
         <v>1</v>
       </c>
       <c r="I1323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:9">
@@ -39818,7 +39819,7 @@
         <v>1</v>
       </c>
       <c r="I1326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:9">
@@ -40022,6 +40023,4298 @@
       </c>
       <c r="I1333">
         <v>0</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:9">
+      <c r="A1334" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1334" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1334">
+        <v>2023</v>
+      </c>
+      <c r="D1334">
+        <v>10</v>
+      </c>
+      <c r="E1334">
+        <v>8</v>
+      </c>
+      <c r="F1334">
+        <v>8</v>
+      </c>
+      <c r="G1334">
+        <v>16</v>
+      </c>
+      <c r="H1334">
+        <v>1</v>
+      </c>
+      <c r="I1334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:9">
+      <c r="A1335" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1335">
+        <v>2023</v>
+      </c>
+      <c r="D1335">
+        <v>10</v>
+      </c>
+      <c r="E1335">
+        <v>8</v>
+      </c>
+      <c r="F1335">
+        <v>32</v>
+      </c>
+      <c r="G1335">
+        <v>40</v>
+      </c>
+      <c r="H1335">
+        <v>1</v>
+      </c>
+      <c r="I1335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:9">
+      <c r="A1336" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1336" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1336">
+        <v>2023</v>
+      </c>
+      <c r="D1336">
+        <v>10</v>
+      </c>
+      <c r="E1336">
+        <v>8</v>
+      </c>
+      <c r="F1336">
+        <v>8</v>
+      </c>
+      <c r="G1336">
+        <v>16</v>
+      </c>
+      <c r="H1336">
+        <v>1</v>
+      </c>
+      <c r="I1336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:9">
+      <c r="A1337" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1337" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1337">
+        <v>2023</v>
+      </c>
+      <c r="D1337">
+        <v>10</v>
+      </c>
+      <c r="E1337">
+        <v>8</v>
+      </c>
+      <c r="F1337">
+        <v>32</v>
+      </c>
+      <c r="G1337">
+        <v>40</v>
+      </c>
+      <c r="H1337">
+        <v>1</v>
+      </c>
+      <c r="I1337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:9">
+      <c r="A1338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1338">
+        <v>2023</v>
+      </c>
+      <c r="D1338">
+        <v>10</v>
+      </c>
+      <c r="E1338">
+        <v>8</v>
+      </c>
+      <c r="F1338">
+        <v>16</v>
+      </c>
+      <c r="G1338">
+        <v>24</v>
+      </c>
+      <c r="H1338">
+        <v>1</v>
+      </c>
+      <c r="I1338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:9">
+      <c r="A1339" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1339" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1339">
+        <v>2023</v>
+      </c>
+      <c r="D1339">
+        <v>10</v>
+      </c>
+      <c r="E1339">
+        <v>8</v>
+      </c>
+      <c r="F1339">
+        <v>28</v>
+      </c>
+      <c r="G1339">
+        <v>36</v>
+      </c>
+      <c r="H1339">
+        <v>1</v>
+      </c>
+      <c r="I1339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:9">
+      <c r="A1340" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1340" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1340">
+        <v>2023</v>
+      </c>
+      <c r="D1340">
+        <v>10</v>
+      </c>
+      <c r="E1340">
+        <v>4</v>
+      </c>
+      <c r="F1340">
+        <v>0</v>
+      </c>
+      <c r="G1340">
+        <v>4</v>
+      </c>
+      <c r="H1340">
+        <v>0</v>
+      </c>
+      <c r="I1340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:9">
+      <c r="A1341" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1341" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1341">
+        <v>2023</v>
+      </c>
+      <c r="D1341">
+        <v>10</v>
+      </c>
+      <c r="E1341">
+        <v>8</v>
+      </c>
+      <c r="F1341">
+        <v>32</v>
+      </c>
+      <c r="G1341">
+        <v>40</v>
+      </c>
+      <c r="H1341">
+        <v>1</v>
+      </c>
+      <c r="I1341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:9">
+      <c r="A1342" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1342" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1342">
+        <v>2023</v>
+      </c>
+      <c r="D1342">
+        <v>10</v>
+      </c>
+      <c r="E1342">
+        <v>8</v>
+      </c>
+      <c r="F1342">
+        <v>28</v>
+      </c>
+      <c r="G1342">
+        <v>36</v>
+      </c>
+      <c r="H1342">
+        <v>1</v>
+      </c>
+      <c r="I1342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:9">
+      <c r="A1343" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1343" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1343">
+        <v>2023</v>
+      </c>
+      <c r="D1343">
+        <v>10</v>
+      </c>
+      <c r="E1343">
+        <v>8</v>
+      </c>
+      <c r="F1343">
+        <v>32</v>
+      </c>
+      <c r="G1343">
+        <v>40</v>
+      </c>
+      <c r="H1343">
+        <v>1</v>
+      </c>
+      <c r="I1343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:9">
+      <c r="A1344" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1344" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1344">
+        <v>2023</v>
+      </c>
+      <c r="D1344">
+        <v>10</v>
+      </c>
+      <c r="E1344">
+        <v>8</v>
+      </c>
+      <c r="F1344">
+        <v>16</v>
+      </c>
+      <c r="G1344">
+        <v>24</v>
+      </c>
+      <c r="H1344">
+        <v>1</v>
+      </c>
+      <c r="I1344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:9">
+      <c r="A1345" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1345">
+        <v>2023</v>
+      </c>
+      <c r="D1345">
+        <v>10</v>
+      </c>
+      <c r="E1345">
+        <v>8</v>
+      </c>
+      <c r="F1345">
+        <v>32</v>
+      </c>
+      <c r="G1345">
+        <v>40</v>
+      </c>
+      <c r="H1345">
+        <v>1</v>
+      </c>
+      <c r="I1345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:9">
+      <c r="A1346" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1346" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1346">
+        <v>2023</v>
+      </c>
+      <c r="D1346">
+        <v>10</v>
+      </c>
+      <c r="E1346">
+        <v>8</v>
+      </c>
+      <c r="F1346">
+        <v>32</v>
+      </c>
+      <c r="G1346">
+        <v>40</v>
+      </c>
+      <c r="H1346">
+        <v>1</v>
+      </c>
+      <c r="I1346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:9">
+      <c r="A1347" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1347">
+        <v>2023</v>
+      </c>
+      <c r="D1347">
+        <v>10</v>
+      </c>
+      <c r="E1347">
+        <v>8</v>
+      </c>
+      <c r="F1347">
+        <v>32</v>
+      </c>
+      <c r="G1347">
+        <v>40</v>
+      </c>
+      <c r="H1347">
+        <v>1</v>
+      </c>
+      <c r="I1347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:9">
+      <c r="A1348" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1348">
+        <v>2023</v>
+      </c>
+      <c r="D1348">
+        <v>10</v>
+      </c>
+      <c r="E1348">
+        <v>8</v>
+      </c>
+      <c r="F1348">
+        <v>28</v>
+      </c>
+      <c r="G1348">
+        <v>36</v>
+      </c>
+      <c r="H1348">
+        <v>1</v>
+      </c>
+      <c r="I1348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:9">
+      <c r="A1349" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1349">
+        <v>2023</v>
+      </c>
+      <c r="D1349">
+        <v>10</v>
+      </c>
+      <c r="E1349">
+        <v>8</v>
+      </c>
+      <c r="F1349">
+        <v>16</v>
+      </c>
+      <c r="G1349">
+        <v>24</v>
+      </c>
+      <c r="H1349">
+        <v>1</v>
+      </c>
+      <c r="I1349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:9">
+      <c r="A1350" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1350" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1350">
+        <v>2023</v>
+      </c>
+      <c r="D1350">
+        <v>10</v>
+      </c>
+      <c r="E1350">
+        <v>8</v>
+      </c>
+      <c r="F1350">
+        <v>32</v>
+      </c>
+      <c r="G1350">
+        <v>40</v>
+      </c>
+      <c r="H1350">
+        <v>1</v>
+      </c>
+      <c r="I1350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:9">
+      <c r="A1351" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1351" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1351">
+        <v>2023</v>
+      </c>
+      <c r="D1351">
+        <v>10</v>
+      </c>
+      <c r="E1351">
+        <v>0</v>
+      </c>
+      <c r="F1351">
+        <v>0</v>
+      </c>
+      <c r="G1351">
+        <v>0</v>
+      </c>
+      <c r="H1351">
+        <v>0</v>
+      </c>
+      <c r="I1351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:9">
+      <c r="A1352" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1352" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1352">
+        <v>2023</v>
+      </c>
+      <c r="D1352">
+        <v>10</v>
+      </c>
+      <c r="E1352">
+        <v>8</v>
+      </c>
+      <c r="F1352">
+        <v>0</v>
+      </c>
+      <c r="G1352">
+        <v>8</v>
+      </c>
+      <c r="H1352">
+        <v>1</v>
+      </c>
+      <c r="I1352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:9">
+      <c r="A1353" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1353">
+        <v>2023</v>
+      </c>
+      <c r="D1353">
+        <v>10</v>
+      </c>
+      <c r="E1353">
+        <v>8</v>
+      </c>
+      <c r="F1353">
+        <v>16</v>
+      </c>
+      <c r="G1353">
+        <v>24</v>
+      </c>
+      <c r="H1353">
+        <v>1</v>
+      </c>
+      <c r="I1353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:9">
+      <c r="A1354" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1354">
+        <v>2023</v>
+      </c>
+      <c r="D1354">
+        <v>10</v>
+      </c>
+      <c r="E1354">
+        <v>8</v>
+      </c>
+      <c r="F1354">
+        <v>24</v>
+      </c>
+      <c r="G1354">
+        <v>32</v>
+      </c>
+      <c r="H1354">
+        <v>1</v>
+      </c>
+      <c r="I1354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:9">
+      <c r="A1355" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1355">
+        <v>2023</v>
+      </c>
+      <c r="D1355">
+        <v>10</v>
+      </c>
+      <c r="E1355">
+        <v>4</v>
+      </c>
+      <c r="F1355">
+        <v>0</v>
+      </c>
+      <c r="G1355">
+        <v>4</v>
+      </c>
+      <c r="H1355">
+        <v>0</v>
+      </c>
+      <c r="I1355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:9">
+      <c r="A1356" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1356" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1356">
+        <v>2023</v>
+      </c>
+      <c r="D1356">
+        <v>10</v>
+      </c>
+      <c r="E1356">
+        <v>8</v>
+      </c>
+      <c r="F1356">
+        <v>32</v>
+      </c>
+      <c r="G1356">
+        <v>40</v>
+      </c>
+      <c r="H1356">
+        <v>1</v>
+      </c>
+      <c r="I1356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:9">
+      <c r="A1357" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1357">
+        <v>2023</v>
+      </c>
+      <c r="D1357">
+        <v>10</v>
+      </c>
+      <c r="E1357">
+        <v>8</v>
+      </c>
+      <c r="F1357">
+        <v>4</v>
+      </c>
+      <c r="G1357">
+        <v>12</v>
+      </c>
+      <c r="H1357">
+        <v>1</v>
+      </c>
+      <c r="I1357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:9">
+      <c r="A1358" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1358">
+        <v>2023</v>
+      </c>
+      <c r="D1358">
+        <v>10</v>
+      </c>
+      <c r="E1358">
+        <v>8</v>
+      </c>
+      <c r="F1358">
+        <v>32</v>
+      </c>
+      <c r="G1358">
+        <v>40</v>
+      </c>
+      <c r="H1358">
+        <v>1</v>
+      </c>
+      <c r="I1358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:9">
+      <c r="A1359" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1359">
+        <v>2023</v>
+      </c>
+      <c r="D1359">
+        <v>10</v>
+      </c>
+      <c r="E1359">
+        <v>8</v>
+      </c>
+      <c r="F1359">
+        <v>32</v>
+      </c>
+      <c r="G1359">
+        <v>40</v>
+      </c>
+      <c r="H1359">
+        <v>1</v>
+      </c>
+      <c r="I1359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:9">
+      <c r="A1360" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1360" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1360">
+        <v>2023</v>
+      </c>
+      <c r="D1360">
+        <v>10</v>
+      </c>
+      <c r="E1360">
+        <v>8</v>
+      </c>
+      <c r="F1360">
+        <v>16</v>
+      </c>
+      <c r="G1360">
+        <v>24</v>
+      </c>
+      <c r="H1360">
+        <v>1</v>
+      </c>
+      <c r="I1360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:9">
+      <c r="A1361" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1361" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1361">
+        <v>2023</v>
+      </c>
+      <c r="D1361">
+        <v>10</v>
+      </c>
+      <c r="E1361">
+        <v>0</v>
+      </c>
+      <c r="F1361">
+        <v>0</v>
+      </c>
+      <c r="G1361">
+        <v>0</v>
+      </c>
+      <c r="H1361">
+        <v>0</v>
+      </c>
+      <c r="I1361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:9">
+      <c r="A1362" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1362" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1362">
+        <v>2023</v>
+      </c>
+      <c r="D1362">
+        <v>10</v>
+      </c>
+      <c r="E1362">
+        <v>8</v>
+      </c>
+      <c r="F1362">
+        <v>32</v>
+      </c>
+      <c r="G1362">
+        <v>40</v>
+      </c>
+      <c r="H1362">
+        <v>1</v>
+      </c>
+      <c r="I1362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:9">
+      <c r="A1363" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1363" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1363">
+        <v>2023</v>
+      </c>
+      <c r="D1363">
+        <v>10</v>
+      </c>
+      <c r="E1363">
+        <v>8</v>
+      </c>
+      <c r="F1363">
+        <v>32</v>
+      </c>
+      <c r="G1363">
+        <v>40</v>
+      </c>
+      <c r="H1363">
+        <v>1</v>
+      </c>
+      <c r="I1363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:9">
+      <c r="A1364" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1364" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1364">
+        <v>2023</v>
+      </c>
+      <c r="D1364">
+        <v>10</v>
+      </c>
+      <c r="E1364">
+        <v>8</v>
+      </c>
+      <c r="F1364">
+        <v>32</v>
+      </c>
+      <c r="G1364">
+        <v>40</v>
+      </c>
+      <c r="H1364">
+        <v>1</v>
+      </c>
+      <c r="I1364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:9">
+      <c r="A1365" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1365" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1365">
+        <v>2023</v>
+      </c>
+      <c r="D1365">
+        <v>10</v>
+      </c>
+      <c r="E1365">
+        <v>8</v>
+      </c>
+      <c r="F1365">
+        <v>32</v>
+      </c>
+      <c r="G1365">
+        <v>40</v>
+      </c>
+      <c r="H1365">
+        <v>1</v>
+      </c>
+      <c r="I1365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:9">
+      <c r="A1366" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1366" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1366">
+        <v>2023</v>
+      </c>
+      <c r="D1366">
+        <v>10</v>
+      </c>
+      <c r="E1366">
+        <v>8</v>
+      </c>
+      <c r="F1366">
+        <v>28</v>
+      </c>
+      <c r="G1366">
+        <v>36</v>
+      </c>
+      <c r="H1366">
+        <v>1</v>
+      </c>
+      <c r="I1366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:9">
+      <c r="A1367" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1367" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1367">
+        <v>2023</v>
+      </c>
+      <c r="D1367">
+        <v>10</v>
+      </c>
+      <c r="E1367">
+        <v>8</v>
+      </c>
+      <c r="F1367">
+        <v>32</v>
+      </c>
+      <c r="G1367">
+        <v>40</v>
+      </c>
+      <c r="H1367">
+        <v>1</v>
+      </c>
+      <c r="I1367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:9">
+      <c r="A1368" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1368" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1368">
+        <v>2023</v>
+      </c>
+      <c r="D1368">
+        <v>10</v>
+      </c>
+      <c r="E1368">
+        <v>8</v>
+      </c>
+      <c r="F1368">
+        <v>32</v>
+      </c>
+      <c r="G1368">
+        <v>40</v>
+      </c>
+      <c r="H1368">
+        <v>1</v>
+      </c>
+      <c r="I1368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:9">
+      <c r="A1369" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1369" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1369">
+        <v>2023</v>
+      </c>
+      <c r="D1369">
+        <v>10</v>
+      </c>
+      <c r="E1369">
+        <v>8</v>
+      </c>
+      <c r="F1369">
+        <v>32</v>
+      </c>
+      <c r="G1369">
+        <v>40</v>
+      </c>
+      <c r="H1369">
+        <v>1</v>
+      </c>
+      <c r="I1369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:9">
+      <c r="A1370" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1370" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1370">
+        <v>2023</v>
+      </c>
+      <c r="D1370">
+        <v>10</v>
+      </c>
+      <c r="E1370">
+        <v>8</v>
+      </c>
+      <c r="F1370">
+        <v>28</v>
+      </c>
+      <c r="G1370">
+        <v>36</v>
+      </c>
+      <c r="H1370">
+        <v>1</v>
+      </c>
+      <c r="I1370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:9">
+      <c r="A1371" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1371" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1371">
+        <v>2023</v>
+      </c>
+      <c r="D1371">
+        <v>10</v>
+      </c>
+      <c r="E1371">
+        <v>8</v>
+      </c>
+      <c r="F1371">
+        <v>32</v>
+      </c>
+      <c r="G1371">
+        <v>40</v>
+      </c>
+      <c r="H1371">
+        <v>1</v>
+      </c>
+      <c r="I1371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:9">
+      <c r="A1372" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1372" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1372">
+        <v>2023</v>
+      </c>
+      <c r="D1372">
+        <v>10</v>
+      </c>
+      <c r="E1372">
+        <v>8</v>
+      </c>
+      <c r="F1372">
+        <v>32</v>
+      </c>
+      <c r="G1372">
+        <v>40</v>
+      </c>
+      <c r="H1372">
+        <v>1</v>
+      </c>
+      <c r="I1372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:9">
+      <c r="A1373" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1373" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1373">
+        <v>2023</v>
+      </c>
+      <c r="D1373">
+        <v>10</v>
+      </c>
+      <c r="E1373">
+        <v>8</v>
+      </c>
+      <c r="F1373">
+        <v>4</v>
+      </c>
+      <c r="G1373">
+        <v>12</v>
+      </c>
+      <c r="H1373">
+        <v>1</v>
+      </c>
+      <c r="I1373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:9">
+      <c r="A1374" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1374" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1374">
+        <v>2023</v>
+      </c>
+      <c r="D1374">
+        <v>10</v>
+      </c>
+      <c r="E1374">
+        <v>8</v>
+      </c>
+      <c r="F1374">
+        <v>4</v>
+      </c>
+      <c r="G1374">
+        <v>12</v>
+      </c>
+      <c r="H1374">
+        <v>1</v>
+      </c>
+      <c r="I1374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:9">
+      <c r="A1375" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1375" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1375">
+        <v>2023</v>
+      </c>
+      <c r="D1375">
+        <v>10</v>
+      </c>
+      <c r="E1375">
+        <v>8</v>
+      </c>
+      <c r="F1375">
+        <v>32</v>
+      </c>
+      <c r="G1375">
+        <v>40</v>
+      </c>
+      <c r="H1375">
+        <v>1</v>
+      </c>
+      <c r="I1375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:9">
+      <c r="A1376" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1376" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1376">
+        <v>2023</v>
+      </c>
+      <c r="D1376">
+        <v>10</v>
+      </c>
+      <c r="E1376">
+        <v>0</v>
+      </c>
+      <c r="F1376">
+        <v>0</v>
+      </c>
+      <c r="G1376">
+        <v>0</v>
+      </c>
+      <c r="H1376">
+        <v>0</v>
+      </c>
+      <c r="I1376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:9">
+      <c r="A1377" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1377" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1377">
+        <v>2023</v>
+      </c>
+      <c r="D1377">
+        <v>10</v>
+      </c>
+      <c r="E1377">
+        <v>8</v>
+      </c>
+      <c r="F1377">
+        <v>32</v>
+      </c>
+      <c r="G1377">
+        <v>40</v>
+      </c>
+      <c r="H1377">
+        <v>1</v>
+      </c>
+      <c r="I1377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:9">
+      <c r="A1378" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1378" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1378">
+        <v>2023</v>
+      </c>
+      <c r="D1378">
+        <v>10</v>
+      </c>
+      <c r="E1378">
+        <v>8</v>
+      </c>
+      <c r="F1378">
+        <v>28</v>
+      </c>
+      <c r="G1378">
+        <v>36</v>
+      </c>
+      <c r="H1378">
+        <v>1</v>
+      </c>
+      <c r="I1378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:9">
+      <c r="A1379" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1379" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1379">
+        <v>2023</v>
+      </c>
+      <c r="D1379">
+        <v>10</v>
+      </c>
+      <c r="E1379">
+        <v>8</v>
+      </c>
+      <c r="F1379">
+        <v>20</v>
+      </c>
+      <c r="G1379">
+        <v>28</v>
+      </c>
+      <c r="H1379">
+        <v>1</v>
+      </c>
+      <c r="I1379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:9">
+      <c r="A1380" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1380" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1380">
+        <v>2023</v>
+      </c>
+      <c r="D1380">
+        <v>10</v>
+      </c>
+      <c r="E1380">
+        <v>8</v>
+      </c>
+      <c r="F1380">
+        <v>4</v>
+      </c>
+      <c r="G1380">
+        <v>12</v>
+      </c>
+      <c r="H1380">
+        <v>1</v>
+      </c>
+      <c r="I1380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:9">
+      <c r="A1381" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1381" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1381">
+        <v>2023</v>
+      </c>
+      <c r="D1381">
+        <v>10</v>
+      </c>
+      <c r="E1381">
+        <v>8</v>
+      </c>
+      <c r="F1381">
+        <v>4</v>
+      </c>
+      <c r="G1381">
+        <v>12</v>
+      </c>
+      <c r="H1381">
+        <v>1</v>
+      </c>
+      <c r="I1381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:9">
+      <c r="A1382" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1382" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1382">
+        <v>2023</v>
+      </c>
+      <c r="D1382">
+        <v>10</v>
+      </c>
+      <c r="E1382">
+        <v>8</v>
+      </c>
+      <c r="F1382">
+        <v>20</v>
+      </c>
+      <c r="G1382">
+        <v>28</v>
+      </c>
+      <c r="H1382">
+        <v>1</v>
+      </c>
+      <c r="I1382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:9">
+      <c r="A1383" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1383" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1383">
+        <v>2023</v>
+      </c>
+      <c r="D1383">
+        <v>10</v>
+      </c>
+      <c r="E1383">
+        <v>8</v>
+      </c>
+      <c r="F1383">
+        <v>20</v>
+      </c>
+      <c r="G1383">
+        <v>28</v>
+      </c>
+      <c r="H1383">
+        <v>1</v>
+      </c>
+      <c r="I1383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:9">
+      <c r="A1384" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1384" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1384">
+        <v>2023</v>
+      </c>
+      <c r="D1384">
+        <v>10</v>
+      </c>
+      <c r="E1384">
+        <v>8</v>
+      </c>
+      <c r="F1384">
+        <v>20</v>
+      </c>
+      <c r="G1384">
+        <v>28</v>
+      </c>
+      <c r="H1384">
+        <v>1</v>
+      </c>
+      <c r="I1384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:9">
+      <c r="A1385" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1385" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1385">
+        <v>2023</v>
+      </c>
+      <c r="D1385">
+        <v>10</v>
+      </c>
+      <c r="E1385">
+        <v>8</v>
+      </c>
+      <c r="F1385">
+        <v>4</v>
+      </c>
+      <c r="G1385">
+        <v>12</v>
+      </c>
+      <c r="H1385">
+        <v>1</v>
+      </c>
+      <c r="I1385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:9">
+      <c r="A1386" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1386" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1386">
+        <v>2023</v>
+      </c>
+      <c r="D1386">
+        <v>10</v>
+      </c>
+      <c r="E1386">
+        <v>8</v>
+      </c>
+      <c r="F1386">
+        <v>4</v>
+      </c>
+      <c r="G1386">
+        <v>12</v>
+      </c>
+      <c r="H1386">
+        <v>1</v>
+      </c>
+      <c r="I1386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:9">
+      <c r="A1387" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1387" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1387">
+        <v>2023</v>
+      </c>
+      <c r="D1387">
+        <v>10</v>
+      </c>
+      <c r="E1387">
+        <v>8</v>
+      </c>
+      <c r="F1387">
+        <v>4</v>
+      </c>
+      <c r="G1387">
+        <v>12</v>
+      </c>
+      <c r="H1387">
+        <v>1</v>
+      </c>
+      <c r="I1387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:9">
+      <c r="A1388" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1388" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1388">
+        <v>2023</v>
+      </c>
+      <c r="D1388">
+        <v>10</v>
+      </c>
+      <c r="E1388">
+        <v>8</v>
+      </c>
+      <c r="F1388">
+        <v>20</v>
+      </c>
+      <c r="G1388">
+        <v>28</v>
+      </c>
+      <c r="H1388">
+        <v>1</v>
+      </c>
+      <c r="I1388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:9">
+      <c r="A1389" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1389" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1389">
+        <v>2023</v>
+      </c>
+      <c r="D1389">
+        <v>10</v>
+      </c>
+      <c r="E1389">
+        <v>8</v>
+      </c>
+      <c r="F1389">
+        <v>28</v>
+      </c>
+      <c r="G1389">
+        <v>36</v>
+      </c>
+      <c r="H1389">
+        <v>1</v>
+      </c>
+      <c r="I1389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:9">
+      <c r="A1390" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1390" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1390">
+        <v>2023</v>
+      </c>
+      <c r="D1390">
+        <v>10</v>
+      </c>
+      <c r="E1390">
+        <v>8</v>
+      </c>
+      <c r="F1390">
+        <v>4</v>
+      </c>
+      <c r="G1390">
+        <v>12</v>
+      </c>
+      <c r="H1390">
+        <v>1</v>
+      </c>
+      <c r="I1390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:9">
+      <c r="A1391" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1391" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1391">
+        <v>2023</v>
+      </c>
+      <c r="D1391">
+        <v>10</v>
+      </c>
+      <c r="E1391">
+        <v>8</v>
+      </c>
+      <c r="F1391">
+        <v>4</v>
+      </c>
+      <c r="G1391">
+        <v>12</v>
+      </c>
+      <c r="H1391">
+        <v>1</v>
+      </c>
+      <c r="I1391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:9">
+      <c r="A1392" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1392" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1392">
+        <v>2023</v>
+      </c>
+      <c r="D1392">
+        <v>10</v>
+      </c>
+      <c r="E1392">
+        <v>8</v>
+      </c>
+      <c r="F1392">
+        <v>12</v>
+      </c>
+      <c r="G1392">
+        <v>20</v>
+      </c>
+      <c r="H1392">
+        <v>1</v>
+      </c>
+      <c r="I1392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:9">
+      <c r="A1393" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1393" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1393">
+        <v>2023</v>
+      </c>
+      <c r="D1393">
+        <v>10</v>
+      </c>
+      <c r="E1393">
+        <v>8</v>
+      </c>
+      <c r="F1393">
+        <v>12</v>
+      </c>
+      <c r="G1393">
+        <v>20</v>
+      </c>
+      <c r="H1393">
+        <v>1</v>
+      </c>
+      <c r="I1393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:9">
+      <c r="A1394" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1394" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1394">
+        <v>2023</v>
+      </c>
+      <c r="D1394">
+        <v>10</v>
+      </c>
+      <c r="E1394">
+        <v>0</v>
+      </c>
+      <c r="F1394">
+        <v>0</v>
+      </c>
+      <c r="G1394">
+        <v>0</v>
+      </c>
+      <c r="H1394">
+        <v>0</v>
+      </c>
+      <c r="I1394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:9">
+      <c r="A1395" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1395" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1395">
+        <v>2023</v>
+      </c>
+      <c r="D1395">
+        <v>10</v>
+      </c>
+      <c r="E1395">
+        <v>8</v>
+      </c>
+      <c r="F1395">
+        <v>24</v>
+      </c>
+      <c r="G1395">
+        <v>32</v>
+      </c>
+      <c r="H1395">
+        <v>1</v>
+      </c>
+      <c r="I1395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:9">
+      <c r="A1396" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1396" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1396">
+        <v>2023</v>
+      </c>
+      <c r="D1396">
+        <v>10</v>
+      </c>
+      <c r="E1396">
+        <v>8</v>
+      </c>
+      <c r="F1396">
+        <v>32</v>
+      </c>
+      <c r="G1396">
+        <v>40</v>
+      </c>
+      <c r="H1396">
+        <v>1</v>
+      </c>
+      <c r="I1396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:9">
+      <c r="A1397" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1397" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1397">
+        <v>2023</v>
+      </c>
+      <c r="D1397">
+        <v>10</v>
+      </c>
+      <c r="E1397">
+        <v>8</v>
+      </c>
+      <c r="F1397">
+        <v>8</v>
+      </c>
+      <c r="G1397">
+        <v>16</v>
+      </c>
+      <c r="H1397">
+        <v>1</v>
+      </c>
+      <c r="I1397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:9">
+      <c r="A1398" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1398" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1398">
+        <v>2023</v>
+      </c>
+      <c r="D1398">
+        <v>10</v>
+      </c>
+      <c r="E1398">
+        <v>8</v>
+      </c>
+      <c r="F1398">
+        <v>32</v>
+      </c>
+      <c r="G1398">
+        <v>40</v>
+      </c>
+      <c r="H1398">
+        <v>1</v>
+      </c>
+      <c r="I1398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:9">
+      <c r="A1399" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1399" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1399">
+        <v>2023</v>
+      </c>
+      <c r="D1399">
+        <v>10</v>
+      </c>
+      <c r="E1399">
+        <v>8</v>
+      </c>
+      <c r="F1399">
+        <v>32</v>
+      </c>
+      <c r="G1399">
+        <v>40</v>
+      </c>
+      <c r="H1399">
+        <v>1</v>
+      </c>
+      <c r="I1399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:9">
+      <c r="A1400" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1400" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1400">
+        <v>2023</v>
+      </c>
+      <c r="D1400">
+        <v>10</v>
+      </c>
+      <c r="E1400">
+        <v>8</v>
+      </c>
+      <c r="F1400">
+        <v>32</v>
+      </c>
+      <c r="G1400">
+        <v>40</v>
+      </c>
+      <c r="H1400">
+        <v>1</v>
+      </c>
+      <c r="I1400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:9">
+      <c r="A1401" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1401" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1401">
+        <v>2023</v>
+      </c>
+      <c r="D1401">
+        <v>10</v>
+      </c>
+      <c r="E1401">
+        <v>8</v>
+      </c>
+      <c r="F1401">
+        <v>24</v>
+      </c>
+      <c r="G1401">
+        <v>32</v>
+      </c>
+      <c r="H1401">
+        <v>1</v>
+      </c>
+      <c r="I1401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:9">
+      <c r="A1402" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1402" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1402">
+        <v>2023</v>
+      </c>
+      <c r="D1402">
+        <v>10</v>
+      </c>
+      <c r="E1402">
+        <v>8</v>
+      </c>
+      <c r="F1402">
+        <v>8</v>
+      </c>
+      <c r="G1402">
+        <v>16</v>
+      </c>
+      <c r="H1402">
+        <v>1</v>
+      </c>
+      <c r="I1402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:9">
+      <c r="A1403" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1403" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1403">
+        <v>2023</v>
+      </c>
+      <c r="D1403">
+        <v>10</v>
+      </c>
+      <c r="E1403">
+        <v>8</v>
+      </c>
+      <c r="F1403">
+        <v>32</v>
+      </c>
+      <c r="G1403">
+        <v>40</v>
+      </c>
+      <c r="H1403">
+        <v>1</v>
+      </c>
+      <c r="I1403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:9">
+      <c r="A1404" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1404" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1404">
+        <v>2023</v>
+      </c>
+      <c r="D1404">
+        <v>10</v>
+      </c>
+      <c r="E1404">
+        <v>8</v>
+      </c>
+      <c r="F1404">
+        <v>32</v>
+      </c>
+      <c r="G1404">
+        <v>40</v>
+      </c>
+      <c r="H1404">
+        <v>1</v>
+      </c>
+      <c r="I1404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:9">
+      <c r="A1405" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1405" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1405">
+        <v>2023</v>
+      </c>
+      <c r="D1405">
+        <v>10</v>
+      </c>
+      <c r="E1405">
+        <v>8</v>
+      </c>
+      <c r="F1405">
+        <v>32</v>
+      </c>
+      <c r="G1405">
+        <v>40</v>
+      </c>
+      <c r="H1405">
+        <v>1</v>
+      </c>
+      <c r="I1405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:9">
+      <c r="A1406" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1406" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1406">
+        <v>2023</v>
+      </c>
+      <c r="D1406">
+        <v>10</v>
+      </c>
+      <c r="E1406">
+        <v>8</v>
+      </c>
+      <c r="F1406">
+        <v>28</v>
+      </c>
+      <c r="G1406">
+        <v>36</v>
+      </c>
+      <c r="H1406">
+        <v>1</v>
+      </c>
+      <c r="I1406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:9">
+      <c r="A1407" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1407" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1407">
+        <v>2023</v>
+      </c>
+      <c r="D1407">
+        <v>10</v>
+      </c>
+      <c r="E1407">
+        <v>8</v>
+      </c>
+      <c r="F1407">
+        <v>32</v>
+      </c>
+      <c r="G1407">
+        <v>40</v>
+      </c>
+      <c r="H1407">
+        <v>1</v>
+      </c>
+      <c r="I1407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:9">
+      <c r="A1408" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1408" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1408">
+        <v>2023</v>
+      </c>
+      <c r="D1408">
+        <v>10</v>
+      </c>
+      <c r="E1408">
+        <v>8</v>
+      </c>
+      <c r="F1408">
+        <v>12</v>
+      </c>
+      <c r="G1408">
+        <v>20</v>
+      </c>
+      <c r="H1408">
+        <v>1</v>
+      </c>
+      <c r="I1408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:9">
+      <c r="A1409" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1409" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1409">
+        <v>2023</v>
+      </c>
+      <c r="D1409">
+        <v>10</v>
+      </c>
+      <c r="E1409">
+        <v>8</v>
+      </c>
+      <c r="F1409">
+        <v>32</v>
+      </c>
+      <c r="G1409">
+        <v>40</v>
+      </c>
+      <c r="H1409">
+        <v>1</v>
+      </c>
+      <c r="I1409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:9">
+      <c r="A1410" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1410" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1410">
+        <v>2023</v>
+      </c>
+      <c r="D1410">
+        <v>10</v>
+      </c>
+      <c r="E1410">
+        <v>8</v>
+      </c>
+      <c r="F1410">
+        <v>32</v>
+      </c>
+      <c r="G1410">
+        <v>40</v>
+      </c>
+      <c r="H1410">
+        <v>1</v>
+      </c>
+      <c r="I1410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:9">
+      <c r="A1411" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1411" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1411">
+        <v>2023</v>
+      </c>
+      <c r="D1411">
+        <v>10</v>
+      </c>
+      <c r="E1411">
+        <v>8</v>
+      </c>
+      <c r="F1411">
+        <v>32</v>
+      </c>
+      <c r="G1411">
+        <v>40</v>
+      </c>
+      <c r="H1411">
+        <v>1</v>
+      </c>
+      <c r="I1411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:9">
+      <c r="A1412" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1412" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1412">
+        <v>2023</v>
+      </c>
+      <c r="D1412">
+        <v>10</v>
+      </c>
+      <c r="E1412">
+        <v>8</v>
+      </c>
+      <c r="F1412">
+        <v>32</v>
+      </c>
+      <c r="G1412">
+        <v>40</v>
+      </c>
+      <c r="H1412">
+        <v>1</v>
+      </c>
+      <c r="I1412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:9">
+      <c r="A1413" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1413" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1413">
+        <v>2023</v>
+      </c>
+      <c r="D1413">
+        <v>10</v>
+      </c>
+      <c r="E1413">
+        <v>8</v>
+      </c>
+      <c r="F1413">
+        <v>20</v>
+      </c>
+      <c r="G1413">
+        <v>28</v>
+      </c>
+      <c r="H1413">
+        <v>1</v>
+      </c>
+      <c r="I1413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:9">
+      <c r="A1414" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1414" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1414">
+        <v>2023</v>
+      </c>
+      <c r="D1414">
+        <v>10</v>
+      </c>
+      <c r="E1414">
+        <v>8</v>
+      </c>
+      <c r="F1414">
+        <v>32</v>
+      </c>
+      <c r="G1414">
+        <v>40</v>
+      </c>
+      <c r="H1414">
+        <v>1</v>
+      </c>
+      <c r="I1414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:9">
+      <c r="A1415" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1415" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1415">
+        <v>2023</v>
+      </c>
+      <c r="D1415">
+        <v>10</v>
+      </c>
+      <c r="E1415">
+        <v>8</v>
+      </c>
+      <c r="F1415">
+        <v>32</v>
+      </c>
+      <c r="G1415">
+        <v>40</v>
+      </c>
+      <c r="H1415">
+        <v>1</v>
+      </c>
+      <c r="I1415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:9">
+      <c r="A1416" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1416" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1416">
+        <v>2023</v>
+      </c>
+      <c r="D1416">
+        <v>10</v>
+      </c>
+      <c r="E1416">
+        <v>8</v>
+      </c>
+      <c r="F1416">
+        <v>28</v>
+      </c>
+      <c r="G1416">
+        <v>36</v>
+      </c>
+      <c r="H1416">
+        <v>1</v>
+      </c>
+      <c r="I1416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:9">
+      <c r="A1417" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1417" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1417">
+        <v>2023</v>
+      </c>
+      <c r="D1417">
+        <v>10</v>
+      </c>
+      <c r="E1417">
+        <v>8</v>
+      </c>
+      <c r="F1417">
+        <v>32</v>
+      </c>
+      <c r="G1417">
+        <v>40</v>
+      </c>
+      <c r="H1417">
+        <v>1</v>
+      </c>
+      <c r="I1417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:9">
+      <c r="A1418" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1418" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1418">
+        <v>2023</v>
+      </c>
+      <c r="D1418">
+        <v>10</v>
+      </c>
+      <c r="E1418">
+        <v>8</v>
+      </c>
+      <c r="F1418">
+        <v>32</v>
+      </c>
+      <c r="G1418">
+        <v>40</v>
+      </c>
+      <c r="H1418">
+        <v>1</v>
+      </c>
+      <c r="I1418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:9">
+      <c r="A1419" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1419" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1419">
+        <v>2023</v>
+      </c>
+      <c r="D1419">
+        <v>10</v>
+      </c>
+      <c r="E1419">
+        <v>8</v>
+      </c>
+      <c r="F1419">
+        <v>32</v>
+      </c>
+      <c r="G1419">
+        <v>40</v>
+      </c>
+      <c r="H1419">
+        <v>1</v>
+      </c>
+      <c r="I1419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:9">
+      <c r="A1420" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1420" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1420">
+        <v>2023</v>
+      </c>
+      <c r="D1420">
+        <v>10</v>
+      </c>
+      <c r="E1420">
+        <v>8</v>
+      </c>
+      <c r="F1420">
+        <v>32</v>
+      </c>
+      <c r="G1420">
+        <v>40</v>
+      </c>
+      <c r="H1420">
+        <v>1</v>
+      </c>
+      <c r="I1420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:9">
+      <c r="A1421" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1421" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1421">
+        <v>2023</v>
+      </c>
+      <c r="D1421">
+        <v>10</v>
+      </c>
+      <c r="E1421">
+        <v>8</v>
+      </c>
+      <c r="F1421">
+        <v>24</v>
+      </c>
+      <c r="G1421">
+        <v>32</v>
+      </c>
+      <c r="H1421">
+        <v>1</v>
+      </c>
+      <c r="I1421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:9">
+      <c r="A1422" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1422" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1422">
+        <v>2023</v>
+      </c>
+      <c r="D1422">
+        <v>10</v>
+      </c>
+      <c r="E1422">
+        <v>8</v>
+      </c>
+      <c r="F1422">
+        <v>32</v>
+      </c>
+      <c r="G1422">
+        <v>40</v>
+      </c>
+      <c r="H1422">
+        <v>1</v>
+      </c>
+      <c r="I1422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:9">
+      <c r="A1423" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1423" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1423">
+        <v>2023</v>
+      </c>
+      <c r="D1423">
+        <v>10</v>
+      </c>
+      <c r="E1423">
+        <v>8</v>
+      </c>
+      <c r="F1423">
+        <v>32</v>
+      </c>
+      <c r="G1423">
+        <v>40</v>
+      </c>
+      <c r="H1423">
+        <v>1</v>
+      </c>
+      <c r="I1423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:9">
+      <c r="A1424" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1424" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1424">
+        <v>2023</v>
+      </c>
+      <c r="D1424">
+        <v>10</v>
+      </c>
+      <c r="E1424">
+        <v>8</v>
+      </c>
+      <c r="F1424">
+        <v>32</v>
+      </c>
+      <c r="G1424">
+        <v>40</v>
+      </c>
+      <c r="H1424">
+        <v>1</v>
+      </c>
+      <c r="I1424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:9">
+      <c r="A1425" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1425" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1425">
+        <v>2023</v>
+      </c>
+      <c r="D1425">
+        <v>10</v>
+      </c>
+      <c r="E1425">
+        <v>8</v>
+      </c>
+      <c r="F1425">
+        <v>32</v>
+      </c>
+      <c r="G1425">
+        <v>40</v>
+      </c>
+      <c r="H1425">
+        <v>1</v>
+      </c>
+      <c r="I1425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:9">
+      <c r="A1426" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1426" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1426">
+        <v>2023</v>
+      </c>
+      <c r="D1426">
+        <v>10</v>
+      </c>
+      <c r="E1426">
+        <v>8</v>
+      </c>
+      <c r="F1426">
+        <v>24</v>
+      </c>
+      <c r="G1426">
+        <v>32</v>
+      </c>
+      <c r="H1426">
+        <v>1</v>
+      </c>
+      <c r="I1426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:9">
+      <c r="A1427" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1427" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1427">
+        <v>2023</v>
+      </c>
+      <c r="D1427">
+        <v>10</v>
+      </c>
+      <c r="E1427">
+        <v>8</v>
+      </c>
+      <c r="F1427">
+        <v>28</v>
+      </c>
+      <c r="G1427">
+        <v>36</v>
+      </c>
+      <c r="H1427">
+        <v>1</v>
+      </c>
+      <c r="I1427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:9">
+      <c r="A1428" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1428" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1428">
+        <v>2023</v>
+      </c>
+      <c r="D1428">
+        <v>10</v>
+      </c>
+      <c r="E1428">
+        <v>8</v>
+      </c>
+      <c r="F1428">
+        <v>28</v>
+      </c>
+      <c r="G1428">
+        <v>36</v>
+      </c>
+      <c r="H1428">
+        <v>1</v>
+      </c>
+      <c r="I1428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:9">
+      <c r="A1429" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1429" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1429">
+        <v>2023</v>
+      </c>
+      <c r="D1429">
+        <v>10</v>
+      </c>
+      <c r="E1429">
+        <v>8</v>
+      </c>
+      <c r="F1429">
+        <v>32</v>
+      </c>
+      <c r="G1429">
+        <v>40</v>
+      </c>
+      <c r="H1429">
+        <v>1</v>
+      </c>
+      <c r="I1429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:9">
+      <c r="A1430" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1430" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1430">
+        <v>2023</v>
+      </c>
+      <c r="D1430">
+        <v>10</v>
+      </c>
+      <c r="E1430">
+        <v>8</v>
+      </c>
+      <c r="F1430">
+        <v>32</v>
+      </c>
+      <c r="G1430">
+        <v>40</v>
+      </c>
+      <c r="H1430">
+        <v>1</v>
+      </c>
+      <c r="I1430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:9">
+      <c r="A1431" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1431" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1431">
+        <v>2023</v>
+      </c>
+      <c r="D1431">
+        <v>10</v>
+      </c>
+      <c r="E1431">
+        <v>8</v>
+      </c>
+      <c r="F1431">
+        <v>32</v>
+      </c>
+      <c r="G1431">
+        <v>40</v>
+      </c>
+      <c r="H1431">
+        <v>1</v>
+      </c>
+      <c r="I1431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:9">
+      <c r="A1432" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1432" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1432">
+        <v>2023</v>
+      </c>
+      <c r="D1432">
+        <v>10</v>
+      </c>
+      <c r="E1432">
+        <v>8</v>
+      </c>
+      <c r="F1432">
+        <v>32</v>
+      </c>
+      <c r="G1432">
+        <v>40</v>
+      </c>
+      <c r="H1432">
+        <v>1</v>
+      </c>
+      <c r="I1432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:9">
+      <c r="A1433" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1433" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1433">
+        <v>2023</v>
+      </c>
+      <c r="D1433">
+        <v>10</v>
+      </c>
+      <c r="E1433">
+        <v>8</v>
+      </c>
+      <c r="F1433">
+        <v>24</v>
+      </c>
+      <c r="G1433">
+        <v>32</v>
+      </c>
+      <c r="H1433">
+        <v>1</v>
+      </c>
+      <c r="I1433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:9">
+      <c r="A1434" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1434" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1434">
+        <v>2023</v>
+      </c>
+      <c r="D1434">
+        <v>10</v>
+      </c>
+      <c r="E1434">
+        <v>8</v>
+      </c>
+      <c r="F1434">
+        <v>32</v>
+      </c>
+      <c r="G1434">
+        <v>40</v>
+      </c>
+      <c r="H1434">
+        <v>1</v>
+      </c>
+      <c r="I1434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:9">
+      <c r="A1435" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1435" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1435">
+        <v>2023</v>
+      </c>
+      <c r="D1435">
+        <v>10</v>
+      </c>
+      <c r="E1435">
+        <v>8</v>
+      </c>
+      <c r="F1435">
+        <v>32</v>
+      </c>
+      <c r="G1435">
+        <v>40</v>
+      </c>
+      <c r="H1435">
+        <v>1</v>
+      </c>
+      <c r="I1435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:9">
+      <c r="A1436" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1436" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1436">
+        <v>2023</v>
+      </c>
+      <c r="D1436">
+        <v>10</v>
+      </c>
+      <c r="E1436">
+        <v>8</v>
+      </c>
+      <c r="F1436">
+        <v>32</v>
+      </c>
+      <c r="G1436">
+        <v>40</v>
+      </c>
+      <c r="H1436">
+        <v>1</v>
+      </c>
+      <c r="I1436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:9">
+      <c r="A1437" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1437" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1437">
+        <v>2023</v>
+      </c>
+      <c r="D1437">
+        <v>10</v>
+      </c>
+      <c r="E1437">
+        <v>0</v>
+      </c>
+      <c r="F1437">
+        <v>12</v>
+      </c>
+      <c r="G1437">
+        <v>12</v>
+      </c>
+      <c r="H1437">
+        <v>0</v>
+      </c>
+      <c r="I1437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:9">
+      <c r="A1438" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1438" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1438">
+        <v>2023</v>
+      </c>
+      <c r="D1438">
+        <v>10</v>
+      </c>
+      <c r="E1438">
+        <v>8</v>
+      </c>
+      <c r="F1438">
+        <v>12</v>
+      </c>
+      <c r="G1438">
+        <v>20</v>
+      </c>
+      <c r="H1438">
+        <v>1</v>
+      </c>
+      <c r="I1438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:9">
+      <c r="A1439" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1439" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1439">
+        <v>2023</v>
+      </c>
+      <c r="D1439">
+        <v>10</v>
+      </c>
+      <c r="E1439">
+        <v>8</v>
+      </c>
+      <c r="F1439">
+        <v>32</v>
+      </c>
+      <c r="G1439">
+        <v>40</v>
+      </c>
+      <c r="H1439">
+        <v>1</v>
+      </c>
+      <c r="I1439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:9">
+      <c r="A1440" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1440" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1440">
+        <v>2023</v>
+      </c>
+      <c r="D1440">
+        <v>10</v>
+      </c>
+      <c r="E1440">
+        <v>8</v>
+      </c>
+      <c r="F1440">
+        <v>16</v>
+      </c>
+      <c r="G1440">
+        <v>24</v>
+      </c>
+      <c r="H1440">
+        <v>1</v>
+      </c>
+      <c r="I1440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:9">
+      <c r="A1441" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1441" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1441">
+        <v>2023</v>
+      </c>
+      <c r="D1441">
+        <v>10</v>
+      </c>
+      <c r="E1441">
+        <v>8</v>
+      </c>
+      <c r="F1441">
+        <v>16</v>
+      </c>
+      <c r="G1441">
+        <v>24</v>
+      </c>
+      <c r="H1441">
+        <v>1</v>
+      </c>
+      <c r="I1441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:9">
+      <c r="A1442" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1442" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1442">
+        <v>2023</v>
+      </c>
+      <c r="D1442">
+        <v>10</v>
+      </c>
+      <c r="E1442">
+        <v>8</v>
+      </c>
+      <c r="F1442">
+        <v>12</v>
+      </c>
+      <c r="G1442">
+        <v>20</v>
+      </c>
+      <c r="H1442">
+        <v>1</v>
+      </c>
+      <c r="I1442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:9">
+      <c r="A1443" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1443" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1443">
+        <v>2023</v>
+      </c>
+      <c r="D1443">
+        <v>10</v>
+      </c>
+      <c r="E1443">
+        <v>8</v>
+      </c>
+      <c r="F1443">
+        <v>12</v>
+      </c>
+      <c r="G1443">
+        <v>20</v>
+      </c>
+      <c r="H1443">
+        <v>1</v>
+      </c>
+      <c r="I1443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:9">
+      <c r="A1444" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1444" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1444">
+        <v>2023</v>
+      </c>
+      <c r="D1444">
+        <v>10</v>
+      </c>
+      <c r="E1444">
+        <v>8</v>
+      </c>
+      <c r="F1444">
+        <v>28</v>
+      </c>
+      <c r="G1444">
+        <v>36</v>
+      </c>
+      <c r="H1444">
+        <v>1</v>
+      </c>
+      <c r="I1444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:9">
+      <c r="A1445" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1445" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1445">
+        <v>2023</v>
+      </c>
+      <c r="D1445">
+        <v>10</v>
+      </c>
+      <c r="E1445">
+        <v>8</v>
+      </c>
+      <c r="F1445">
+        <v>32</v>
+      </c>
+      <c r="G1445">
+        <v>40</v>
+      </c>
+      <c r="H1445">
+        <v>1</v>
+      </c>
+      <c r="I1445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:9">
+      <c r="A1446" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1446" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1446">
+        <v>2023</v>
+      </c>
+      <c r="D1446">
+        <v>10</v>
+      </c>
+      <c r="E1446">
+        <v>8</v>
+      </c>
+      <c r="F1446">
+        <v>32</v>
+      </c>
+      <c r="G1446">
+        <v>40</v>
+      </c>
+      <c r="H1446">
+        <v>1</v>
+      </c>
+      <c r="I1446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:9">
+      <c r="A1447" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1447" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1447">
+        <v>2023</v>
+      </c>
+      <c r="D1447">
+        <v>10</v>
+      </c>
+      <c r="E1447">
+        <v>8</v>
+      </c>
+      <c r="F1447">
+        <v>32</v>
+      </c>
+      <c r="G1447">
+        <v>40</v>
+      </c>
+      <c r="H1447">
+        <v>1</v>
+      </c>
+      <c r="I1447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:9">
+      <c r="A1448" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1448" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1448">
+        <v>2023</v>
+      </c>
+      <c r="D1448">
+        <v>10</v>
+      </c>
+      <c r="E1448">
+        <v>8</v>
+      </c>
+      <c r="F1448">
+        <v>32</v>
+      </c>
+      <c r="G1448">
+        <v>40</v>
+      </c>
+      <c r="H1448">
+        <v>1</v>
+      </c>
+      <c r="I1448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:9">
+      <c r="A1449" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1449" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1449">
+        <v>2023</v>
+      </c>
+      <c r="D1449">
+        <v>10</v>
+      </c>
+      <c r="E1449">
+        <v>8</v>
+      </c>
+      <c r="F1449">
+        <v>32</v>
+      </c>
+      <c r="G1449">
+        <v>40</v>
+      </c>
+      <c r="H1449">
+        <v>1</v>
+      </c>
+      <c r="I1449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:9">
+      <c r="A1450" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1450" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1450">
+        <v>2023</v>
+      </c>
+      <c r="D1450">
+        <v>10</v>
+      </c>
+      <c r="E1450">
+        <v>8</v>
+      </c>
+      <c r="F1450">
+        <v>32</v>
+      </c>
+      <c r="G1450">
+        <v>40</v>
+      </c>
+      <c r="H1450">
+        <v>1</v>
+      </c>
+      <c r="I1450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:9">
+      <c r="A1451" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1451" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1451">
+        <v>2023</v>
+      </c>
+      <c r="D1451">
+        <v>10</v>
+      </c>
+      <c r="E1451">
+        <v>8</v>
+      </c>
+      <c r="F1451">
+        <v>8</v>
+      </c>
+      <c r="G1451">
+        <v>16</v>
+      </c>
+      <c r="H1451">
+        <v>1</v>
+      </c>
+      <c r="I1451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:9">
+      <c r="A1452" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1452" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1452">
+        <v>2023</v>
+      </c>
+      <c r="D1452">
+        <v>10</v>
+      </c>
+      <c r="E1452">
+        <v>8</v>
+      </c>
+      <c r="F1452">
+        <v>28</v>
+      </c>
+      <c r="G1452">
+        <v>36</v>
+      </c>
+      <c r="H1452">
+        <v>1</v>
+      </c>
+      <c r="I1452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:9">
+      <c r="A1453" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1453" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1453">
+        <v>2023</v>
+      </c>
+      <c r="D1453">
+        <v>10</v>
+      </c>
+      <c r="E1453">
+        <v>8</v>
+      </c>
+      <c r="F1453">
+        <v>28</v>
+      </c>
+      <c r="G1453">
+        <v>36</v>
+      </c>
+      <c r="H1453">
+        <v>1</v>
+      </c>
+      <c r="I1453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:9">
+      <c r="A1454" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1454" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1454">
+        <v>2023</v>
+      </c>
+      <c r="D1454">
+        <v>10</v>
+      </c>
+      <c r="E1454">
+        <v>8</v>
+      </c>
+      <c r="F1454">
+        <v>24</v>
+      </c>
+      <c r="G1454">
+        <v>32</v>
+      </c>
+      <c r="H1454">
+        <v>1</v>
+      </c>
+      <c r="I1454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:9">
+      <c r="A1455" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1455" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1455">
+        <v>2023</v>
+      </c>
+      <c r="D1455">
+        <v>10</v>
+      </c>
+      <c r="E1455">
+        <v>8</v>
+      </c>
+      <c r="F1455">
+        <v>32</v>
+      </c>
+      <c r="G1455">
+        <v>40</v>
+      </c>
+      <c r="H1455">
+        <v>1</v>
+      </c>
+      <c r="I1455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:9">
+      <c r="A1456" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1456" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1456">
+        <v>2023</v>
+      </c>
+      <c r="D1456">
+        <v>10</v>
+      </c>
+      <c r="E1456">
+        <v>8</v>
+      </c>
+      <c r="F1456">
+        <v>32</v>
+      </c>
+      <c r="G1456">
+        <v>40</v>
+      </c>
+      <c r="H1456">
+        <v>1</v>
+      </c>
+      <c r="I1456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:9">
+      <c r="A1457" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1457" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1457">
+        <v>2023</v>
+      </c>
+      <c r="D1457">
+        <v>10</v>
+      </c>
+      <c r="E1457">
+        <v>8</v>
+      </c>
+      <c r="F1457">
+        <v>32</v>
+      </c>
+      <c r="G1457">
+        <v>40</v>
+      </c>
+      <c r="H1457">
+        <v>1</v>
+      </c>
+      <c r="I1457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:9">
+      <c r="A1458" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1458" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1458">
+        <v>2023</v>
+      </c>
+      <c r="D1458">
+        <v>10</v>
+      </c>
+      <c r="E1458">
+        <v>8</v>
+      </c>
+      <c r="F1458">
+        <v>28</v>
+      </c>
+      <c r="G1458">
+        <v>36</v>
+      </c>
+      <c r="H1458">
+        <v>1</v>
+      </c>
+      <c r="I1458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:9">
+      <c r="A1459" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1459" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1459">
+        <v>2023</v>
+      </c>
+      <c r="D1459">
+        <v>10</v>
+      </c>
+      <c r="E1459">
+        <v>8</v>
+      </c>
+      <c r="F1459">
+        <v>28</v>
+      </c>
+      <c r="G1459">
+        <v>36</v>
+      </c>
+      <c r="H1459">
+        <v>1</v>
+      </c>
+      <c r="I1459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:9">
+      <c r="A1460" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1460" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1460">
+        <v>2023</v>
+      </c>
+      <c r="D1460">
+        <v>10</v>
+      </c>
+      <c r="E1460">
+        <v>8</v>
+      </c>
+      <c r="F1460">
+        <v>32</v>
+      </c>
+      <c r="G1460">
+        <v>40</v>
+      </c>
+      <c r="H1460">
+        <v>1</v>
+      </c>
+      <c r="I1460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:9">
+      <c r="A1461" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1461" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1461">
+        <v>2023</v>
+      </c>
+      <c r="D1461">
+        <v>10</v>
+      </c>
+      <c r="E1461">
+        <v>8</v>
+      </c>
+      <c r="F1461">
+        <v>32</v>
+      </c>
+      <c r="G1461">
+        <v>40</v>
+      </c>
+      <c r="H1461">
+        <v>1</v>
+      </c>
+      <c r="I1461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:9">
+      <c r="A1462" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1462" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1462">
+        <v>2023</v>
+      </c>
+      <c r="D1462">
+        <v>10</v>
+      </c>
+      <c r="E1462">
+        <v>8</v>
+      </c>
+      <c r="F1462">
+        <v>32</v>
+      </c>
+      <c r="G1462">
+        <v>40</v>
+      </c>
+      <c r="H1462">
+        <v>1</v>
+      </c>
+      <c r="I1462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:9">
+      <c r="A1463" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1463" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1463">
+        <v>2023</v>
+      </c>
+      <c r="D1463">
+        <v>10</v>
+      </c>
+      <c r="E1463">
+        <v>8</v>
+      </c>
+      <c r="F1463">
+        <v>24</v>
+      </c>
+      <c r="G1463">
+        <v>32</v>
+      </c>
+      <c r="H1463">
+        <v>1</v>
+      </c>
+      <c r="I1463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:9">
+      <c r="A1464" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1464" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1464">
+        <v>2023</v>
+      </c>
+      <c r="D1464">
+        <v>10</v>
+      </c>
+      <c r="E1464">
+        <v>8</v>
+      </c>
+      <c r="F1464">
+        <v>16</v>
+      </c>
+      <c r="G1464">
+        <v>24</v>
+      </c>
+      <c r="H1464">
+        <v>1</v>
+      </c>
+      <c r="I1464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:9">
+      <c r="A1465" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1465" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1465">
+        <v>2023</v>
+      </c>
+      <c r="D1465">
+        <v>10</v>
+      </c>
+      <c r="E1465">
+        <v>8</v>
+      </c>
+      <c r="F1465">
+        <v>12</v>
+      </c>
+      <c r="G1465">
+        <v>20</v>
+      </c>
+      <c r="H1465">
+        <v>1</v>
+      </c>
+      <c r="I1465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:9">
+      <c r="A1466" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1466" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1466">
+        <v>2023</v>
+      </c>
+      <c r="D1466">
+        <v>10</v>
+      </c>
+      <c r="E1466">
+        <v>4</v>
+      </c>
+      <c r="F1466">
+        <v>16</v>
+      </c>
+      <c r="G1466">
+        <v>20</v>
+      </c>
+      <c r="H1466">
+        <v>0</v>
+      </c>
+      <c r="I1466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:9">
+      <c r="A1467" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1467" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1467">
+        <v>2023</v>
+      </c>
+      <c r="D1467">
+        <v>10</v>
+      </c>
+      <c r="E1467">
+        <v>8</v>
+      </c>
+      <c r="F1467">
+        <v>4</v>
+      </c>
+      <c r="G1467">
+        <v>12</v>
+      </c>
+      <c r="H1467">
+        <v>1</v>
+      </c>
+      <c r="I1467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:9">
+      <c r="A1468" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1468" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1468">
+        <v>2023</v>
+      </c>
+      <c r="D1468">
+        <v>10</v>
+      </c>
+      <c r="E1468">
+        <v>8</v>
+      </c>
+      <c r="F1468">
+        <v>16</v>
+      </c>
+      <c r="G1468">
+        <v>24</v>
+      </c>
+      <c r="H1468">
+        <v>1</v>
+      </c>
+      <c r="I1468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:9">
+      <c r="A1469" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1469" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1469">
+        <v>2023</v>
+      </c>
+      <c r="D1469">
+        <v>10</v>
+      </c>
+      <c r="E1469">
+        <v>4</v>
+      </c>
+      <c r="F1469">
+        <v>24</v>
+      </c>
+      <c r="G1469">
+        <v>28</v>
+      </c>
+      <c r="H1469">
+        <v>0</v>
+      </c>
+      <c r="I1469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:9">
+      <c r="A1470" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1470" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1470">
+        <v>2023</v>
+      </c>
+      <c r="D1470">
+        <v>10</v>
+      </c>
+      <c r="E1470">
+        <v>8</v>
+      </c>
+      <c r="F1470">
+        <v>12</v>
+      </c>
+      <c r="G1470">
+        <v>20</v>
+      </c>
+      <c r="H1470">
+        <v>1</v>
+      </c>
+      <c r="I1470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:9">
+      <c r="A1471" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1471" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1471">
+        <v>2023</v>
+      </c>
+      <c r="D1471">
+        <v>10</v>
+      </c>
+      <c r="E1471">
+        <v>8</v>
+      </c>
+      <c r="F1471">
+        <v>32</v>
+      </c>
+      <c r="G1471">
+        <v>40</v>
+      </c>
+      <c r="H1471">
+        <v>1</v>
+      </c>
+      <c r="I1471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:9">
+      <c r="A1472" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1472" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1472">
+        <v>2023</v>
+      </c>
+      <c r="D1472">
+        <v>10</v>
+      </c>
+      <c r="E1472">
+        <v>0</v>
+      </c>
+      <c r="F1472">
+        <v>0</v>
+      </c>
+      <c r="G1472">
+        <v>0</v>
+      </c>
+      <c r="H1472">
+        <v>0</v>
+      </c>
+      <c r="I1472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:9">
+      <c r="A1473" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1473" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1473">
+        <v>2023</v>
+      </c>
+      <c r="D1473">
+        <v>10</v>
+      </c>
+      <c r="E1473">
+        <v>8</v>
+      </c>
+      <c r="F1473">
+        <v>8</v>
+      </c>
+      <c r="G1473">
+        <v>16</v>
+      </c>
+      <c r="H1473">
+        <v>1</v>
+      </c>
+      <c r="I1473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:9">
+      <c r="A1474" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1474" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1474">
+        <v>2023</v>
+      </c>
+      <c r="D1474">
+        <v>10</v>
+      </c>
+      <c r="E1474">
+        <v>8</v>
+      </c>
+      <c r="F1474">
+        <v>32</v>
+      </c>
+      <c r="G1474">
+        <v>40</v>
+      </c>
+      <c r="H1474">
+        <v>1</v>
+      </c>
+      <c r="I1474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:9">
+      <c r="A1475" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1475" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1475">
+        <v>2023</v>
+      </c>
+      <c r="D1475">
+        <v>10</v>
+      </c>
+      <c r="E1475">
+        <v>8</v>
+      </c>
+      <c r="F1475">
+        <v>8</v>
+      </c>
+      <c r="G1475">
+        <v>16</v>
+      </c>
+      <c r="H1475">
+        <v>1</v>
+      </c>
+      <c r="I1475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:9">
+      <c r="A1476" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1476" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1476">
+        <v>2023</v>
+      </c>
+      <c r="D1476">
+        <v>10</v>
+      </c>
+      <c r="E1476">
+        <v>8</v>
+      </c>
+      <c r="F1476">
+        <v>4</v>
+      </c>
+      <c r="G1476">
+        <v>12</v>
+      </c>
+      <c r="H1476">
+        <v>1</v>
+      </c>
+      <c r="I1476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:9">
+      <c r="A1477" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1477" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1477">
+        <v>2023</v>
+      </c>
+      <c r="D1477">
+        <v>10</v>
+      </c>
+      <c r="E1477">
+        <v>8</v>
+      </c>
+      <c r="F1477">
+        <v>12</v>
+      </c>
+      <c r="G1477">
+        <v>20</v>
+      </c>
+      <c r="H1477">
+        <v>1</v>
+      </c>
+      <c r="I1477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:9">
+      <c r="A1478" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1478" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1478">
+        <v>2023</v>
+      </c>
+      <c r="D1478">
+        <v>10</v>
+      </c>
+      <c r="E1478">
+        <v>8</v>
+      </c>
+      <c r="F1478">
+        <v>12</v>
+      </c>
+      <c r="G1478">
+        <v>20</v>
+      </c>
+      <c r="H1478">
+        <v>1</v>
+      </c>
+      <c r="I1478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:9">
+      <c r="A1479" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1479" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1479">
+        <v>2023</v>
+      </c>
+      <c r="D1479">
+        <v>10</v>
+      </c>
+      <c r="E1479">
+        <v>8</v>
+      </c>
+      <c r="F1479">
+        <v>20</v>
+      </c>
+      <c r="G1479">
+        <v>28</v>
+      </c>
+      <c r="H1479">
+        <v>1</v>
+      </c>
+      <c r="I1479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:9">
+      <c r="A1480" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1480" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1480">
+        <v>2023</v>
+      </c>
+      <c r="D1480">
+        <v>10</v>
+      </c>
+      <c r="E1480">
+        <v>0</v>
+      </c>
+      <c r="F1480">
+        <v>0</v>
+      </c>
+      <c r="G1480">
+        <v>0</v>
+      </c>
+      <c r="H1480">
+        <v>0</v>
+      </c>
+      <c r="I1480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:9">
+      <c r="A1481" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1481" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1481">
+        <v>2023</v>
+      </c>
+      <c r="D1481">
+        <v>10</v>
+      </c>
+      <c r="E1481">
+        <v>8</v>
+      </c>
+      <c r="F1481">
+        <v>24</v>
+      </c>
+      <c r="G1481">
+        <v>32</v>
+      </c>
+      <c r="H1481">
+        <v>1</v>
+      </c>
+      <c r="I1481">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/人工統計.xlsx
+++ b/人工統計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjl/Projects/WRA/WRA06-Volunteer-LineBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EA466F-6EB0-2D49-B413-B0AC94E922AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910E8F41-2BB1-1144-97C7-26AA3D5C38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{EF7ACEBC-F2E8-7045-AC62-F08FDFDE8746}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3565" uniqueCount="310">
   <si>
     <t>A21</t>
   </si>
@@ -973,6 +973,13 @@
     <t>total_hour</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>A99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳淑芳</t>
+  </si>
 </sst>
 </file>
 
@@ -1356,11 +1363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E88F8-DEC5-7B4B-A024-E6B831749FC0}">
-  <dimension ref="A1:I1481"/>
+  <dimension ref="A1:I1779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J348" sqref="J348"/>
+      <pane ySplit="1" topLeftCell="A1687" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1775" sqref="G1775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44317,6 +44324,8648 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1482" spans="1:9">
+      <c r="A1482" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1482">
+        <v>2023</v>
+      </c>
+      <c r="D1482">
+        <v>11</v>
+      </c>
+      <c r="E1482">
+        <v>8</v>
+      </c>
+      <c r="F1482">
+        <v>0</v>
+      </c>
+      <c r="G1482">
+        <v>8</v>
+      </c>
+      <c r="H1482">
+        <v>1</v>
+      </c>
+      <c r="I1482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:9">
+      <c r="A1483" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1483">
+        <v>2023</v>
+      </c>
+      <c r="D1483">
+        <v>11</v>
+      </c>
+      <c r="E1483">
+        <v>8</v>
+      </c>
+      <c r="F1483">
+        <v>0</v>
+      </c>
+      <c r="G1483">
+        <v>8</v>
+      </c>
+      <c r="H1483">
+        <v>1</v>
+      </c>
+      <c r="I1483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:9">
+      <c r="A1484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1484">
+        <v>2023</v>
+      </c>
+      <c r="D1484">
+        <v>11</v>
+      </c>
+      <c r="E1484">
+        <v>8</v>
+      </c>
+      <c r="F1484">
+        <v>0</v>
+      </c>
+      <c r="G1484">
+        <v>8</v>
+      </c>
+      <c r="H1484">
+        <v>1</v>
+      </c>
+      <c r="I1484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:9">
+      <c r="A1485" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1485">
+        <v>2023</v>
+      </c>
+      <c r="D1485">
+        <v>11</v>
+      </c>
+      <c r="E1485">
+        <v>8</v>
+      </c>
+      <c r="F1485">
+        <v>0</v>
+      </c>
+      <c r="G1485">
+        <v>8</v>
+      </c>
+      <c r="H1485">
+        <v>1</v>
+      </c>
+      <c r="I1485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:9">
+      <c r="A1486" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1486">
+        <v>2023</v>
+      </c>
+      <c r="D1486">
+        <v>11</v>
+      </c>
+      <c r="E1486">
+        <v>8</v>
+      </c>
+      <c r="F1486">
+        <v>0</v>
+      </c>
+      <c r="G1486">
+        <v>8</v>
+      </c>
+      <c r="H1486">
+        <v>1</v>
+      </c>
+      <c r="I1486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:9">
+      <c r="A1487" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1487">
+        <v>2023</v>
+      </c>
+      <c r="D1487">
+        <v>11</v>
+      </c>
+      <c r="E1487">
+        <v>8</v>
+      </c>
+      <c r="F1487">
+        <v>0</v>
+      </c>
+      <c r="G1487">
+        <v>8</v>
+      </c>
+      <c r="H1487">
+        <v>1</v>
+      </c>
+      <c r="I1487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:9">
+      <c r="A1488" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1488">
+        <v>2023</v>
+      </c>
+      <c r="D1488">
+        <v>11</v>
+      </c>
+      <c r="E1488">
+        <v>4</v>
+      </c>
+      <c r="F1488">
+        <v>0</v>
+      </c>
+      <c r="G1488">
+        <v>4</v>
+      </c>
+      <c r="H1488">
+        <v>0</v>
+      </c>
+      <c r="I1488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:9">
+      <c r="A1489" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1489">
+        <v>2023</v>
+      </c>
+      <c r="D1489">
+        <v>11</v>
+      </c>
+      <c r="E1489">
+        <v>8</v>
+      </c>
+      <c r="F1489">
+        <v>0</v>
+      </c>
+      <c r="G1489">
+        <v>8</v>
+      </c>
+      <c r="H1489">
+        <v>1</v>
+      </c>
+      <c r="I1489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:9">
+      <c r="A1490" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1490">
+        <v>2023</v>
+      </c>
+      <c r="D1490">
+        <v>11</v>
+      </c>
+      <c r="E1490">
+        <v>8</v>
+      </c>
+      <c r="F1490">
+        <v>0</v>
+      </c>
+      <c r="G1490">
+        <v>8</v>
+      </c>
+      <c r="H1490">
+        <v>1</v>
+      </c>
+      <c r="I1490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:9">
+      <c r="A1491" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1491">
+        <v>2023</v>
+      </c>
+      <c r="D1491">
+        <v>11</v>
+      </c>
+      <c r="E1491">
+        <v>8</v>
+      </c>
+      <c r="F1491">
+        <v>0</v>
+      </c>
+      <c r="G1491">
+        <v>8</v>
+      </c>
+      <c r="H1491">
+        <v>1</v>
+      </c>
+      <c r="I1491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:9">
+      <c r="A1492" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1492">
+        <v>2023</v>
+      </c>
+      <c r="D1492">
+        <v>11</v>
+      </c>
+      <c r="E1492">
+        <v>8</v>
+      </c>
+      <c r="F1492">
+        <v>0</v>
+      </c>
+      <c r="G1492">
+        <v>8</v>
+      </c>
+      <c r="H1492">
+        <v>1</v>
+      </c>
+      <c r="I1492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:9">
+      <c r="A1493" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1493">
+        <v>2023</v>
+      </c>
+      <c r="D1493">
+        <v>11</v>
+      </c>
+      <c r="E1493">
+        <v>8</v>
+      </c>
+      <c r="F1493">
+        <v>0</v>
+      </c>
+      <c r="G1493">
+        <v>8</v>
+      </c>
+      <c r="H1493">
+        <v>1</v>
+      </c>
+      <c r="I1493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:9">
+      <c r="A1494" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1494">
+        <v>2023</v>
+      </c>
+      <c r="D1494">
+        <v>11</v>
+      </c>
+      <c r="E1494">
+        <v>8</v>
+      </c>
+      <c r="F1494">
+        <v>0</v>
+      </c>
+      <c r="G1494">
+        <v>8</v>
+      </c>
+      <c r="H1494">
+        <v>1</v>
+      </c>
+      <c r="I1494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:9">
+      <c r="A1495" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1495">
+        <v>2023</v>
+      </c>
+      <c r="D1495">
+        <v>11</v>
+      </c>
+      <c r="E1495">
+        <v>8</v>
+      </c>
+      <c r="F1495">
+        <v>0</v>
+      </c>
+      <c r="G1495">
+        <v>8</v>
+      </c>
+      <c r="H1495">
+        <v>1</v>
+      </c>
+      <c r="I1495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:9">
+      <c r="A1496" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1496">
+        <v>2023</v>
+      </c>
+      <c r="D1496">
+        <v>11</v>
+      </c>
+      <c r="E1496">
+        <v>8</v>
+      </c>
+      <c r="F1496">
+        <v>0</v>
+      </c>
+      <c r="G1496">
+        <v>8</v>
+      </c>
+      <c r="H1496">
+        <v>1</v>
+      </c>
+      <c r="I1496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:9">
+      <c r="A1497" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1497">
+        <v>2023</v>
+      </c>
+      <c r="D1497">
+        <v>11</v>
+      </c>
+      <c r="E1497">
+        <v>8</v>
+      </c>
+      <c r="F1497">
+        <v>0</v>
+      </c>
+      <c r="G1497">
+        <v>8</v>
+      </c>
+      <c r="H1497">
+        <v>1</v>
+      </c>
+      <c r="I1497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:9">
+      <c r="A1498" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1498">
+        <v>2023</v>
+      </c>
+      <c r="D1498">
+        <v>11</v>
+      </c>
+      <c r="E1498">
+        <v>8</v>
+      </c>
+      <c r="F1498">
+        <v>0</v>
+      </c>
+      <c r="G1498">
+        <v>8</v>
+      </c>
+      <c r="H1498">
+        <v>1</v>
+      </c>
+      <c r="I1498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:9">
+      <c r="A1499" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1499">
+        <v>2023</v>
+      </c>
+      <c r="D1499">
+        <v>11</v>
+      </c>
+      <c r="E1499">
+        <v>0</v>
+      </c>
+      <c r="F1499">
+        <v>0</v>
+      </c>
+      <c r="G1499">
+        <v>0</v>
+      </c>
+      <c r="H1499">
+        <v>0</v>
+      </c>
+      <c r="I1499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:9">
+      <c r="A1500" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1500">
+        <v>2023</v>
+      </c>
+      <c r="D1500">
+        <v>11</v>
+      </c>
+      <c r="E1500">
+        <v>8</v>
+      </c>
+      <c r="F1500">
+        <v>0</v>
+      </c>
+      <c r="G1500">
+        <v>8</v>
+      </c>
+      <c r="H1500">
+        <v>1</v>
+      </c>
+      <c r="I1500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:9">
+      <c r="A1501" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1501">
+        <v>2023</v>
+      </c>
+      <c r="D1501">
+        <v>11</v>
+      </c>
+      <c r="E1501">
+        <v>8</v>
+      </c>
+      <c r="F1501">
+        <v>0</v>
+      </c>
+      <c r="G1501">
+        <v>8</v>
+      </c>
+      <c r="H1501">
+        <v>1</v>
+      </c>
+      <c r="I1501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:9">
+      <c r="A1502" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1502">
+        <v>2023</v>
+      </c>
+      <c r="D1502">
+        <v>11</v>
+      </c>
+      <c r="E1502">
+        <v>8</v>
+      </c>
+      <c r="F1502">
+        <v>0</v>
+      </c>
+      <c r="G1502">
+        <v>8</v>
+      </c>
+      <c r="H1502">
+        <v>1</v>
+      </c>
+      <c r="I1502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:9">
+      <c r="A1503" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1503">
+        <v>2023</v>
+      </c>
+      <c r="D1503">
+        <v>11</v>
+      </c>
+      <c r="E1503">
+        <v>8</v>
+      </c>
+      <c r="F1503">
+        <v>0</v>
+      </c>
+      <c r="G1503">
+        <v>8</v>
+      </c>
+      <c r="H1503">
+        <v>1</v>
+      </c>
+      <c r="I1503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:9">
+      <c r="A1504" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1504">
+        <v>2023</v>
+      </c>
+      <c r="D1504">
+        <v>11</v>
+      </c>
+      <c r="E1504">
+        <v>8</v>
+      </c>
+      <c r="F1504">
+        <v>0</v>
+      </c>
+      <c r="G1504">
+        <v>8</v>
+      </c>
+      <c r="H1504">
+        <v>1</v>
+      </c>
+      <c r="I1504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:9">
+      <c r="A1505" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1505">
+        <v>2023</v>
+      </c>
+      <c r="D1505">
+        <v>11</v>
+      </c>
+      <c r="E1505">
+        <v>8</v>
+      </c>
+      <c r="F1505">
+        <v>0</v>
+      </c>
+      <c r="G1505">
+        <v>8</v>
+      </c>
+      <c r="H1505">
+        <v>1</v>
+      </c>
+      <c r="I1505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:9">
+      <c r="A1506" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1506">
+        <v>2023</v>
+      </c>
+      <c r="D1506">
+        <v>11</v>
+      </c>
+      <c r="E1506">
+        <v>8</v>
+      </c>
+      <c r="F1506">
+        <v>0</v>
+      </c>
+      <c r="G1506">
+        <v>8</v>
+      </c>
+      <c r="H1506">
+        <v>1</v>
+      </c>
+      <c r="I1506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:9">
+      <c r="A1507" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1507">
+        <v>2023</v>
+      </c>
+      <c r="D1507">
+        <v>11</v>
+      </c>
+      <c r="E1507">
+        <v>8</v>
+      </c>
+      <c r="F1507">
+        <v>0</v>
+      </c>
+      <c r="G1507">
+        <v>8</v>
+      </c>
+      <c r="H1507">
+        <v>1</v>
+      </c>
+      <c r="I1507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:9">
+      <c r="A1508" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1508">
+        <v>2023</v>
+      </c>
+      <c r="D1508">
+        <v>11</v>
+      </c>
+      <c r="E1508">
+        <v>8</v>
+      </c>
+      <c r="F1508">
+        <v>0</v>
+      </c>
+      <c r="G1508">
+        <v>8</v>
+      </c>
+      <c r="H1508">
+        <v>1</v>
+      </c>
+      <c r="I1508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:9">
+      <c r="A1509" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1509">
+        <v>2023</v>
+      </c>
+      <c r="D1509">
+        <v>11</v>
+      </c>
+      <c r="E1509">
+        <v>0</v>
+      </c>
+      <c r="F1509">
+        <v>0</v>
+      </c>
+      <c r="G1509">
+        <v>0</v>
+      </c>
+      <c r="H1509">
+        <v>0</v>
+      </c>
+      <c r="I1509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:9">
+      <c r="A1510" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1510">
+        <v>2023</v>
+      </c>
+      <c r="D1510">
+        <v>11</v>
+      </c>
+      <c r="E1510">
+        <v>8</v>
+      </c>
+      <c r="F1510">
+        <v>0</v>
+      </c>
+      <c r="G1510">
+        <v>8</v>
+      </c>
+      <c r="H1510">
+        <v>1</v>
+      </c>
+      <c r="I1510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:9">
+      <c r="A1511" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1511">
+        <v>2023</v>
+      </c>
+      <c r="D1511">
+        <v>11</v>
+      </c>
+      <c r="E1511">
+        <v>8</v>
+      </c>
+      <c r="F1511">
+        <v>0</v>
+      </c>
+      <c r="G1511">
+        <v>8</v>
+      </c>
+      <c r="H1511">
+        <v>1</v>
+      </c>
+      <c r="I1511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:9">
+      <c r="A1512" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1512">
+        <v>2023</v>
+      </c>
+      <c r="D1512">
+        <v>11</v>
+      </c>
+      <c r="E1512">
+        <v>8</v>
+      </c>
+      <c r="F1512">
+        <v>0</v>
+      </c>
+      <c r="G1512">
+        <v>8</v>
+      </c>
+      <c r="H1512">
+        <v>1</v>
+      </c>
+      <c r="I1512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:9">
+      <c r="A1513" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1513">
+        <v>2023</v>
+      </c>
+      <c r="D1513">
+        <v>11</v>
+      </c>
+      <c r="E1513">
+        <v>4</v>
+      </c>
+      <c r="F1513">
+        <v>0</v>
+      </c>
+      <c r="G1513">
+        <v>4</v>
+      </c>
+      <c r="H1513">
+        <v>0</v>
+      </c>
+      <c r="I1513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:9">
+      <c r="A1514" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1514">
+        <v>2023</v>
+      </c>
+      <c r="D1514">
+        <v>11</v>
+      </c>
+      <c r="E1514">
+        <v>8</v>
+      </c>
+      <c r="F1514">
+        <v>0</v>
+      </c>
+      <c r="G1514">
+        <v>8</v>
+      </c>
+      <c r="H1514">
+        <v>1</v>
+      </c>
+      <c r="I1514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:9">
+      <c r="A1515" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1515">
+        <v>2023</v>
+      </c>
+      <c r="D1515">
+        <v>11</v>
+      </c>
+      <c r="E1515">
+        <v>8</v>
+      </c>
+      <c r="F1515">
+        <v>0</v>
+      </c>
+      <c r="G1515">
+        <v>8</v>
+      </c>
+      <c r="H1515">
+        <v>1</v>
+      </c>
+      <c r="I1515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:9">
+      <c r="A1516" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1516">
+        <v>2023</v>
+      </c>
+      <c r="D1516">
+        <v>11</v>
+      </c>
+      <c r="E1516">
+        <v>8</v>
+      </c>
+      <c r="F1516">
+        <v>0</v>
+      </c>
+      <c r="G1516">
+        <v>8</v>
+      </c>
+      <c r="H1516">
+        <v>1</v>
+      </c>
+      <c r="I1516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:9">
+      <c r="A1517" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1517">
+        <v>2023</v>
+      </c>
+      <c r="D1517">
+        <v>11</v>
+      </c>
+      <c r="E1517">
+        <v>8</v>
+      </c>
+      <c r="F1517">
+        <v>0</v>
+      </c>
+      <c r="G1517">
+        <v>8</v>
+      </c>
+      <c r="H1517">
+        <v>1</v>
+      </c>
+      <c r="I1517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:9">
+      <c r="A1518" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1518">
+        <v>2023</v>
+      </c>
+      <c r="D1518">
+        <v>11</v>
+      </c>
+      <c r="E1518">
+        <v>8</v>
+      </c>
+      <c r="F1518">
+        <v>0</v>
+      </c>
+      <c r="G1518">
+        <v>8</v>
+      </c>
+      <c r="H1518">
+        <v>1</v>
+      </c>
+      <c r="I1518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:9">
+      <c r="A1519" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1519">
+        <v>2023</v>
+      </c>
+      <c r="D1519">
+        <v>11</v>
+      </c>
+      <c r="E1519">
+        <v>8</v>
+      </c>
+      <c r="F1519">
+        <v>0</v>
+      </c>
+      <c r="G1519">
+        <v>8</v>
+      </c>
+      <c r="H1519">
+        <v>1</v>
+      </c>
+      <c r="I1519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:9">
+      <c r="A1520" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1520">
+        <v>2023</v>
+      </c>
+      <c r="D1520">
+        <v>11</v>
+      </c>
+      <c r="E1520">
+        <v>8</v>
+      </c>
+      <c r="F1520">
+        <v>0</v>
+      </c>
+      <c r="G1520">
+        <v>8</v>
+      </c>
+      <c r="H1520">
+        <v>1</v>
+      </c>
+      <c r="I1520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:9">
+      <c r="A1521" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1521">
+        <v>2023</v>
+      </c>
+      <c r="D1521">
+        <v>11</v>
+      </c>
+      <c r="E1521">
+        <v>8</v>
+      </c>
+      <c r="F1521">
+        <v>0</v>
+      </c>
+      <c r="G1521">
+        <v>8</v>
+      </c>
+      <c r="H1521">
+        <v>1</v>
+      </c>
+      <c r="I1521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:9">
+      <c r="A1522" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1522">
+        <v>2023</v>
+      </c>
+      <c r="D1522">
+        <v>11</v>
+      </c>
+      <c r="E1522">
+        <v>8</v>
+      </c>
+      <c r="F1522">
+        <v>0</v>
+      </c>
+      <c r="G1522">
+        <v>8</v>
+      </c>
+      <c r="H1522">
+        <v>1</v>
+      </c>
+      <c r="I1522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:9">
+      <c r="A1523" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1523">
+        <v>2023</v>
+      </c>
+      <c r="D1523">
+        <v>11</v>
+      </c>
+      <c r="E1523">
+        <v>8</v>
+      </c>
+      <c r="F1523">
+        <v>0</v>
+      </c>
+      <c r="G1523">
+        <v>8</v>
+      </c>
+      <c r="H1523">
+        <v>1</v>
+      </c>
+      <c r="I1523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:9">
+      <c r="A1524" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1524">
+        <v>2023</v>
+      </c>
+      <c r="D1524">
+        <v>11</v>
+      </c>
+      <c r="E1524">
+        <v>0</v>
+      </c>
+      <c r="F1524">
+        <v>0</v>
+      </c>
+      <c r="G1524">
+        <v>0</v>
+      </c>
+      <c r="H1524">
+        <v>0</v>
+      </c>
+      <c r="I1524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:9">
+      <c r="A1525" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1525">
+        <v>2023</v>
+      </c>
+      <c r="D1525">
+        <v>11</v>
+      </c>
+      <c r="E1525">
+        <v>8</v>
+      </c>
+      <c r="F1525">
+        <v>0</v>
+      </c>
+      <c r="G1525">
+        <v>8</v>
+      </c>
+      <c r="H1525">
+        <v>1</v>
+      </c>
+      <c r="I1525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:9">
+      <c r="A1526" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1526">
+        <v>2023</v>
+      </c>
+      <c r="D1526">
+        <v>11</v>
+      </c>
+      <c r="E1526">
+        <v>8</v>
+      </c>
+      <c r="F1526">
+        <v>0</v>
+      </c>
+      <c r="G1526">
+        <v>8</v>
+      </c>
+      <c r="H1526">
+        <v>1</v>
+      </c>
+      <c r="I1526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:9">
+      <c r="A1527" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1527">
+        <v>2023</v>
+      </c>
+      <c r="D1527">
+        <v>11</v>
+      </c>
+      <c r="E1527">
+        <v>8</v>
+      </c>
+      <c r="F1527">
+        <v>0</v>
+      </c>
+      <c r="G1527">
+        <v>8</v>
+      </c>
+      <c r="H1527">
+        <v>1</v>
+      </c>
+      <c r="I1527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:9">
+      <c r="A1528" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1528">
+        <v>2023</v>
+      </c>
+      <c r="D1528">
+        <v>11</v>
+      </c>
+      <c r="E1528">
+        <v>8</v>
+      </c>
+      <c r="F1528">
+        <v>0</v>
+      </c>
+      <c r="G1528">
+        <v>8</v>
+      </c>
+      <c r="H1528">
+        <v>1</v>
+      </c>
+      <c r="I1528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:9">
+      <c r="A1529" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1529">
+        <v>2023</v>
+      </c>
+      <c r="D1529">
+        <v>11</v>
+      </c>
+      <c r="E1529">
+        <v>8</v>
+      </c>
+      <c r="F1529">
+        <v>0</v>
+      </c>
+      <c r="G1529">
+        <v>8</v>
+      </c>
+      <c r="H1529">
+        <v>1</v>
+      </c>
+      <c r="I1529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:9">
+      <c r="A1530" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1530">
+        <v>2023</v>
+      </c>
+      <c r="D1530">
+        <v>11</v>
+      </c>
+      <c r="E1530">
+        <v>8</v>
+      </c>
+      <c r="F1530">
+        <v>0</v>
+      </c>
+      <c r="G1530">
+        <v>8</v>
+      </c>
+      <c r="H1530">
+        <v>1</v>
+      </c>
+      <c r="I1530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:9">
+      <c r="A1531" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1531">
+        <v>2023</v>
+      </c>
+      <c r="D1531">
+        <v>11</v>
+      </c>
+      <c r="E1531">
+        <v>8</v>
+      </c>
+      <c r="F1531">
+        <v>0</v>
+      </c>
+      <c r="G1531">
+        <v>8</v>
+      </c>
+      <c r="H1531">
+        <v>1</v>
+      </c>
+      <c r="I1531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:9">
+      <c r="A1532" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1532">
+        <v>2023</v>
+      </c>
+      <c r="D1532">
+        <v>11</v>
+      </c>
+      <c r="E1532">
+        <v>8</v>
+      </c>
+      <c r="F1532">
+        <v>0</v>
+      </c>
+      <c r="G1532">
+        <v>8</v>
+      </c>
+      <c r="H1532">
+        <v>1</v>
+      </c>
+      <c r="I1532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:9">
+      <c r="A1533" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1533">
+        <v>2023</v>
+      </c>
+      <c r="D1533">
+        <v>11</v>
+      </c>
+      <c r="E1533">
+        <v>8</v>
+      </c>
+      <c r="F1533">
+        <v>0</v>
+      </c>
+      <c r="G1533">
+        <v>8</v>
+      </c>
+      <c r="H1533">
+        <v>1</v>
+      </c>
+      <c r="I1533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:9">
+      <c r="A1534" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1534">
+        <v>2023</v>
+      </c>
+      <c r="D1534">
+        <v>11</v>
+      </c>
+      <c r="E1534">
+        <v>8</v>
+      </c>
+      <c r="F1534">
+        <v>0</v>
+      </c>
+      <c r="G1534">
+        <v>8</v>
+      </c>
+      <c r="H1534">
+        <v>1</v>
+      </c>
+      <c r="I1534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:9">
+      <c r="A1535" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1535">
+        <v>2023</v>
+      </c>
+      <c r="D1535">
+        <v>11</v>
+      </c>
+      <c r="E1535">
+        <v>8</v>
+      </c>
+      <c r="F1535">
+        <v>0</v>
+      </c>
+      <c r="G1535">
+        <v>8</v>
+      </c>
+      <c r="H1535">
+        <v>1</v>
+      </c>
+      <c r="I1535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:9">
+      <c r="A1536" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1536">
+        <v>2023</v>
+      </c>
+      <c r="D1536">
+        <v>11</v>
+      </c>
+      <c r="E1536">
+        <v>8</v>
+      </c>
+      <c r="F1536">
+        <v>0</v>
+      </c>
+      <c r="G1536">
+        <v>8</v>
+      </c>
+      <c r="H1536">
+        <v>1</v>
+      </c>
+      <c r="I1536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:9">
+      <c r="A1537" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1537">
+        <v>2023</v>
+      </c>
+      <c r="D1537">
+        <v>11</v>
+      </c>
+      <c r="E1537">
+        <v>8</v>
+      </c>
+      <c r="F1537">
+        <v>0</v>
+      </c>
+      <c r="G1537">
+        <v>8</v>
+      </c>
+      <c r="H1537">
+        <v>1</v>
+      </c>
+      <c r="I1537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:9">
+      <c r="A1538" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1538">
+        <v>2023</v>
+      </c>
+      <c r="D1538">
+        <v>11</v>
+      </c>
+      <c r="E1538">
+        <v>8</v>
+      </c>
+      <c r="F1538">
+        <v>0</v>
+      </c>
+      <c r="G1538">
+        <v>8</v>
+      </c>
+      <c r="H1538">
+        <v>1</v>
+      </c>
+      <c r="I1538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:9">
+      <c r="A1539" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1539">
+        <v>2023</v>
+      </c>
+      <c r="D1539">
+        <v>11</v>
+      </c>
+      <c r="E1539">
+        <v>8</v>
+      </c>
+      <c r="F1539">
+        <v>0</v>
+      </c>
+      <c r="G1539">
+        <v>8</v>
+      </c>
+      <c r="H1539">
+        <v>1</v>
+      </c>
+      <c r="I1539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:9">
+      <c r="A1540" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1540">
+        <v>2023</v>
+      </c>
+      <c r="D1540">
+        <v>11</v>
+      </c>
+      <c r="E1540">
+        <v>8</v>
+      </c>
+      <c r="F1540">
+        <v>0</v>
+      </c>
+      <c r="G1540">
+        <v>8</v>
+      </c>
+      <c r="H1540">
+        <v>1</v>
+      </c>
+      <c r="I1540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:9">
+      <c r="A1541" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1541">
+        <v>2023</v>
+      </c>
+      <c r="D1541">
+        <v>11</v>
+      </c>
+      <c r="E1541">
+        <v>0</v>
+      </c>
+      <c r="F1541">
+        <v>0</v>
+      </c>
+      <c r="G1541">
+        <v>0</v>
+      </c>
+      <c r="H1541">
+        <v>0</v>
+      </c>
+      <c r="I1541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:9">
+      <c r="A1542" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1542">
+        <v>2023</v>
+      </c>
+      <c r="D1542">
+        <v>11</v>
+      </c>
+      <c r="E1542">
+        <v>0</v>
+      </c>
+      <c r="F1542">
+        <v>0</v>
+      </c>
+      <c r="G1542">
+        <v>0</v>
+      </c>
+      <c r="H1542">
+        <v>0</v>
+      </c>
+      <c r="I1542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:9">
+      <c r="A1543" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1543">
+        <v>2023</v>
+      </c>
+      <c r="D1543">
+        <v>11</v>
+      </c>
+      <c r="E1543">
+        <v>8</v>
+      </c>
+      <c r="F1543">
+        <v>0</v>
+      </c>
+      <c r="G1543">
+        <v>8</v>
+      </c>
+      <c r="H1543">
+        <v>1</v>
+      </c>
+      <c r="I1543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:9">
+      <c r="A1544" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1544">
+        <v>2023</v>
+      </c>
+      <c r="D1544">
+        <v>11</v>
+      </c>
+      <c r="E1544">
+        <v>8</v>
+      </c>
+      <c r="F1544">
+        <v>0</v>
+      </c>
+      <c r="G1544">
+        <v>8</v>
+      </c>
+      <c r="H1544">
+        <v>1</v>
+      </c>
+      <c r="I1544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:9">
+      <c r="A1545" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1545">
+        <v>2023</v>
+      </c>
+      <c r="D1545">
+        <v>11</v>
+      </c>
+      <c r="E1545">
+        <v>8</v>
+      </c>
+      <c r="F1545">
+        <v>0</v>
+      </c>
+      <c r="G1545">
+        <v>8</v>
+      </c>
+      <c r="H1545">
+        <v>1</v>
+      </c>
+      <c r="I1545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:9">
+      <c r="A1546" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1546">
+        <v>2023</v>
+      </c>
+      <c r="D1546">
+        <v>11</v>
+      </c>
+      <c r="E1546">
+        <v>8</v>
+      </c>
+      <c r="F1546">
+        <v>0</v>
+      </c>
+      <c r="G1546">
+        <v>8</v>
+      </c>
+      <c r="H1546">
+        <v>1</v>
+      </c>
+      <c r="I1546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:9">
+      <c r="A1547" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1547">
+        <v>2023</v>
+      </c>
+      <c r="D1547">
+        <v>11</v>
+      </c>
+      <c r="E1547">
+        <v>4</v>
+      </c>
+      <c r="F1547">
+        <v>0</v>
+      </c>
+      <c r="G1547">
+        <v>4</v>
+      </c>
+      <c r="H1547">
+        <v>0</v>
+      </c>
+      <c r="I1547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:9">
+      <c r="A1548" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1548">
+        <v>2023</v>
+      </c>
+      <c r="D1548">
+        <v>11</v>
+      </c>
+      <c r="E1548">
+        <v>4</v>
+      </c>
+      <c r="F1548">
+        <v>0</v>
+      </c>
+      <c r="G1548">
+        <v>4</v>
+      </c>
+      <c r="H1548">
+        <v>0</v>
+      </c>
+      <c r="I1548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:9">
+      <c r="A1549" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1549">
+        <v>2023</v>
+      </c>
+      <c r="D1549">
+        <v>11</v>
+      </c>
+      <c r="E1549">
+        <v>8</v>
+      </c>
+      <c r="F1549">
+        <v>0</v>
+      </c>
+      <c r="G1549">
+        <v>8</v>
+      </c>
+      <c r="H1549">
+        <v>1</v>
+      </c>
+      <c r="I1549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:9">
+      <c r="A1550" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1550">
+        <v>2023</v>
+      </c>
+      <c r="D1550">
+        <v>11</v>
+      </c>
+      <c r="E1550">
+        <v>8</v>
+      </c>
+      <c r="F1550">
+        <v>0</v>
+      </c>
+      <c r="G1550">
+        <v>8</v>
+      </c>
+      <c r="H1550">
+        <v>1</v>
+      </c>
+      <c r="I1550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:9">
+      <c r="A1551" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1551">
+        <v>2023</v>
+      </c>
+      <c r="D1551">
+        <v>11</v>
+      </c>
+      <c r="E1551">
+        <v>8</v>
+      </c>
+      <c r="F1551">
+        <v>0</v>
+      </c>
+      <c r="G1551">
+        <v>8</v>
+      </c>
+      <c r="H1551">
+        <v>1</v>
+      </c>
+      <c r="I1551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:9">
+      <c r="A1552" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1552">
+        <v>2023</v>
+      </c>
+      <c r="D1552">
+        <v>11</v>
+      </c>
+      <c r="E1552">
+        <v>8</v>
+      </c>
+      <c r="F1552">
+        <v>0</v>
+      </c>
+      <c r="G1552">
+        <v>8</v>
+      </c>
+      <c r="H1552">
+        <v>1</v>
+      </c>
+      <c r="I1552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:9">
+      <c r="A1553" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1553">
+        <v>2023</v>
+      </c>
+      <c r="D1553">
+        <v>11</v>
+      </c>
+      <c r="E1553">
+        <v>8</v>
+      </c>
+      <c r="F1553">
+        <v>0</v>
+      </c>
+      <c r="G1553">
+        <v>8</v>
+      </c>
+      <c r="H1553">
+        <v>1</v>
+      </c>
+      <c r="I1553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:9">
+      <c r="A1554" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1554">
+        <v>2023</v>
+      </c>
+      <c r="D1554">
+        <v>11</v>
+      </c>
+      <c r="E1554">
+        <v>8</v>
+      </c>
+      <c r="F1554">
+        <v>0</v>
+      </c>
+      <c r="G1554">
+        <v>8</v>
+      </c>
+      <c r="H1554">
+        <v>1</v>
+      </c>
+      <c r="I1554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:9">
+      <c r="A1555" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1555">
+        <v>2023</v>
+      </c>
+      <c r="D1555">
+        <v>11</v>
+      </c>
+      <c r="E1555">
+        <v>8</v>
+      </c>
+      <c r="F1555">
+        <v>0</v>
+      </c>
+      <c r="G1555">
+        <v>8</v>
+      </c>
+      <c r="H1555">
+        <v>1</v>
+      </c>
+      <c r="I1555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:9">
+      <c r="A1556" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1556">
+        <v>2023</v>
+      </c>
+      <c r="D1556">
+        <v>11</v>
+      </c>
+      <c r="E1556">
+        <v>8</v>
+      </c>
+      <c r="F1556">
+        <v>0</v>
+      </c>
+      <c r="G1556">
+        <v>8</v>
+      </c>
+      <c r="H1556">
+        <v>1</v>
+      </c>
+      <c r="I1556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:9">
+      <c r="A1557" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1557">
+        <v>2023</v>
+      </c>
+      <c r="D1557">
+        <v>11</v>
+      </c>
+      <c r="E1557">
+        <v>8</v>
+      </c>
+      <c r="F1557">
+        <v>0</v>
+      </c>
+      <c r="G1557">
+        <v>8</v>
+      </c>
+      <c r="H1557">
+        <v>1</v>
+      </c>
+      <c r="I1557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:9">
+      <c r="A1558" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1558">
+        <v>2023</v>
+      </c>
+      <c r="D1558">
+        <v>11</v>
+      </c>
+      <c r="E1558">
+        <v>8</v>
+      </c>
+      <c r="F1558">
+        <v>0</v>
+      </c>
+      <c r="G1558">
+        <v>8</v>
+      </c>
+      <c r="H1558">
+        <v>1</v>
+      </c>
+      <c r="I1558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:9">
+      <c r="A1559" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1559">
+        <v>2023</v>
+      </c>
+      <c r="D1559">
+        <v>11</v>
+      </c>
+      <c r="E1559">
+        <v>8</v>
+      </c>
+      <c r="F1559">
+        <v>0</v>
+      </c>
+      <c r="G1559">
+        <v>8</v>
+      </c>
+      <c r="H1559">
+        <v>1</v>
+      </c>
+      <c r="I1559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:9">
+      <c r="A1560" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1560">
+        <v>2023</v>
+      </c>
+      <c r="D1560">
+        <v>11</v>
+      </c>
+      <c r="E1560">
+        <v>8</v>
+      </c>
+      <c r="F1560">
+        <v>0</v>
+      </c>
+      <c r="G1560">
+        <v>8</v>
+      </c>
+      <c r="H1560">
+        <v>1</v>
+      </c>
+      <c r="I1560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:9">
+      <c r="A1561" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1561">
+        <v>2023</v>
+      </c>
+      <c r="D1561">
+        <v>11</v>
+      </c>
+      <c r="E1561">
+        <v>8</v>
+      </c>
+      <c r="F1561">
+        <v>0</v>
+      </c>
+      <c r="G1561">
+        <v>8</v>
+      </c>
+      <c r="H1561">
+        <v>1</v>
+      </c>
+      <c r="I1561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:9">
+      <c r="A1562" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1562">
+        <v>2023</v>
+      </c>
+      <c r="D1562">
+        <v>11</v>
+      </c>
+      <c r="E1562">
+        <v>8</v>
+      </c>
+      <c r="F1562">
+        <v>0</v>
+      </c>
+      <c r="G1562">
+        <v>8</v>
+      </c>
+      <c r="H1562">
+        <v>1</v>
+      </c>
+      <c r="I1562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:9">
+      <c r="A1563" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1563">
+        <v>2023</v>
+      </c>
+      <c r="D1563">
+        <v>11</v>
+      </c>
+      <c r="E1563">
+        <v>8</v>
+      </c>
+      <c r="F1563">
+        <v>0</v>
+      </c>
+      <c r="G1563">
+        <v>8</v>
+      </c>
+      <c r="H1563">
+        <v>1</v>
+      </c>
+      <c r="I1563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:9">
+      <c r="A1564" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1564">
+        <v>2023</v>
+      </c>
+      <c r="D1564">
+        <v>11</v>
+      </c>
+      <c r="E1564">
+        <v>8</v>
+      </c>
+      <c r="F1564">
+        <v>0</v>
+      </c>
+      <c r="G1564">
+        <v>8</v>
+      </c>
+      <c r="H1564">
+        <v>1</v>
+      </c>
+      <c r="I1564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:9">
+      <c r="A1565" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1565">
+        <v>2023</v>
+      </c>
+      <c r="D1565">
+        <v>11</v>
+      </c>
+      <c r="E1565">
+        <v>8</v>
+      </c>
+      <c r="F1565">
+        <v>0</v>
+      </c>
+      <c r="G1565">
+        <v>8</v>
+      </c>
+      <c r="H1565">
+        <v>1</v>
+      </c>
+      <c r="I1565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:9">
+      <c r="A1566" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1566">
+        <v>2023</v>
+      </c>
+      <c r="D1566">
+        <v>11</v>
+      </c>
+      <c r="E1566">
+        <v>8</v>
+      </c>
+      <c r="F1566">
+        <v>0</v>
+      </c>
+      <c r="G1566">
+        <v>8</v>
+      </c>
+      <c r="H1566">
+        <v>1</v>
+      </c>
+      <c r="I1566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:9">
+      <c r="A1567" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1567">
+        <v>2023</v>
+      </c>
+      <c r="D1567">
+        <v>11</v>
+      </c>
+      <c r="E1567">
+        <v>8</v>
+      </c>
+      <c r="F1567">
+        <v>0</v>
+      </c>
+      <c r="G1567">
+        <v>8</v>
+      </c>
+      <c r="H1567">
+        <v>1</v>
+      </c>
+      <c r="I1567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:9">
+      <c r="A1568" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1568">
+        <v>2023</v>
+      </c>
+      <c r="D1568">
+        <v>11</v>
+      </c>
+      <c r="E1568">
+        <v>8</v>
+      </c>
+      <c r="F1568">
+        <v>0</v>
+      </c>
+      <c r="G1568">
+        <v>8</v>
+      </c>
+      <c r="H1568">
+        <v>1</v>
+      </c>
+      <c r="I1568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:9">
+      <c r="A1569" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1569">
+        <v>2023</v>
+      </c>
+      <c r="D1569">
+        <v>11</v>
+      </c>
+      <c r="E1569">
+        <v>8</v>
+      </c>
+      <c r="F1569">
+        <v>0</v>
+      </c>
+      <c r="G1569">
+        <v>8</v>
+      </c>
+      <c r="H1569">
+        <v>1</v>
+      </c>
+      <c r="I1569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:9">
+      <c r="A1570" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1570">
+        <v>2023</v>
+      </c>
+      <c r="D1570">
+        <v>11</v>
+      </c>
+      <c r="E1570">
+        <v>8</v>
+      </c>
+      <c r="F1570">
+        <v>0</v>
+      </c>
+      <c r="G1570">
+        <v>8</v>
+      </c>
+      <c r="H1570">
+        <v>1</v>
+      </c>
+      <c r="I1570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:9">
+      <c r="A1571" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1571">
+        <v>2023</v>
+      </c>
+      <c r="D1571">
+        <v>11</v>
+      </c>
+      <c r="E1571">
+        <v>8</v>
+      </c>
+      <c r="F1571">
+        <v>0</v>
+      </c>
+      <c r="G1571">
+        <v>8</v>
+      </c>
+      <c r="H1571">
+        <v>1</v>
+      </c>
+      <c r="I1571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:9">
+      <c r="A1572" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1572">
+        <v>2023</v>
+      </c>
+      <c r="D1572">
+        <v>11</v>
+      </c>
+      <c r="E1572">
+        <v>8</v>
+      </c>
+      <c r="F1572">
+        <v>0</v>
+      </c>
+      <c r="G1572">
+        <v>8</v>
+      </c>
+      <c r="H1572">
+        <v>1</v>
+      </c>
+      <c r="I1572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:9">
+      <c r="A1573" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1573">
+        <v>2023</v>
+      </c>
+      <c r="D1573">
+        <v>11</v>
+      </c>
+      <c r="E1573">
+        <v>8</v>
+      </c>
+      <c r="F1573">
+        <v>0</v>
+      </c>
+      <c r="G1573">
+        <v>8</v>
+      </c>
+      <c r="H1573">
+        <v>1</v>
+      </c>
+      <c r="I1573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:9">
+      <c r="A1574" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1574">
+        <v>2023</v>
+      </c>
+      <c r="D1574">
+        <v>11</v>
+      </c>
+      <c r="E1574">
+        <v>8</v>
+      </c>
+      <c r="F1574">
+        <v>0</v>
+      </c>
+      <c r="G1574">
+        <v>8</v>
+      </c>
+      <c r="H1574">
+        <v>1</v>
+      </c>
+      <c r="I1574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:9">
+      <c r="A1575" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1575">
+        <v>2023</v>
+      </c>
+      <c r="D1575">
+        <v>11</v>
+      </c>
+      <c r="E1575">
+        <v>8</v>
+      </c>
+      <c r="F1575">
+        <v>0</v>
+      </c>
+      <c r="G1575">
+        <v>8</v>
+      </c>
+      <c r="H1575">
+        <v>1</v>
+      </c>
+      <c r="I1575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:9">
+      <c r="A1576" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1576">
+        <v>2023</v>
+      </c>
+      <c r="D1576">
+        <v>11</v>
+      </c>
+      <c r="E1576">
+        <v>8</v>
+      </c>
+      <c r="F1576">
+        <v>0</v>
+      </c>
+      <c r="G1576">
+        <v>8</v>
+      </c>
+      <c r="H1576">
+        <v>1</v>
+      </c>
+      <c r="I1576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:9">
+      <c r="A1577" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1577">
+        <v>2023</v>
+      </c>
+      <c r="D1577">
+        <v>11</v>
+      </c>
+      <c r="E1577">
+        <v>8</v>
+      </c>
+      <c r="F1577">
+        <v>0</v>
+      </c>
+      <c r="G1577">
+        <v>8</v>
+      </c>
+      <c r="H1577">
+        <v>1</v>
+      </c>
+      <c r="I1577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:9">
+      <c r="A1578" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1578">
+        <v>2023</v>
+      </c>
+      <c r="D1578">
+        <v>11</v>
+      </c>
+      <c r="E1578">
+        <v>8</v>
+      </c>
+      <c r="F1578">
+        <v>0</v>
+      </c>
+      <c r="G1578">
+        <v>8</v>
+      </c>
+      <c r="H1578">
+        <v>1</v>
+      </c>
+      <c r="I1578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:9">
+      <c r="A1579" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1579">
+        <v>2023</v>
+      </c>
+      <c r="D1579">
+        <v>11</v>
+      </c>
+      <c r="E1579">
+        <v>8</v>
+      </c>
+      <c r="F1579">
+        <v>0</v>
+      </c>
+      <c r="G1579">
+        <v>8</v>
+      </c>
+      <c r="H1579">
+        <v>1</v>
+      </c>
+      <c r="I1579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:9">
+      <c r="A1580" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1580">
+        <v>2023</v>
+      </c>
+      <c r="D1580">
+        <v>11</v>
+      </c>
+      <c r="E1580">
+        <v>8</v>
+      </c>
+      <c r="F1580">
+        <v>0</v>
+      </c>
+      <c r="G1580">
+        <v>8</v>
+      </c>
+      <c r="H1580">
+        <v>1</v>
+      </c>
+      <c r="I1580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:9">
+      <c r="A1581" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1581">
+        <v>2023</v>
+      </c>
+      <c r="D1581">
+        <v>11</v>
+      </c>
+      <c r="E1581">
+        <v>8</v>
+      </c>
+      <c r="F1581">
+        <v>0</v>
+      </c>
+      <c r="G1581">
+        <v>8</v>
+      </c>
+      <c r="H1581">
+        <v>1</v>
+      </c>
+      <c r="I1581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:9">
+      <c r="A1582" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1582">
+        <v>2023</v>
+      </c>
+      <c r="D1582">
+        <v>11</v>
+      </c>
+      <c r="E1582">
+        <v>8</v>
+      </c>
+      <c r="F1582">
+        <v>0</v>
+      </c>
+      <c r="G1582">
+        <v>8</v>
+      </c>
+      <c r="H1582">
+        <v>1</v>
+      </c>
+      <c r="I1582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:9">
+      <c r="A1583" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1583">
+        <v>2023</v>
+      </c>
+      <c r="D1583">
+        <v>11</v>
+      </c>
+      <c r="E1583">
+        <v>8</v>
+      </c>
+      <c r="F1583">
+        <v>0</v>
+      </c>
+      <c r="G1583">
+        <v>8</v>
+      </c>
+      <c r="H1583">
+        <v>1</v>
+      </c>
+      <c r="I1583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:9">
+      <c r="A1584" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1584">
+        <v>2023</v>
+      </c>
+      <c r="D1584">
+        <v>11</v>
+      </c>
+      <c r="E1584">
+        <v>8</v>
+      </c>
+      <c r="F1584">
+        <v>0</v>
+      </c>
+      <c r="G1584">
+        <v>8</v>
+      </c>
+      <c r="H1584">
+        <v>1</v>
+      </c>
+      <c r="I1584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:9">
+      <c r="A1585" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1585">
+        <v>2023</v>
+      </c>
+      <c r="D1585">
+        <v>11</v>
+      </c>
+      <c r="E1585">
+        <v>0</v>
+      </c>
+      <c r="F1585">
+        <v>0</v>
+      </c>
+      <c r="G1585">
+        <v>0</v>
+      </c>
+      <c r="H1585">
+        <v>0</v>
+      </c>
+      <c r="I1585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:9">
+      <c r="A1586" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1586">
+        <v>2023</v>
+      </c>
+      <c r="D1586">
+        <v>11</v>
+      </c>
+      <c r="E1586">
+        <v>8</v>
+      </c>
+      <c r="F1586">
+        <v>0</v>
+      </c>
+      <c r="G1586">
+        <v>8</v>
+      </c>
+      <c r="H1586">
+        <v>1</v>
+      </c>
+      <c r="I1586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:9">
+      <c r="A1587" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1587">
+        <v>2023</v>
+      </c>
+      <c r="D1587">
+        <v>11</v>
+      </c>
+      <c r="E1587">
+        <v>8</v>
+      </c>
+      <c r="F1587">
+        <v>0</v>
+      </c>
+      <c r="G1587">
+        <v>8</v>
+      </c>
+      <c r="H1587">
+        <v>1</v>
+      </c>
+      <c r="I1587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:9">
+      <c r="A1588" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1588">
+        <v>2023</v>
+      </c>
+      <c r="D1588">
+        <v>11</v>
+      </c>
+      <c r="E1588">
+        <v>8</v>
+      </c>
+      <c r="F1588">
+        <v>0</v>
+      </c>
+      <c r="G1588">
+        <v>8</v>
+      </c>
+      <c r="H1588">
+        <v>1</v>
+      </c>
+      <c r="I1588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9">
+      <c r="A1589" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1589">
+        <v>2023</v>
+      </c>
+      <c r="D1589">
+        <v>11</v>
+      </c>
+      <c r="E1589">
+        <v>8</v>
+      </c>
+      <c r="F1589">
+        <v>0</v>
+      </c>
+      <c r="G1589">
+        <v>8</v>
+      </c>
+      <c r="H1589">
+        <v>1</v>
+      </c>
+      <c r="I1589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9">
+      <c r="A1590" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1590">
+        <v>2023</v>
+      </c>
+      <c r="D1590">
+        <v>11</v>
+      </c>
+      <c r="E1590">
+        <v>8</v>
+      </c>
+      <c r="F1590">
+        <v>0</v>
+      </c>
+      <c r="G1590">
+        <v>8</v>
+      </c>
+      <c r="H1590">
+        <v>1</v>
+      </c>
+      <c r="I1590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:9">
+      <c r="A1591" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1591">
+        <v>2023</v>
+      </c>
+      <c r="D1591">
+        <v>11</v>
+      </c>
+      <c r="E1591">
+        <v>8</v>
+      </c>
+      <c r="F1591">
+        <v>0</v>
+      </c>
+      <c r="G1591">
+        <v>8</v>
+      </c>
+      <c r="H1591">
+        <v>1</v>
+      </c>
+      <c r="I1591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9">
+      <c r="A1592" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1592">
+        <v>2023</v>
+      </c>
+      <c r="D1592">
+        <v>11</v>
+      </c>
+      <c r="E1592">
+        <v>8</v>
+      </c>
+      <c r="F1592">
+        <v>0</v>
+      </c>
+      <c r="G1592">
+        <v>8</v>
+      </c>
+      <c r="H1592">
+        <v>1</v>
+      </c>
+      <c r="I1592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:9">
+      <c r="A1593" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1593">
+        <v>2023</v>
+      </c>
+      <c r="D1593">
+        <v>11</v>
+      </c>
+      <c r="E1593">
+        <v>8</v>
+      </c>
+      <c r="F1593">
+        <v>0</v>
+      </c>
+      <c r="G1593">
+        <v>8</v>
+      </c>
+      <c r="H1593">
+        <v>1</v>
+      </c>
+      <c r="I1593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:9">
+      <c r="A1594" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1594">
+        <v>2023</v>
+      </c>
+      <c r="D1594">
+        <v>11</v>
+      </c>
+      <c r="E1594">
+        <v>8</v>
+      </c>
+      <c r="F1594">
+        <v>0</v>
+      </c>
+      <c r="G1594">
+        <v>8</v>
+      </c>
+      <c r="H1594">
+        <v>1</v>
+      </c>
+      <c r="I1594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:9">
+      <c r="A1595" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1595">
+        <v>2023</v>
+      </c>
+      <c r="D1595">
+        <v>11</v>
+      </c>
+      <c r="E1595">
+        <v>8</v>
+      </c>
+      <c r="F1595">
+        <v>0</v>
+      </c>
+      <c r="G1595">
+        <v>8</v>
+      </c>
+      <c r="H1595">
+        <v>1</v>
+      </c>
+      <c r="I1595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:9">
+      <c r="A1596" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1596">
+        <v>2023</v>
+      </c>
+      <c r="D1596">
+        <v>11</v>
+      </c>
+      <c r="E1596">
+        <v>8</v>
+      </c>
+      <c r="F1596">
+        <v>0</v>
+      </c>
+      <c r="G1596">
+        <v>8</v>
+      </c>
+      <c r="H1596">
+        <v>1</v>
+      </c>
+      <c r="I1596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:9">
+      <c r="A1597" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1597">
+        <v>2023</v>
+      </c>
+      <c r="D1597">
+        <v>11</v>
+      </c>
+      <c r="E1597">
+        <v>8</v>
+      </c>
+      <c r="F1597">
+        <v>0</v>
+      </c>
+      <c r="G1597">
+        <v>8</v>
+      </c>
+      <c r="H1597">
+        <v>1</v>
+      </c>
+      <c r="I1597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:9">
+      <c r="A1598" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1598">
+        <v>2023</v>
+      </c>
+      <c r="D1598">
+        <v>11</v>
+      </c>
+      <c r="E1598">
+        <v>8</v>
+      </c>
+      <c r="F1598">
+        <v>0</v>
+      </c>
+      <c r="G1598">
+        <v>8</v>
+      </c>
+      <c r="H1598">
+        <v>1</v>
+      </c>
+      <c r="I1598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:9">
+      <c r="A1599" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1599">
+        <v>2023</v>
+      </c>
+      <c r="D1599">
+        <v>11</v>
+      </c>
+      <c r="E1599">
+        <v>8</v>
+      </c>
+      <c r="F1599">
+        <v>0</v>
+      </c>
+      <c r="G1599">
+        <v>8</v>
+      </c>
+      <c r="H1599">
+        <v>1</v>
+      </c>
+      <c r="I1599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:9">
+      <c r="A1600" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1600">
+        <v>2023</v>
+      </c>
+      <c r="D1600">
+        <v>11</v>
+      </c>
+      <c r="E1600">
+        <v>8</v>
+      </c>
+      <c r="F1600">
+        <v>0</v>
+      </c>
+      <c r="G1600">
+        <v>8</v>
+      </c>
+      <c r="H1600">
+        <v>1</v>
+      </c>
+      <c r="I1600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:9">
+      <c r="A1601" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1601">
+        <v>2023</v>
+      </c>
+      <c r="D1601">
+        <v>11</v>
+      </c>
+      <c r="E1601">
+        <v>8</v>
+      </c>
+      <c r="F1601">
+        <v>0</v>
+      </c>
+      <c r="G1601">
+        <v>8</v>
+      </c>
+      <c r="H1601">
+        <v>1</v>
+      </c>
+      <c r="I1601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:9">
+      <c r="A1602" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1602">
+        <v>2023</v>
+      </c>
+      <c r="D1602">
+        <v>11</v>
+      </c>
+      <c r="E1602">
+        <v>8</v>
+      </c>
+      <c r="F1602">
+        <v>0</v>
+      </c>
+      <c r="G1602">
+        <v>8</v>
+      </c>
+      <c r="H1602">
+        <v>1</v>
+      </c>
+      <c r="I1602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:9">
+      <c r="A1603" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1603">
+        <v>2023</v>
+      </c>
+      <c r="D1603">
+        <v>11</v>
+      </c>
+      <c r="E1603">
+        <v>8</v>
+      </c>
+      <c r="F1603">
+        <v>0</v>
+      </c>
+      <c r="G1603">
+        <v>8</v>
+      </c>
+      <c r="H1603">
+        <v>1</v>
+      </c>
+      <c r="I1603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:9">
+      <c r="A1604" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1604">
+        <v>2023</v>
+      </c>
+      <c r="D1604">
+        <v>11</v>
+      </c>
+      <c r="E1604">
+        <v>4</v>
+      </c>
+      <c r="F1604">
+        <v>0</v>
+      </c>
+      <c r="G1604">
+        <v>4</v>
+      </c>
+      <c r="H1604">
+        <v>0</v>
+      </c>
+      <c r="I1604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:9">
+      <c r="A1605" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1605">
+        <v>2023</v>
+      </c>
+      <c r="D1605">
+        <v>11</v>
+      </c>
+      <c r="E1605">
+        <v>8</v>
+      </c>
+      <c r="F1605">
+        <v>0</v>
+      </c>
+      <c r="G1605">
+        <v>8</v>
+      </c>
+      <c r="H1605">
+        <v>1</v>
+      </c>
+      <c r="I1605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:9">
+      <c r="A1606" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1606">
+        <v>2023</v>
+      </c>
+      <c r="D1606">
+        <v>11</v>
+      </c>
+      <c r="E1606">
+        <v>8</v>
+      </c>
+      <c r="F1606">
+        <v>0</v>
+      </c>
+      <c r="G1606">
+        <v>8</v>
+      </c>
+      <c r="H1606">
+        <v>1</v>
+      </c>
+      <c r="I1606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:9">
+      <c r="A1607" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1607">
+        <v>2023</v>
+      </c>
+      <c r="D1607">
+        <v>11</v>
+      </c>
+      <c r="E1607">
+        <v>8</v>
+      </c>
+      <c r="F1607">
+        <v>0</v>
+      </c>
+      <c r="G1607">
+        <v>8</v>
+      </c>
+      <c r="H1607">
+        <v>1</v>
+      </c>
+      <c r="I1607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:9">
+      <c r="A1608" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1608">
+        <v>2023</v>
+      </c>
+      <c r="D1608">
+        <v>11</v>
+      </c>
+      <c r="E1608">
+        <v>8</v>
+      </c>
+      <c r="F1608">
+        <v>0</v>
+      </c>
+      <c r="G1608">
+        <v>8</v>
+      </c>
+      <c r="H1608">
+        <v>1</v>
+      </c>
+      <c r="I1608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:9">
+      <c r="A1609" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1609">
+        <v>2023</v>
+      </c>
+      <c r="D1609">
+        <v>11</v>
+      </c>
+      <c r="E1609">
+        <v>8</v>
+      </c>
+      <c r="F1609">
+        <v>0</v>
+      </c>
+      <c r="G1609">
+        <v>8</v>
+      </c>
+      <c r="H1609">
+        <v>1</v>
+      </c>
+      <c r="I1609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:9">
+      <c r="A1610" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1610">
+        <v>2023</v>
+      </c>
+      <c r="D1610">
+        <v>11</v>
+      </c>
+      <c r="E1610">
+        <v>8</v>
+      </c>
+      <c r="F1610">
+        <v>0</v>
+      </c>
+      <c r="G1610">
+        <v>8</v>
+      </c>
+      <c r="H1610">
+        <v>1</v>
+      </c>
+      <c r="I1610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:9">
+      <c r="A1611" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1611">
+        <v>2023</v>
+      </c>
+      <c r="D1611">
+        <v>11</v>
+      </c>
+      <c r="E1611">
+        <v>8</v>
+      </c>
+      <c r="F1611">
+        <v>0</v>
+      </c>
+      <c r="G1611">
+        <v>8</v>
+      </c>
+      <c r="H1611">
+        <v>1</v>
+      </c>
+      <c r="I1611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:9">
+      <c r="A1612" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1612">
+        <v>2023</v>
+      </c>
+      <c r="D1612">
+        <v>11</v>
+      </c>
+      <c r="E1612">
+        <v>8</v>
+      </c>
+      <c r="F1612">
+        <v>0</v>
+      </c>
+      <c r="G1612">
+        <v>8</v>
+      </c>
+      <c r="H1612">
+        <v>1</v>
+      </c>
+      <c r="I1612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:9">
+      <c r="A1613" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1613">
+        <v>2023</v>
+      </c>
+      <c r="D1613">
+        <v>11</v>
+      </c>
+      <c r="E1613">
+        <v>8</v>
+      </c>
+      <c r="F1613">
+        <v>0</v>
+      </c>
+      <c r="G1613">
+        <v>8</v>
+      </c>
+      <c r="H1613">
+        <v>1</v>
+      </c>
+      <c r="I1613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:9">
+      <c r="A1614" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1614">
+        <v>2023</v>
+      </c>
+      <c r="D1614">
+        <v>11</v>
+      </c>
+      <c r="E1614">
+        <v>8</v>
+      </c>
+      <c r="F1614">
+        <v>0</v>
+      </c>
+      <c r="G1614">
+        <v>8</v>
+      </c>
+      <c r="H1614">
+        <v>1</v>
+      </c>
+      <c r="I1614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:9">
+      <c r="A1615" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1615">
+        <v>2023</v>
+      </c>
+      <c r="D1615">
+        <v>11</v>
+      </c>
+      <c r="E1615">
+        <v>8</v>
+      </c>
+      <c r="F1615">
+        <v>0</v>
+      </c>
+      <c r="G1615">
+        <v>8</v>
+      </c>
+      <c r="H1615">
+        <v>1</v>
+      </c>
+      <c r="I1615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:9">
+      <c r="A1616" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1616">
+        <v>2023</v>
+      </c>
+      <c r="D1616">
+        <v>11</v>
+      </c>
+      <c r="E1616">
+        <v>8</v>
+      </c>
+      <c r="F1616">
+        <v>0</v>
+      </c>
+      <c r="G1616">
+        <v>8</v>
+      </c>
+      <c r="H1616">
+        <v>1</v>
+      </c>
+      <c r="I1616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:9">
+      <c r="A1617" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1617">
+        <v>2023</v>
+      </c>
+      <c r="D1617">
+        <v>11</v>
+      </c>
+      <c r="E1617">
+        <v>0</v>
+      </c>
+      <c r="F1617">
+        <v>0</v>
+      </c>
+      <c r="G1617">
+        <v>0</v>
+      </c>
+      <c r="H1617">
+        <v>0</v>
+      </c>
+      <c r="I1617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:9">
+      <c r="A1618" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1618">
+        <v>2023</v>
+      </c>
+      <c r="D1618">
+        <v>11</v>
+      </c>
+      <c r="E1618">
+        <v>0</v>
+      </c>
+      <c r="F1618">
+        <v>0</v>
+      </c>
+      <c r="G1618">
+        <v>0</v>
+      </c>
+      <c r="H1618">
+        <v>0</v>
+      </c>
+      <c r="I1618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:9">
+      <c r="A1619" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1619">
+        <v>2023</v>
+      </c>
+      <c r="D1619">
+        <v>11</v>
+      </c>
+      <c r="E1619">
+        <v>8</v>
+      </c>
+      <c r="F1619">
+        <v>0</v>
+      </c>
+      <c r="G1619">
+        <v>8</v>
+      </c>
+      <c r="H1619">
+        <v>1</v>
+      </c>
+      <c r="I1619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:9">
+      <c r="A1620" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1620">
+        <v>2023</v>
+      </c>
+      <c r="D1620">
+        <v>11</v>
+      </c>
+      <c r="E1620">
+        <v>0</v>
+      </c>
+      <c r="F1620">
+        <v>0</v>
+      </c>
+      <c r="G1620">
+        <v>0</v>
+      </c>
+      <c r="H1620">
+        <v>0</v>
+      </c>
+      <c r="I1620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:9">
+      <c r="A1621" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1621">
+        <v>2023</v>
+      </c>
+      <c r="D1621">
+        <v>11</v>
+      </c>
+      <c r="E1621">
+        <v>8</v>
+      </c>
+      <c r="F1621">
+        <v>0</v>
+      </c>
+      <c r="G1621">
+        <v>8</v>
+      </c>
+      <c r="H1621">
+        <v>1</v>
+      </c>
+      <c r="I1621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:9">
+      <c r="A1622" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1622">
+        <v>2023</v>
+      </c>
+      <c r="D1622">
+        <v>11</v>
+      </c>
+      <c r="E1622">
+        <v>8</v>
+      </c>
+      <c r="F1622">
+        <v>0</v>
+      </c>
+      <c r="G1622">
+        <v>8</v>
+      </c>
+      <c r="H1622">
+        <v>1</v>
+      </c>
+      <c r="I1622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:9">
+      <c r="A1623" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1623">
+        <v>2023</v>
+      </c>
+      <c r="D1623">
+        <v>11</v>
+      </c>
+      <c r="E1623">
+        <v>8</v>
+      </c>
+      <c r="F1623">
+        <v>0</v>
+      </c>
+      <c r="G1623">
+        <v>8</v>
+      </c>
+      <c r="H1623">
+        <v>1</v>
+      </c>
+      <c r="I1623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:9">
+      <c r="A1624" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1624">
+        <v>2023</v>
+      </c>
+      <c r="D1624">
+        <v>11</v>
+      </c>
+      <c r="E1624">
+        <v>8</v>
+      </c>
+      <c r="F1624">
+        <v>0</v>
+      </c>
+      <c r="G1624">
+        <v>8</v>
+      </c>
+      <c r="H1624">
+        <v>1</v>
+      </c>
+      <c r="I1624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:9">
+      <c r="A1625" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1625">
+        <v>2023</v>
+      </c>
+      <c r="D1625">
+        <v>11</v>
+      </c>
+      <c r="E1625">
+        <v>8</v>
+      </c>
+      <c r="F1625">
+        <v>0</v>
+      </c>
+      <c r="G1625">
+        <v>8</v>
+      </c>
+      <c r="H1625">
+        <v>1</v>
+      </c>
+      <c r="I1625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:9">
+      <c r="A1626" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1626">
+        <v>2023</v>
+      </c>
+      <c r="D1626">
+        <v>11</v>
+      </c>
+      <c r="E1626">
+        <v>8</v>
+      </c>
+      <c r="F1626">
+        <v>0</v>
+      </c>
+      <c r="G1626">
+        <v>8</v>
+      </c>
+      <c r="H1626">
+        <v>1</v>
+      </c>
+      <c r="I1626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:9">
+      <c r="A1627" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1627">
+        <v>2023</v>
+      </c>
+      <c r="D1627">
+        <v>11</v>
+      </c>
+      <c r="E1627">
+        <v>8</v>
+      </c>
+      <c r="F1627">
+        <v>0</v>
+      </c>
+      <c r="G1627">
+        <v>8</v>
+      </c>
+      <c r="H1627">
+        <v>1</v>
+      </c>
+      <c r="I1627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:9">
+      <c r="A1628" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1628">
+        <v>2023</v>
+      </c>
+      <c r="D1628">
+        <v>11</v>
+      </c>
+      <c r="E1628">
+        <v>0</v>
+      </c>
+      <c r="F1628">
+        <v>0</v>
+      </c>
+      <c r="G1628">
+        <v>0</v>
+      </c>
+      <c r="H1628">
+        <v>0</v>
+      </c>
+      <c r="I1628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:9">
+      <c r="A1629" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1629">
+        <v>2023</v>
+      </c>
+      <c r="D1629">
+        <v>11</v>
+      </c>
+      <c r="E1629">
+        <v>8</v>
+      </c>
+      <c r="F1629">
+        <v>0</v>
+      </c>
+      <c r="G1629">
+        <v>8</v>
+      </c>
+      <c r="H1629">
+        <v>1</v>
+      </c>
+      <c r="I1629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:9">
+      <c r="A1630" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1630">
+        <v>2023</v>
+      </c>
+      <c r="D1630">
+        <v>12</v>
+      </c>
+      <c r="E1630">
+        <v>8</v>
+      </c>
+      <c r="F1630">
+        <v>0</v>
+      </c>
+      <c r="G1630">
+        <v>8</v>
+      </c>
+      <c r="H1630">
+        <v>1</v>
+      </c>
+      <c r="I1630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:9">
+      <c r="A1631" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1631">
+        <v>2023</v>
+      </c>
+      <c r="D1631">
+        <v>12</v>
+      </c>
+      <c r="E1631">
+        <v>8</v>
+      </c>
+      <c r="F1631">
+        <v>0</v>
+      </c>
+      <c r="G1631">
+        <v>8</v>
+      </c>
+      <c r="H1631">
+        <v>1</v>
+      </c>
+      <c r="I1631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:9">
+      <c r="A1632" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1632">
+        <v>2023</v>
+      </c>
+      <c r="D1632">
+        <v>12</v>
+      </c>
+      <c r="E1632">
+        <v>8</v>
+      </c>
+      <c r="F1632">
+        <v>0</v>
+      </c>
+      <c r="G1632">
+        <v>8</v>
+      </c>
+      <c r="H1632">
+        <v>1</v>
+      </c>
+      <c r="I1632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:9">
+      <c r="A1633" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1633">
+        <v>2023</v>
+      </c>
+      <c r="D1633">
+        <v>12</v>
+      </c>
+      <c r="E1633">
+        <v>8</v>
+      </c>
+      <c r="F1633">
+        <v>0</v>
+      </c>
+      <c r="G1633">
+        <v>8</v>
+      </c>
+      <c r="H1633">
+        <v>1</v>
+      </c>
+      <c r="I1633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:9">
+      <c r="A1634" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1634">
+        <v>2023</v>
+      </c>
+      <c r="D1634">
+        <v>12</v>
+      </c>
+      <c r="E1634">
+        <v>8</v>
+      </c>
+      <c r="F1634">
+        <v>0</v>
+      </c>
+      <c r="G1634">
+        <v>8</v>
+      </c>
+      <c r="H1634">
+        <v>1</v>
+      </c>
+      <c r="I1634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:9">
+      <c r="A1635" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1635">
+        <v>2023</v>
+      </c>
+      <c r="D1635">
+        <v>12</v>
+      </c>
+      <c r="E1635">
+        <v>8</v>
+      </c>
+      <c r="F1635">
+        <v>0</v>
+      </c>
+      <c r="G1635">
+        <v>8</v>
+      </c>
+      <c r="H1635">
+        <v>1</v>
+      </c>
+      <c r="I1635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:9">
+      <c r="A1636" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1636">
+        <v>2023</v>
+      </c>
+      <c r="D1636">
+        <v>12</v>
+      </c>
+      <c r="E1636">
+        <v>0</v>
+      </c>
+      <c r="F1636">
+        <v>0</v>
+      </c>
+      <c r="G1636">
+        <v>0</v>
+      </c>
+      <c r="H1636">
+        <v>0</v>
+      </c>
+      <c r="I1636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:9">
+      <c r="A1637" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1637">
+        <v>2023</v>
+      </c>
+      <c r="D1637">
+        <v>12</v>
+      </c>
+      <c r="E1637">
+        <v>8</v>
+      </c>
+      <c r="F1637">
+        <v>0</v>
+      </c>
+      <c r="G1637">
+        <v>8</v>
+      </c>
+      <c r="H1637">
+        <v>1</v>
+      </c>
+      <c r="I1637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:9">
+      <c r="A1638" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1638">
+        <v>2023</v>
+      </c>
+      <c r="D1638">
+        <v>12</v>
+      </c>
+      <c r="E1638">
+        <v>8</v>
+      </c>
+      <c r="F1638">
+        <v>0</v>
+      </c>
+      <c r="G1638">
+        <v>8</v>
+      </c>
+      <c r="H1638">
+        <v>1</v>
+      </c>
+      <c r="I1638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:9">
+      <c r="A1639" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1639">
+        <v>2023</v>
+      </c>
+      <c r="D1639">
+        <v>12</v>
+      </c>
+      <c r="E1639">
+        <v>8</v>
+      </c>
+      <c r="F1639">
+        <v>0</v>
+      </c>
+      <c r="G1639">
+        <v>8</v>
+      </c>
+      <c r="H1639">
+        <v>1</v>
+      </c>
+      <c r="I1639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:9">
+      <c r="A1640" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1640">
+        <v>2023</v>
+      </c>
+      <c r="D1640">
+        <v>12</v>
+      </c>
+      <c r="E1640">
+        <v>8</v>
+      </c>
+      <c r="F1640">
+        <v>0</v>
+      </c>
+      <c r="G1640">
+        <v>8</v>
+      </c>
+      <c r="H1640">
+        <v>1</v>
+      </c>
+      <c r="I1640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:9">
+      <c r="A1641" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1641">
+        <v>2023</v>
+      </c>
+      <c r="D1641">
+        <v>12</v>
+      </c>
+      <c r="E1641">
+        <v>8</v>
+      </c>
+      <c r="F1641">
+        <v>0</v>
+      </c>
+      <c r="G1641">
+        <v>8</v>
+      </c>
+      <c r="H1641">
+        <v>1</v>
+      </c>
+      <c r="I1641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:9">
+      <c r="A1642" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1642">
+        <v>2023</v>
+      </c>
+      <c r="D1642">
+        <v>12</v>
+      </c>
+      <c r="E1642">
+        <v>8</v>
+      </c>
+      <c r="F1642">
+        <v>0</v>
+      </c>
+      <c r="G1642">
+        <v>8</v>
+      </c>
+      <c r="H1642">
+        <v>1</v>
+      </c>
+      <c r="I1642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:9">
+      <c r="A1643" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1643">
+        <v>2023</v>
+      </c>
+      <c r="D1643">
+        <v>12</v>
+      </c>
+      <c r="E1643">
+        <v>8</v>
+      </c>
+      <c r="F1643">
+        <v>0</v>
+      </c>
+      <c r="G1643">
+        <v>8</v>
+      </c>
+      <c r="H1643">
+        <v>1</v>
+      </c>
+      <c r="I1643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:9">
+      <c r="A1644" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1644">
+        <v>2023</v>
+      </c>
+      <c r="D1644">
+        <v>12</v>
+      </c>
+      <c r="E1644">
+        <v>8</v>
+      </c>
+      <c r="F1644">
+        <v>0</v>
+      </c>
+      <c r="G1644">
+        <v>8</v>
+      </c>
+      <c r="H1644">
+        <v>1</v>
+      </c>
+      <c r="I1644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:9">
+      <c r="A1645" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1645">
+        <v>2023</v>
+      </c>
+      <c r="D1645">
+        <v>12</v>
+      </c>
+      <c r="E1645">
+        <v>8</v>
+      </c>
+      <c r="F1645">
+        <v>0</v>
+      </c>
+      <c r="G1645">
+        <v>8</v>
+      </c>
+      <c r="H1645">
+        <v>1</v>
+      </c>
+      <c r="I1645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:9">
+      <c r="A1646" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1646">
+        <v>2023</v>
+      </c>
+      <c r="D1646">
+        <v>12</v>
+      </c>
+      <c r="E1646">
+        <v>8</v>
+      </c>
+      <c r="F1646">
+        <v>0</v>
+      </c>
+      <c r="G1646">
+        <v>8</v>
+      </c>
+      <c r="H1646">
+        <v>1</v>
+      </c>
+      <c r="I1646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:9">
+      <c r="A1647" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1647">
+        <v>2023</v>
+      </c>
+      <c r="D1647">
+        <v>12</v>
+      </c>
+      <c r="E1647">
+        <v>0</v>
+      </c>
+      <c r="F1647">
+        <v>0</v>
+      </c>
+      <c r="G1647">
+        <v>0</v>
+      </c>
+      <c r="H1647">
+        <v>0</v>
+      </c>
+      <c r="I1647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:9">
+      <c r="A1648" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1648">
+        <v>2023</v>
+      </c>
+      <c r="D1648">
+        <v>12</v>
+      </c>
+      <c r="E1648">
+        <v>8</v>
+      </c>
+      <c r="F1648">
+        <v>0</v>
+      </c>
+      <c r="G1648">
+        <v>8</v>
+      </c>
+      <c r="H1648">
+        <v>1</v>
+      </c>
+      <c r="I1648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:9">
+      <c r="A1649" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1649">
+        <v>2023</v>
+      </c>
+      <c r="D1649">
+        <v>12</v>
+      </c>
+      <c r="E1649">
+        <v>8</v>
+      </c>
+      <c r="F1649">
+        <v>0</v>
+      </c>
+      <c r="G1649">
+        <v>8</v>
+      </c>
+      <c r="H1649">
+        <v>1</v>
+      </c>
+      <c r="I1649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:9">
+      <c r="A1650" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1650">
+        <v>2023</v>
+      </c>
+      <c r="D1650">
+        <v>12</v>
+      </c>
+      <c r="E1650">
+        <v>8</v>
+      </c>
+      <c r="F1650">
+        <v>0</v>
+      </c>
+      <c r="G1650">
+        <v>8</v>
+      </c>
+      <c r="H1650">
+        <v>1</v>
+      </c>
+      <c r="I1650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:9">
+      <c r="A1651" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1651">
+        <v>2023</v>
+      </c>
+      <c r="D1651">
+        <v>12</v>
+      </c>
+      <c r="E1651">
+        <v>8</v>
+      </c>
+      <c r="F1651">
+        <v>0</v>
+      </c>
+      <c r="G1651">
+        <v>8</v>
+      </c>
+      <c r="H1651">
+        <v>1</v>
+      </c>
+      <c r="I1651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:9">
+      <c r="A1652" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1652">
+        <v>2023</v>
+      </c>
+      <c r="D1652">
+        <v>12</v>
+      </c>
+      <c r="E1652">
+        <v>8</v>
+      </c>
+      <c r="F1652">
+        <v>0</v>
+      </c>
+      <c r="G1652">
+        <v>8</v>
+      </c>
+      <c r="H1652">
+        <v>1</v>
+      </c>
+      <c r="I1652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:9">
+      <c r="A1653" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1653">
+        <v>2023</v>
+      </c>
+      <c r="D1653">
+        <v>12</v>
+      </c>
+      <c r="E1653">
+        <v>8</v>
+      </c>
+      <c r="F1653">
+        <v>0</v>
+      </c>
+      <c r="G1653">
+        <v>8</v>
+      </c>
+      <c r="H1653">
+        <v>1</v>
+      </c>
+      <c r="I1653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:9">
+      <c r="A1654" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1654">
+        <v>2023</v>
+      </c>
+      <c r="D1654">
+        <v>12</v>
+      </c>
+      <c r="E1654">
+        <v>8</v>
+      </c>
+      <c r="F1654">
+        <v>0</v>
+      </c>
+      <c r="G1654">
+        <v>8</v>
+      </c>
+      <c r="H1654">
+        <v>1</v>
+      </c>
+      <c r="I1654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:9">
+      <c r="A1655" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1655">
+        <v>2023</v>
+      </c>
+      <c r="D1655">
+        <v>12</v>
+      </c>
+      <c r="E1655">
+        <v>8</v>
+      </c>
+      <c r="F1655">
+        <v>0</v>
+      </c>
+      <c r="G1655">
+        <v>8</v>
+      </c>
+      <c r="H1655">
+        <v>1</v>
+      </c>
+      <c r="I1655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:9">
+      <c r="A1656" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1656">
+        <v>2023</v>
+      </c>
+      <c r="D1656">
+        <v>12</v>
+      </c>
+      <c r="E1656">
+        <v>8</v>
+      </c>
+      <c r="F1656">
+        <v>0</v>
+      </c>
+      <c r="G1656">
+        <v>8</v>
+      </c>
+      <c r="H1656">
+        <v>1</v>
+      </c>
+      <c r="I1656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:9">
+      <c r="A1657" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1657">
+        <v>2023</v>
+      </c>
+      <c r="D1657">
+        <v>12</v>
+      </c>
+      <c r="E1657">
+        <v>0</v>
+      </c>
+      <c r="F1657">
+        <v>0</v>
+      </c>
+      <c r="G1657">
+        <v>0</v>
+      </c>
+      <c r="H1657">
+        <v>0</v>
+      </c>
+      <c r="I1657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:9">
+      <c r="A1658" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1658">
+        <v>2023</v>
+      </c>
+      <c r="D1658">
+        <v>12</v>
+      </c>
+      <c r="E1658">
+        <v>8</v>
+      </c>
+      <c r="F1658">
+        <v>0</v>
+      </c>
+      <c r="G1658">
+        <v>8</v>
+      </c>
+      <c r="H1658">
+        <v>1</v>
+      </c>
+      <c r="I1658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:9">
+      <c r="A1659" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1659">
+        <v>2023</v>
+      </c>
+      <c r="D1659">
+        <v>12</v>
+      </c>
+      <c r="E1659">
+        <v>8</v>
+      </c>
+      <c r="F1659">
+        <v>0</v>
+      </c>
+      <c r="G1659">
+        <v>8</v>
+      </c>
+      <c r="H1659">
+        <v>1</v>
+      </c>
+      <c r="I1659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:9">
+      <c r="A1660" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1660">
+        <v>2023</v>
+      </c>
+      <c r="D1660">
+        <v>12</v>
+      </c>
+      <c r="E1660">
+        <v>8</v>
+      </c>
+      <c r="F1660">
+        <v>0</v>
+      </c>
+      <c r="G1660">
+        <v>8</v>
+      </c>
+      <c r="H1660">
+        <v>1</v>
+      </c>
+      <c r="I1660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:9">
+      <c r="A1661" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1661">
+        <v>2023</v>
+      </c>
+      <c r="D1661">
+        <v>12</v>
+      </c>
+      <c r="E1661">
+        <v>0</v>
+      </c>
+      <c r="F1661">
+        <v>0</v>
+      </c>
+      <c r="G1661">
+        <v>0</v>
+      </c>
+      <c r="H1661">
+        <v>0</v>
+      </c>
+      <c r="I1661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:9">
+      <c r="A1662" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1662">
+        <v>2023</v>
+      </c>
+      <c r="D1662">
+        <v>12</v>
+      </c>
+      <c r="E1662">
+        <v>8</v>
+      </c>
+      <c r="F1662">
+        <v>0</v>
+      </c>
+      <c r="G1662">
+        <v>8</v>
+      </c>
+      <c r="H1662">
+        <v>1</v>
+      </c>
+      <c r="I1662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:9">
+      <c r="A1663" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1663">
+        <v>2023</v>
+      </c>
+      <c r="D1663">
+        <v>12</v>
+      </c>
+      <c r="E1663">
+        <v>8</v>
+      </c>
+      <c r="F1663">
+        <v>0</v>
+      </c>
+      <c r="G1663">
+        <v>8</v>
+      </c>
+      <c r="H1663">
+        <v>1</v>
+      </c>
+      <c r="I1663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:9">
+      <c r="A1664" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1664">
+        <v>2023</v>
+      </c>
+      <c r="D1664">
+        <v>12</v>
+      </c>
+      <c r="E1664">
+        <v>8</v>
+      </c>
+      <c r="F1664">
+        <v>0</v>
+      </c>
+      <c r="G1664">
+        <v>8</v>
+      </c>
+      <c r="H1664">
+        <v>1</v>
+      </c>
+      <c r="I1664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:9">
+      <c r="A1665" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1665">
+        <v>2023</v>
+      </c>
+      <c r="D1665">
+        <v>12</v>
+      </c>
+      <c r="E1665">
+        <v>8</v>
+      </c>
+      <c r="F1665">
+        <v>0</v>
+      </c>
+      <c r="G1665">
+        <v>8</v>
+      </c>
+      <c r="H1665">
+        <v>1</v>
+      </c>
+      <c r="I1665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:9">
+      <c r="A1666" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1666">
+        <v>2023</v>
+      </c>
+      <c r="D1666">
+        <v>12</v>
+      </c>
+      <c r="E1666">
+        <v>8</v>
+      </c>
+      <c r="F1666">
+        <v>0</v>
+      </c>
+      <c r="G1666">
+        <v>8</v>
+      </c>
+      <c r="H1666">
+        <v>1</v>
+      </c>
+      <c r="I1666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:9">
+      <c r="A1667" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1667">
+        <v>2023</v>
+      </c>
+      <c r="D1667">
+        <v>12</v>
+      </c>
+      <c r="E1667">
+        <v>8</v>
+      </c>
+      <c r="F1667">
+        <v>0</v>
+      </c>
+      <c r="G1667">
+        <v>8</v>
+      </c>
+      <c r="H1667">
+        <v>1</v>
+      </c>
+      <c r="I1667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:9">
+      <c r="A1668" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1668">
+        <v>2023</v>
+      </c>
+      <c r="D1668">
+        <v>12</v>
+      </c>
+      <c r="E1668">
+        <v>8</v>
+      </c>
+      <c r="F1668">
+        <v>0</v>
+      </c>
+      <c r="G1668">
+        <v>8</v>
+      </c>
+      <c r="H1668">
+        <v>1</v>
+      </c>
+      <c r="I1668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:9">
+      <c r="A1669" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1669">
+        <v>2023</v>
+      </c>
+      <c r="D1669">
+        <v>12</v>
+      </c>
+      <c r="E1669">
+        <v>4</v>
+      </c>
+      <c r="F1669">
+        <v>0</v>
+      </c>
+      <c r="G1669">
+        <v>4</v>
+      </c>
+      <c r="H1669">
+        <v>0</v>
+      </c>
+      <c r="I1669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:9">
+      <c r="A1670" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1670">
+        <v>2023</v>
+      </c>
+      <c r="D1670">
+        <v>12</v>
+      </c>
+      <c r="E1670">
+        <v>4</v>
+      </c>
+      <c r="F1670">
+        <v>0</v>
+      </c>
+      <c r="G1670">
+        <v>4</v>
+      </c>
+      <c r="H1670">
+        <v>0</v>
+      </c>
+      <c r="I1670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:9">
+      <c r="A1671" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1671">
+        <v>2023</v>
+      </c>
+      <c r="D1671">
+        <v>12</v>
+      </c>
+      <c r="E1671">
+        <v>8</v>
+      </c>
+      <c r="F1671">
+        <v>0</v>
+      </c>
+      <c r="G1671">
+        <v>8</v>
+      </c>
+      <c r="H1671">
+        <v>1</v>
+      </c>
+      <c r="I1671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:9">
+      <c r="A1672" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1672">
+        <v>2023</v>
+      </c>
+      <c r="D1672">
+        <v>12</v>
+      </c>
+      <c r="E1672">
+        <v>0</v>
+      </c>
+      <c r="F1672">
+        <v>0</v>
+      </c>
+      <c r="G1672">
+        <v>0</v>
+      </c>
+      <c r="H1672">
+        <v>0</v>
+      </c>
+      <c r="I1672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:9">
+      <c r="A1673" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1673">
+        <v>2023</v>
+      </c>
+      <c r="D1673">
+        <v>12</v>
+      </c>
+      <c r="E1673">
+        <v>8</v>
+      </c>
+      <c r="F1673">
+        <v>0</v>
+      </c>
+      <c r="G1673">
+        <v>8</v>
+      </c>
+      <c r="H1673">
+        <v>1</v>
+      </c>
+      <c r="I1673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:9">
+      <c r="A1674" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1674">
+        <v>2023</v>
+      </c>
+      <c r="D1674">
+        <v>12</v>
+      </c>
+      <c r="E1674">
+        <v>8</v>
+      </c>
+      <c r="F1674">
+        <v>0</v>
+      </c>
+      <c r="G1674">
+        <v>8</v>
+      </c>
+      <c r="H1674">
+        <v>1</v>
+      </c>
+      <c r="I1674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:9">
+      <c r="A1675" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1675">
+        <v>2023</v>
+      </c>
+      <c r="D1675">
+        <v>12</v>
+      </c>
+      <c r="E1675">
+        <v>8</v>
+      </c>
+      <c r="F1675">
+        <v>0</v>
+      </c>
+      <c r="G1675">
+        <v>8</v>
+      </c>
+      <c r="H1675">
+        <v>1</v>
+      </c>
+      <c r="I1675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:9">
+      <c r="A1676" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1676">
+        <v>2023</v>
+      </c>
+      <c r="D1676">
+        <v>12</v>
+      </c>
+      <c r="E1676">
+        <v>8</v>
+      </c>
+      <c r="F1676">
+        <v>0</v>
+      </c>
+      <c r="G1676">
+        <v>8</v>
+      </c>
+      <c r="H1676">
+        <v>1</v>
+      </c>
+      <c r="I1676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:9">
+      <c r="A1677" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1677">
+        <v>2023</v>
+      </c>
+      <c r="D1677">
+        <v>12</v>
+      </c>
+      <c r="E1677">
+        <v>8</v>
+      </c>
+      <c r="F1677">
+        <v>0</v>
+      </c>
+      <c r="G1677">
+        <v>8</v>
+      </c>
+      <c r="H1677">
+        <v>1</v>
+      </c>
+      <c r="I1677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:9">
+      <c r="A1678" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1678">
+        <v>2023</v>
+      </c>
+      <c r="D1678">
+        <v>12</v>
+      </c>
+      <c r="E1678">
+        <v>8</v>
+      </c>
+      <c r="F1678">
+        <v>0</v>
+      </c>
+      <c r="G1678">
+        <v>8</v>
+      </c>
+      <c r="H1678">
+        <v>1</v>
+      </c>
+      <c r="I1678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:9">
+      <c r="A1679" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1679">
+        <v>2023</v>
+      </c>
+      <c r="D1679">
+        <v>12</v>
+      </c>
+      <c r="E1679">
+        <v>8</v>
+      </c>
+      <c r="F1679">
+        <v>0</v>
+      </c>
+      <c r="G1679">
+        <v>8</v>
+      </c>
+      <c r="H1679">
+        <v>1</v>
+      </c>
+      <c r="I1679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:9">
+      <c r="A1680" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1680">
+        <v>2023</v>
+      </c>
+      <c r="D1680">
+        <v>12</v>
+      </c>
+      <c r="E1680">
+        <v>8</v>
+      </c>
+      <c r="F1680">
+        <v>0</v>
+      </c>
+      <c r="G1680">
+        <v>8</v>
+      </c>
+      <c r="H1680">
+        <v>1</v>
+      </c>
+      <c r="I1680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:9">
+      <c r="A1681" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1681">
+        <v>2023</v>
+      </c>
+      <c r="D1681">
+        <v>12</v>
+      </c>
+      <c r="E1681">
+        <v>8</v>
+      </c>
+      <c r="F1681">
+        <v>0</v>
+      </c>
+      <c r="G1681">
+        <v>8</v>
+      </c>
+      <c r="H1681">
+        <v>1</v>
+      </c>
+      <c r="I1681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:9">
+      <c r="A1682" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1682">
+        <v>2023</v>
+      </c>
+      <c r="D1682">
+        <v>12</v>
+      </c>
+      <c r="E1682">
+        <v>8</v>
+      </c>
+      <c r="F1682">
+        <v>0</v>
+      </c>
+      <c r="G1682">
+        <v>8</v>
+      </c>
+      <c r="H1682">
+        <v>1</v>
+      </c>
+      <c r="I1682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:9">
+      <c r="A1683" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1683">
+        <v>2023</v>
+      </c>
+      <c r="D1683">
+        <v>12</v>
+      </c>
+      <c r="E1683">
+        <v>8</v>
+      </c>
+      <c r="F1683">
+        <v>0</v>
+      </c>
+      <c r="G1683">
+        <v>8</v>
+      </c>
+      <c r="H1683">
+        <v>1</v>
+      </c>
+      <c r="I1683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:9">
+      <c r="A1684" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1684">
+        <v>2023</v>
+      </c>
+      <c r="D1684">
+        <v>12</v>
+      </c>
+      <c r="E1684">
+        <v>8</v>
+      </c>
+      <c r="F1684">
+        <v>0</v>
+      </c>
+      <c r="G1684">
+        <v>8</v>
+      </c>
+      <c r="H1684">
+        <v>1</v>
+      </c>
+      <c r="I1684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:9">
+      <c r="A1685" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1685">
+        <v>2023</v>
+      </c>
+      <c r="D1685">
+        <v>12</v>
+      </c>
+      <c r="E1685">
+        <v>8</v>
+      </c>
+      <c r="F1685">
+        <v>0</v>
+      </c>
+      <c r="G1685">
+        <v>8</v>
+      </c>
+      <c r="H1685">
+        <v>1</v>
+      </c>
+      <c r="I1685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:9">
+      <c r="A1686" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1686">
+        <v>2023</v>
+      </c>
+      <c r="D1686">
+        <v>12</v>
+      </c>
+      <c r="E1686">
+        <v>8</v>
+      </c>
+      <c r="F1686">
+        <v>0</v>
+      </c>
+      <c r="G1686">
+        <v>8</v>
+      </c>
+      <c r="H1686">
+        <v>1</v>
+      </c>
+      <c r="I1686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:9">
+      <c r="A1687" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1687">
+        <v>2023</v>
+      </c>
+      <c r="D1687">
+        <v>12</v>
+      </c>
+      <c r="E1687">
+        <v>8</v>
+      </c>
+      <c r="F1687">
+        <v>0</v>
+      </c>
+      <c r="G1687">
+        <v>8</v>
+      </c>
+      <c r="H1687">
+        <v>1</v>
+      </c>
+      <c r="I1687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:9">
+      <c r="A1688" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1688">
+        <v>2023</v>
+      </c>
+      <c r="D1688">
+        <v>12</v>
+      </c>
+      <c r="E1688">
+        <v>8</v>
+      </c>
+      <c r="F1688">
+        <v>0</v>
+      </c>
+      <c r="G1688">
+        <v>8</v>
+      </c>
+      <c r="H1688">
+        <v>1</v>
+      </c>
+      <c r="I1688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:9">
+      <c r="A1689" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1689">
+        <v>2023</v>
+      </c>
+      <c r="D1689">
+        <v>12</v>
+      </c>
+      <c r="E1689">
+        <v>8</v>
+      </c>
+      <c r="F1689">
+        <v>0</v>
+      </c>
+      <c r="G1689">
+        <v>8</v>
+      </c>
+      <c r="H1689">
+        <v>1</v>
+      </c>
+      <c r="I1689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:9">
+      <c r="A1690" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1690">
+        <v>2023</v>
+      </c>
+      <c r="D1690">
+        <v>12</v>
+      </c>
+      <c r="E1690">
+        <v>4</v>
+      </c>
+      <c r="F1690">
+        <v>0</v>
+      </c>
+      <c r="G1690">
+        <v>4</v>
+      </c>
+      <c r="H1690">
+        <v>0</v>
+      </c>
+      <c r="I1690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:9">
+      <c r="A1691" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1691">
+        <v>2023</v>
+      </c>
+      <c r="D1691">
+        <v>12</v>
+      </c>
+      <c r="E1691">
+        <v>8</v>
+      </c>
+      <c r="F1691">
+        <v>0</v>
+      </c>
+      <c r="G1691">
+        <v>8</v>
+      </c>
+      <c r="H1691">
+        <v>1</v>
+      </c>
+      <c r="I1691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:9">
+      <c r="A1692" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1692">
+        <v>2023</v>
+      </c>
+      <c r="D1692">
+        <v>12</v>
+      </c>
+      <c r="E1692">
+        <v>8</v>
+      </c>
+      <c r="F1692">
+        <v>0</v>
+      </c>
+      <c r="G1692">
+        <v>8</v>
+      </c>
+      <c r="H1692">
+        <v>1</v>
+      </c>
+      <c r="I1692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:9">
+      <c r="A1693" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1693">
+        <v>2023</v>
+      </c>
+      <c r="D1693">
+        <v>12</v>
+      </c>
+      <c r="E1693">
+        <v>8</v>
+      </c>
+      <c r="F1693">
+        <v>0</v>
+      </c>
+      <c r="G1693">
+        <v>8</v>
+      </c>
+      <c r="H1693">
+        <v>1</v>
+      </c>
+      <c r="I1693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:9">
+      <c r="A1694" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1694">
+        <v>2023</v>
+      </c>
+      <c r="D1694">
+        <v>12</v>
+      </c>
+      <c r="E1694">
+        <v>8</v>
+      </c>
+      <c r="F1694">
+        <v>0</v>
+      </c>
+      <c r="G1694">
+        <v>8</v>
+      </c>
+      <c r="H1694">
+        <v>1</v>
+      </c>
+      <c r="I1694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:9">
+      <c r="A1695" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1695">
+        <v>2023</v>
+      </c>
+      <c r="D1695">
+        <v>12</v>
+      </c>
+      <c r="E1695">
+        <v>8</v>
+      </c>
+      <c r="F1695">
+        <v>0</v>
+      </c>
+      <c r="G1695">
+        <v>8</v>
+      </c>
+      <c r="H1695">
+        <v>1</v>
+      </c>
+      <c r="I1695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:9">
+      <c r="A1696" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1696">
+        <v>2023</v>
+      </c>
+      <c r="D1696">
+        <v>12</v>
+      </c>
+      <c r="E1696">
+        <v>8</v>
+      </c>
+      <c r="F1696">
+        <v>0</v>
+      </c>
+      <c r="G1696">
+        <v>8</v>
+      </c>
+      <c r="H1696">
+        <v>1</v>
+      </c>
+      <c r="I1696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:9">
+      <c r="A1697" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1697">
+        <v>2023</v>
+      </c>
+      <c r="D1697">
+        <v>12</v>
+      </c>
+      <c r="E1697">
+        <v>8</v>
+      </c>
+      <c r="F1697">
+        <v>0</v>
+      </c>
+      <c r="G1697">
+        <v>8</v>
+      </c>
+      <c r="H1697">
+        <v>1</v>
+      </c>
+      <c r="I1697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:9">
+      <c r="A1698" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1698">
+        <v>2023</v>
+      </c>
+      <c r="D1698">
+        <v>12</v>
+      </c>
+      <c r="E1698">
+        <v>8</v>
+      </c>
+      <c r="F1698">
+        <v>0</v>
+      </c>
+      <c r="G1698">
+        <v>8</v>
+      </c>
+      <c r="H1698">
+        <v>1</v>
+      </c>
+      <c r="I1698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:9">
+      <c r="A1699" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1699">
+        <v>2023</v>
+      </c>
+      <c r="D1699">
+        <v>12</v>
+      </c>
+      <c r="E1699">
+        <v>8</v>
+      </c>
+      <c r="F1699">
+        <v>0</v>
+      </c>
+      <c r="G1699">
+        <v>8</v>
+      </c>
+      <c r="H1699">
+        <v>1</v>
+      </c>
+      <c r="I1699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:9">
+      <c r="A1700" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1700">
+        <v>2023</v>
+      </c>
+      <c r="D1700">
+        <v>12</v>
+      </c>
+      <c r="E1700">
+        <v>8</v>
+      </c>
+      <c r="F1700">
+        <v>0</v>
+      </c>
+      <c r="G1700">
+        <v>8</v>
+      </c>
+      <c r="H1700">
+        <v>1</v>
+      </c>
+      <c r="I1700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:9">
+      <c r="A1701" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1701">
+        <v>2023</v>
+      </c>
+      <c r="D1701">
+        <v>12</v>
+      </c>
+      <c r="E1701">
+        <v>8</v>
+      </c>
+      <c r="F1701">
+        <v>0</v>
+      </c>
+      <c r="G1701">
+        <v>8</v>
+      </c>
+      <c r="H1701">
+        <v>1</v>
+      </c>
+      <c r="I1701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:9">
+      <c r="A1702" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1702">
+        <v>2023</v>
+      </c>
+      <c r="D1702">
+        <v>12</v>
+      </c>
+      <c r="E1702">
+        <v>8</v>
+      </c>
+      <c r="F1702">
+        <v>0</v>
+      </c>
+      <c r="G1702">
+        <v>8</v>
+      </c>
+      <c r="H1702">
+        <v>1</v>
+      </c>
+      <c r="I1702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:9">
+      <c r="A1703" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1703">
+        <v>2023</v>
+      </c>
+      <c r="D1703">
+        <v>12</v>
+      </c>
+      <c r="E1703">
+        <v>8</v>
+      </c>
+      <c r="F1703">
+        <v>0</v>
+      </c>
+      <c r="G1703">
+        <v>8</v>
+      </c>
+      <c r="H1703">
+        <v>1</v>
+      </c>
+      <c r="I1703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:9">
+      <c r="A1704" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1704">
+        <v>2023</v>
+      </c>
+      <c r="D1704">
+        <v>12</v>
+      </c>
+      <c r="E1704">
+        <v>8</v>
+      </c>
+      <c r="F1704">
+        <v>0</v>
+      </c>
+      <c r="G1704">
+        <v>8</v>
+      </c>
+      <c r="H1704">
+        <v>1</v>
+      </c>
+      <c r="I1704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:9">
+      <c r="A1705" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1705">
+        <v>2023</v>
+      </c>
+      <c r="D1705">
+        <v>12</v>
+      </c>
+      <c r="E1705">
+        <v>8</v>
+      </c>
+      <c r="F1705">
+        <v>0</v>
+      </c>
+      <c r="G1705">
+        <v>8</v>
+      </c>
+      <c r="H1705">
+        <v>1</v>
+      </c>
+      <c r="I1705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:9">
+      <c r="A1706" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1706">
+        <v>2023</v>
+      </c>
+      <c r="D1706">
+        <v>12</v>
+      </c>
+      <c r="E1706">
+        <v>8</v>
+      </c>
+      <c r="F1706">
+        <v>0</v>
+      </c>
+      <c r="G1706">
+        <v>8</v>
+      </c>
+      <c r="H1706">
+        <v>1</v>
+      </c>
+      <c r="I1706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:9">
+      <c r="A1707" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1707">
+        <v>2023</v>
+      </c>
+      <c r="D1707">
+        <v>12</v>
+      </c>
+      <c r="E1707">
+        <v>8</v>
+      </c>
+      <c r="F1707">
+        <v>0</v>
+      </c>
+      <c r="G1707">
+        <v>8</v>
+      </c>
+      <c r="H1707">
+        <v>1</v>
+      </c>
+      <c r="I1707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:9">
+      <c r="A1708" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1708">
+        <v>2023</v>
+      </c>
+      <c r="D1708">
+        <v>12</v>
+      </c>
+      <c r="E1708">
+        <v>8</v>
+      </c>
+      <c r="F1708">
+        <v>0</v>
+      </c>
+      <c r="G1708">
+        <v>8</v>
+      </c>
+      <c r="H1708">
+        <v>1</v>
+      </c>
+      <c r="I1708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:9">
+      <c r="A1709" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1709">
+        <v>2023</v>
+      </c>
+      <c r="D1709">
+        <v>12</v>
+      </c>
+      <c r="E1709">
+        <v>8</v>
+      </c>
+      <c r="F1709">
+        <v>0</v>
+      </c>
+      <c r="G1709">
+        <v>8</v>
+      </c>
+      <c r="H1709">
+        <v>1</v>
+      </c>
+      <c r="I1709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:9">
+      <c r="A1710" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1710">
+        <v>2023</v>
+      </c>
+      <c r="D1710">
+        <v>12</v>
+      </c>
+      <c r="E1710">
+        <v>8</v>
+      </c>
+      <c r="F1710">
+        <v>0</v>
+      </c>
+      <c r="G1710">
+        <v>8</v>
+      </c>
+      <c r="H1710">
+        <v>1</v>
+      </c>
+      <c r="I1710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:9">
+      <c r="A1711" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1711">
+        <v>2023</v>
+      </c>
+      <c r="D1711">
+        <v>12</v>
+      </c>
+      <c r="E1711">
+        <v>8</v>
+      </c>
+      <c r="F1711">
+        <v>0</v>
+      </c>
+      <c r="G1711">
+        <v>8</v>
+      </c>
+      <c r="H1711">
+        <v>1</v>
+      </c>
+      <c r="I1711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:9">
+      <c r="A1712" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1712">
+        <v>2023</v>
+      </c>
+      <c r="D1712">
+        <v>12</v>
+      </c>
+      <c r="E1712">
+        <v>8</v>
+      </c>
+      <c r="F1712">
+        <v>0</v>
+      </c>
+      <c r="G1712">
+        <v>8</v>
+      </c>
+      <c r="H1712">
+        <v>1</v>
+      </c>
+      <c r="I1712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:9">
+      <c r="A1713" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1713">
+        <v>2023</v>
+      </c>
+      <c r="D1713">
+        <v>12</v>
+      </c>
+      <c r="E1713">
+        <v>8</v>
+      </c>
+      <c r="F1713">
+        <v>0</v>
+      </c>
+      <c r="G1713">
+        <v>8</v>
+      </c>
+      <c r="H1713">
+        <v>1</v>
+      </c>
+      <c r="I1713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:9">
+      <c r="A1714" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1714">
+        <v>2023</v>
+      </c>
+      <c r="D1714">
+        <v>12</v>
+      </c>
+      <c r="E1714">
+        <v>8</v>
+      </c>
+      <c r="F1714">
+        <v>0</v>
+      </c>
+      <c r="G1714">
+        <v>8</v>
+      </c>
+      <c r="H1714">
+        <v>1</v>
+      </c>
+      <c r="I1714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:9">
+      <c r="A1715" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1715">
+        <v>2023</v>
+      </c>
+      <c r="D1715">
+        <v>12</v>
+      </c>
+      <c r="E1715">
+        <v>8</v>
+      </c>
+      <c r="F1715">
+        <v>0</v>
+      </c>
+      <c r="G1715">
+        <v>8</v>
+      </c>
+      <c r="H1715">
+        <v>1</v>
+      </c>
+      <c r="I1715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:9">
+      <c r="A1716" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1716">
+        <v>2023</v>
+      </c>
+      <c r="D1716">
+        <v>12</v>
+      </c>
+      <c r="E1716">
+        <v>8</v>
+      </c>
+      <c r="F1716">
+        <v>0</v>
+      </c>
+      <c r="G1716">
+        <v>8</v>
+      </c>
+      <c r="H1716">
+        <v>1</v>
+      </c>
+      <c r="I1716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:9">
+      <c r="A1717" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1717">
+        <v>2023</v>
+      </c>
+      <c r="D1717">
+        <v>12</v>
+      </c>
+      <c r="E1717">
+        <v>8</v>
+      </c>
+      <c r="F1717">
+        <v>0</v>
+      </c>
+      <c r="G1717">
+        <v>8</v>
+      </c>
+      <c r="H1717">
+        <v>1</v>
+      </c>
+      <c r="I1717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:9">
+      <c r="A1718" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1718">
+        <v>2023</v>
+      </c>
+      <c r="D1718">
+        <v>12</v>
+      </c>
+      <c r="E1718">
+        <v>8</v>
+      </c>
+      <c r="F1718">
+        <v>0</v>
+      </c>
+      <c r="G1718">
+        <v>8</v>
+      </c>
+      <c r="H1718">
+        <v>1</v>
+      </c>
+      <c r="I1718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:9">
+      <c r="A1719" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1719">
+        <v>2023</v>
+      </c>
+      <c r="D1719">
+        <v>12</v>
+      </c>
+      <c r="E1719">
+        <v>8</v>
+      </c>
+      <c r="F1719">
+        <v>0</v>
+      </c>
+      <c r="G1719">
+        <v>8</v>
+      </c>
+      <c r="H1719">
+        <v>1</v>
+      </c>
+      <c r="I1719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:9">
+      <c r="A1720" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1720">
+        <v>2023</v>
+      </c>
+      <c r="D1720">
+        <v>12</v>
+      </c>
+      <c r="E1720">
+        <v>8</v>
+      </c>
+      <c r="F1720">
+        <v>0</v>
+      </c>
+      <c r="G1720">
+        <v>8</v>
+      </c>
+      <c r="H1720">
+        <v>1</v>
+      </c>
+      <c r="I1720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:9">
+      <c r="A1721" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1721">
+        <v>2023</v>
+      </c>
+      <c r="D1721">
+        <v>12</v>
+      </c>
+      <c r="E1721">
+        <v>8</v>
+      </c>
+      <c r="F1721">
+        <v>0</v>
+      </c>
+      <c r="G1721">
+        <v>8</v>
+      </c>
+      <c r="H1721">
+        <v>1</v>
+      </c>
+      <c r="I1721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:9">
+      <c r="A1722" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1722">
+        <v>2023</v>
+      </c>
+      <c r="D1722">
+        <v>12</v>
+      </c>
+      <c r="E1722">
+        <v>8</v>
+      </c>
+      <c r="F1722">
+        <v>0</v>
+      </c>
+      <c r="G1722">
+        <v>8</v>
+      </c>
+      <c r="H1722">
+        <v>1</v>
+      </c>
+      <c r="I1722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:9">
+      <c r="A1723" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1723">
+        <v>2023</v>
+      </c>
+      <c r="D1723">
+        <v>12</v>
+      </c>
+      <c r="E1723">
+        <v>8</v>
+      </c>
+      <c r="F1723">
+        <v>0</v>
+      </c>
+      <c r="G1723">
+        <v>8</v>
+      </c>
+      <c r="H1723">
+        <v>1</v>
+      </c>
+      <c r="I1723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:9">
+      <c r="A1724" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1724">
+        <v>2023</v>
+      </c>
+      <c r="D1724">
+        <v>12</v>
+      </c>
+      <c r="E1724">
+        <v>8</v>
+      </c>
+      <c r="F1724">
+        <v>0</v>
+      </c>
+      <c r="G1724">
+        <v>8</v>
+      </c>
+      <c r="H1724">
+        <v>1</v>
+      </c>
+      <c r="I1724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:9">
+      <c r="A1725" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1725">
+        <v>2023</v>
+      </c>
+      <c r="D1725">
+        <v>12</v>
+      </c>
+      <c r="E1725">
+        <v>8</v>
+      </c>
+      <c r="F1725">
+        <v>0</v>
+      </c>
+      <c r="G1725">
+        <v>8</v>
+      </c>
+      <c r="H1725">
+        <v>1</v>
+      </c>
+      <c r="I1725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:9">
+      <c r="A1726" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1726">
+        <v>2023</v>
+      </c>
+      <c r="D1726">
+        <v>12</v>
+      </c>
+      <c r="E1726">
+        <v>8</v>
+      </c>
+      <c r="F1726">
+        <v>0</v>
+      </c>
+      <c r="G1726">
+        <v>8</v>
+      </c>
+      <c r="H1726">
+        <v>1</v>
+      </c>
+      <c r="I1726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:9">
+      <c r="A1727" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1727">
+        <v>2023</v>
+      </c>
+      <c r="D1727">
+        <v>12</v>
+      </c>
+      <c r="E1727">
+        <v>8</v>
+      </c>
+      <c r="F1727">
+        <v>0</v>
+      </c>
+      <c r="G1727">
+        <v>8</v>
+      </c>
+      <c r="H1727">
+        <v>1</v>
+      </c>
+      <c r="I1727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:9">
+      <c r="A1728" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1728">
+        <v>2023</v>
+      </c>
+      <c r="D1728">
+        <v>12</v>
+      </c>
+      <c r="E1728">
+        <v>8</v>
+      </c>
+      <c r="F1728">
+        <v>0</v>
+      </c>
+      <c r="G1728">
+        <v>8</v>
+      </c>
+      <c r="H1728">
+        <v>1</v>
+      </c>
+      <c r="I1728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:9">
+      <c r="A1729" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1729">
+        <v>2023</v>
+      </c>
+      <c r="D1729">
+        <v>12</v>
+      </c>
+      <c r="E1729">
+        <v>8</v>
+      </c>
+      <c r="F1729">
+        <v>0</v>
+      </c>
+      <c r="G1729">
+        <v>8</v>
+      </c>
+      <c r="H1729">
+        <v>1</v>
+      </c>
+      <c r="I1729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:9">
+      <c r="A1730" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1730">
+        <v>2023</v>
+      </c>
+      <c r="D1730">
+        <v>12</v>
+      </c>
+      <c r="E1730">
+        <v>8</v>
+      </c>
+      <c r="F1730">
+        <v>0</v>
+      </c>
+      <c r="G1730">
+        <v>8</v>
+      </c>
+      <c r="H1730">
+        <v>1</v>
+      </c>
+      <c r="I1730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:9">
+      <c r="A1731" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1731">
+        <v>2023</v>
+      </c>
+      <c r="D1731">
+        <v>12</v>
+      </c>
+      <c r="E1731">
+        <v>8</v>
+      </c>
+      <c r="F1731">
+        <v>0</v>
+      </c>
+      <c r="G1731">
+        <v>8</v>
+      </c>
+      <c r="H1731">
+        <v>1</v>
+      </c>
+      <c r="I1731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:9">
+      <c r="A1732" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1732">
+        <v>2023</v>
+      </c>
+      <c r="D1732">
+        <v>12</v>
+      </c>
+      <c r="E1732">
+        <v>8</v>
+      </c>
+      <c r="F1732">
+        <v>0</v>
+      </c>
+      <c r="G1732">
+        <v>8</v>
+      </c>
+      <c r="H1732">
+        <v>1</v>
+      </c>
+      <c r="I1732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:9">
+      <c r="A1733" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1733">
+        <v>2023</v>
+      </c>
+      <c r="D1733">
+        <v>12</v>
+      </c>
+      <c r="E1733">
+        <v>0</v>
+      </c>
+      <c r="F1733">
+        <v>0</v>
+      </c>
+      <c r="G1733">
+        <v>0</v>
+      </c>
+      <c r="H1733">
+        <v>0</v>
+      </c>
+      <c r="I1733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:9">
+      <c r="A1734" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1734">
+        <v>2023</v>
+      </c>
+      <c r="D1734">
+        <v>12</v>
+      </c>
+      <c r="E1734">
+        <v>8</v>
+      </c>
+      <c r="F1734">
+        <v>0</v>
+      </c>
+      <c r="G1734">
+        <v>8</v>
+      </c>
+      <c r="H1734">
+        <v>1</v>
+      </c>
+      <c r="I1734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:9">
+      <c r="A1735" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1735">
+        <v>2023</v>
+      </c>
+      <c r="D1735">
+        <v>12</v>
+      </c>
+      <c r="E1735">
+        <v>8</v>
+      </c>
+      <c r="F1735">
+        <v>0</v>
+      </c>
+      <c r="G1735">
+        <v>8</v>
+      </c>
+      <c r="H1735">
+        <v>1</v>
+      </c>
+      <c r="I1735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:9">
+      <c r="A1736" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1736">
+        <v>2023</v>
+      </c>
+      <c r="D1736">
+        <v>12</v>
+      </c>
+      <c r="E1736">
+        <v>4</v>
+      </c>
+      <c r="F1736">
+        <v>0</v>
+      </c>
+      <c r="G1736">
+        <v>4</v>
+      </c>
+      <c r="H1736">
+        <v>0</v>
+      </c>
+      <c r="I1736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:9">
+      <c r="A1737" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1737">
+        <v>2023</v>
+      </c>
+      <c r="D1737">
+        <v>12</v>
+      </c>
+      <c r="E1737">
+        <v>8</v>
+      </c>
+      <c r="F1737">
+        <v>0</v>
+      </c>
+      <c r="G1737">
+        <v>8</v>
+      </c>
+      <c r="H1737">
+        <v>1</v>
+      </c>
+      <c r="I1737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:9">
+      <c r="A1738" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1738">
+        <v>2023</v>
+      </c>
+      <c r="D1738">
+        <v>12</v>
+      </c>
+      <c r="E1738">
+        <v>4</v>
+      </c>
+      <c r="F1738">
+        <v>0</v>
+      </c>
+      <c r="G1738">
+        <v>4</v>
+      </c>
+      <c r="H1738">
+        <v>0</v>
+      </c>
+      <c r="I1738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:9">
+      <c r="A1739" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1739">
+        <v>2023</v>
+      </c>
+      <c r="D1739">
+        <v>12</v>
+      </c>
+      <c r="E1739">
+        <v>4</v>
+      </c>
+      <c r="F1739">
+        <v>0</v>
+      </c>
+      <c r="G1739">
+        <v>4</v>
+      </c>
+      <c r="H1739">
+        <v>0</v>
+      </c>
+      <c r="I1739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:9">
+      <c r="A1740" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1740">
+        <v>2023</v>
+      </c>
+      <c r="D1740">
+        <v>12</v>
+      </c>
+      <c r="E1740">
+        <v>8</v>
+      </c>
+      <c r="F1740">
+        <v>0</v>
+      </c>
+      <c r="G1740">
+        <v>8</v>
+      </c>
+      <c r="H1740">
+        <v>1</v>
+      </c>
+      <c r="I1740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:9">
+      <c r="A1741" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1741">
+        <v>2023</v>
+      </c>
+      <c r="D1741">
+        <v>12</v>
+      </c>
+      <c r="E1741">
+        <v>8</v>
+      </c>
+      <c r="F1741">
+        <v>0</v>
+      </c>
+      <c r="G1741">
+        <v>8</v>
+      </c>
+      <c r="H1741">
+        <v>1</v>
+      </c>
+      <c r="I1741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:9">
+      <c r="A1742" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1742">
+        <v>2023</v>
+      </c>
+      <c r="D1742">
+        <v>12</v>
+      </c>
+      <c r="E1742">
+        <v>8</v>
+      </c>
+      <c r="F1742">
+        <v>0</v>
+      </c>
+      <c r="G1742">
+        <v>8</v>
+      </c>
+      <c r="H1742">
+        <v>1</v>
+      </c>
+      <c r="I1742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:9">
+      <c r="A1743" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1743">
+        <v>2023</v>
+      </c>
+      <c r="D1743">
+        <v>12</v>
+      </c>
+      <c r="E1743">
+        <v>8</v>
+      </c>
+      <c r="F1743">
+        <v>0</v>
+      </c>
+      <c r="G1743">
+        <v>8</v>
+      </c>
+      <c r="H1743">
+        <v>1</v>
+      </c>
+      <c r="I1743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:9">
+      <c r="A1744" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1744">
+        <v>2023</v>
+      </c>
+      <c r="D1744">
+        <v>12</v>
+      </c>
+      <c r="E1744">
+        <v>8</v>
+      </c>
+      <c r="F1744">
+        <v>0</v>
+      </c>
+      <c r="G1744">
+        <v>8</v>
+      </c>
+      <c r="H1744">
+        <v>1</v>
+      </c>
+      <c r="I1744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:9">
+      <c r="A1745" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1745">
+        <v>2023</v>
+      </c>
+      <c r="D1745">
+        <v>12</v>
+      </c>
+      <c r="E1745">
+        <v>8</v>
+      </c>
+      <c r="F1745">
+        <v>0</v>
+      </c>
+      <c r="G1745">
+        <v>8</v>
+      </c>
+      <c r="H1745">
+        <v>1</v>
+      </c>
+      <c r="I1745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:9">
+      <c r="A1746" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1746">
+        <v>2023</v>
+      </c>
+      <c r="D1746">
+        <v>12</v>
+      </c>
+      <c r="E1746">
+        <v>8</v>
+      </c>
+      <c r="F1746">
+        <v>0</v>
+      </c>
+      <c r="G1746">
+        <v>8</v>
+      </c>
+      <c r="H1746">
+        <v>1</v>
+      </c>
+      <c r="I1746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:9">
+      <c r="A1747" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1747">
+        <v>2023</v>
+      </c>
+      <c r="D1747">
+        <v>12</v>
+      </c>
+      <c r="E1747">
+        <v>8</v>
+      </c>
+      <c r="F1747">
+        <v>0</v>
+      </c>
+      <c r="G1747">
+        <v>8</v>
+      </c>
+      <c r="H1747">
+        <v>1</v>
+      </c>
+      <c r="I1747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:9">
+      <c r="A1748" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1748">
+        <v>2023</v>
+      </c>
+      <c r="D1748">
+        <v>12</v>
+      </c>
+      <c r="E1748">
+        <v>8</v>
+      </c>
+      <c r="F1748">
+        <v>0</v>
+      </c>
+      <c r="G1748">
+        <v>8</v>
+      </c>
+      <c r="H1748">
+        <v>1</v>
+      </c>
+      <c r="I1748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:9">
+      <c r="A1749" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1749">
+        <v>2023</v>
+      </c>
+      <c r="D1749">
+        <v>12</v>
+      </c>
+      <c r="E1749">
+        <v>8</v>
+      </c>
+      <c r="F1749">
+        <v>0</v>
+      </c>
+      <c r="G1749">
+        <v>8</v>
+      </c>
+      <c r="H1749">
+        <v>1</v>
+      </c>
+      <c r="I1749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:9">
+      <c r="A1750" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1750">
+        <v>2023</v>
+      </c>
+      <c r="D1750">
+        <v>12</v>
+      </c>
+      <c r="E1750">
+        <v>8</v>
+      </c>
+      <c r="F1750">
+        <v>0</v>
+      </c>
+      <c r="G1750">
+        <v>8</v>
+      </c>
+      <c r="H1750">
+        <v>1</v>
+      </c>
+      <c r="I1750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:9">
+      <c r="A1751" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1751">
+        <v>2023</v>
+      </c>
+      <c r="D1751">
+        <v>12</v>
+      </c>
+      <c r="E1751">
+        <v>8</v>
+      </c>
+      <c r="F1751">
+        <v>0</v>
+      </c>
+      <c r="G1751">
+        <v>8</v>
+      </c>
+      <c r="H1751">
+        <v>1</v>
+      </c>
+      <c r="I1751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:9">
+      <c r="A1752" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1752">
+        <v>2023</v>
+      </c>
+      <c r="D1752">
+        <v>12</v>
+      </c>
+      <c r="E1752">
+        <v>8</v>
+      </c>
+      <c r="F1752">
+        <v>0</v>
+      </c>
+      <c r="G1752">
+        <v>8</v>
+      </c>
+      <c r="H1752">
+        <v>1</v>
+      </c>
+      <c r="I1752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:9">
+      <c r="A1753" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1753">
+        <v>2023</v>
+      </c>
+      <c r="D1753">
+        <v>12</v>
+      </c>
+      <c r="E1753">
+        <v>8</v>
+      </c>
+      <c r="F1753">
+        <v>0</v>
+      </c>
+      <c r="G1753">
+        <v>8</v>
+      </c>
+      <c r="H1753">
+        <v>1</v>
+      </c>
+      <c r="I1753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:9">
+      <c r="A1754" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1754">
+        <v>2023</v>
+      </c>
+      <c r="D1754">
+        <v>12</v>
+      </c>
+      <c r="E1754">
+        <v>8</v>
+      </c>
+      <c r="F1754">
+        <v>0</v>
+      </c>
+      <c r="G1754">
+        <v>8</v>
+      </c>
+      <c r="H1754">
+        <v>1</v>
+      </c>
+      <c r="I1754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:9">
+      <c r="A1755" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1755">
+        <v>2023</v>
+      </c>
+      <c r="D1755">
+        <v>12</v>
+      </c>
+      <c r="E1755">
+        <v>8</v>
+      </c>
+      <c r="F1755">
+        <v>0</v>
+      </c>
+      <c r="G1755">
+        <v>8</v>
+      </c>
+      <c r="H1755">
+        <v>1</v>
+      </c>
+      <c r="I1755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:9">
+      <c r="A1756" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1756">
+        <v>2023</v>
+      </c>
+      <c r="D1756">
+        <v>12</v>
+      </c>
+      <c r="E1756">
+        <v>8</v>
+      </c>
+      <c r="F1756">
+        <v>0</v>
+      </c>
+      <c r="G1756">
+        <v>8</v>
+      </c>
+      <c r="H1756">
+        <v>1</v>
+      </c>
+      <c r="I1756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:9">
+      <c r="A1757" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1757">
+        <v>2023</v>
+      </c>
+      <c r="D1757">
+        <v>12</v>
+      </c>
+      <c r="E1757">
+        <v>8</v>
+      </c>
+      <c r="F1757">
+        <v>0</v>
+      </c>
+      <c r="G1757">
+        <v>8</v>
+      </c>
+      <c r="H1757">
+        <v>1</v>
+      </c>
+      <c r="I1757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:9">
+      <c r="A1758" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1758">
+        <v>2023</v>
+      </c>
+      <c r="D1758">
+        <v>12</v>
+      </c>
+      <c r="E1758">
+        <v>8</v>
+      </c>
+      <c r="F1758">
+        <v>0</v>
+      </c>
+      <c r="G1758">
+        <v>8</v>
+      </c>
+      <c r="H1758">
+        <v>1</v>
+      </c>
+      <c r="I1758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:9">
+      <c r="A1759" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1759">
+        <v>2023</v>
+      </c>
+      <c r="D1759">
+        <v>12</v>
+      </c>
+      <c r="E1759">
+        <v>8</v>
+      </c>
+      <c r="F1759">
+        <v>0</v>
+      </c>
+      <c r="G1759">
+        <v>8</v>
+      </c>
+      <c r="H1759">
+        <v>1</v>
+      </c>
+      <c r="I1759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:9">
+      <c r="A1760" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1760">
+        <v>2023</v>
+      </c>
+      <c r="D1760">
+        <v>12</v>
+      </c>
+      <c r="E1760">
+        <v>8</v>
+      </c>
+      <c r="F1760">
+        <v>0</v>
+      </c>
+      <c r="G1760">
+        <v>8</v>
+      </c>
+      <c r="H1760">
+        <v>1</v>
+      </c>
+      <c r="I1760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:9">
+      <c r="A1761" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1761">
+        <v>2023</v>
+      </c>
+      <c r="D1761">
+        <v>12</v>
+      </c>
+      <c r="E1761">
+        <v>8</v>
+      </c>
+      <c r="F1761">
+        <v>0</v>
+      </c>
+      <c r="G1761">
+        <v>8</v>
+      </c>
+      <c r="H1761">
+        <v>1</v>
+      </c>
+      <c r="I1761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:9">
+      <c r="A1762" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1762">
+        <v>2023</v>
+      </c>
+      <c r="D1762">
+        <v>12</v>
+      </c>
+      <c r="E1762">
+        <v>0</v>
+      </c>
+      <c r="F1762">
+        <v>0</v>
+      </c>
+      <c r="G1762">
+        <v>0</v>
+      </c>
+      <c r="H1762">
+        <v>0</v>
+      </c>
+      <c r="I1762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:9">
+      <c r="A1763" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1763">
+        <v>2023</v>
+      </c>
+      <c r="D1763">
+        <v>12</v>
+      </c>
+      <c r="E1763">
+        <v>8</v>
+      </c>
+      <c r="F1763">
+        <v>0</v>
+      </c>
+      <c r="G1763">
+        <v>8</v>
+      </c>
+      <c r="H1763">
+        <v>1</v>
+      </c>
+      <c r="I1763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:9">
+      <c r="A1764" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1764">
+        <v>2023</v>
+      </c>
+      <c r="D1764">
+        <v>12</v>
+      </c>
+      <c r="E1764">
+        <v>8</v>
+      </c>
+      <c r="F1764">
+        <v>0</v>
+      </c>
+      <c r="G1764">
+        <v>8</v>
+      </c>
+      <c r="H1764">
+        <v>1</v>
+      </c>
+      <c r="I1764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:9">
+      <c r="A1765" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1765">
+        <v>2023</v>
+      </c>
+      <c r="D1765">
+        <v>12</v>
+      </c>
+      <c r="E1765">
+        <v>0</v>
+      </c>
+      <c r="F1765">
+        <v>0</v>
+      </c>
+      <c r="G1765">
+        <v>0</v>
+      </c>
+      <c r="H1765">
+        <v>0</v>
+      </c>
+      <c r="I1765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:9">
+      <c r="A1766" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1766">
+        <v>2023</v>
+      </c>
+      <c r="D1766">
+        <v>12</v>
+      </c>
+      <c r="E1766">
+        <v>0</v>
+      </c>
+      <c r="F1766">
+        <v>0</v>
+      </c>
+      <c r="G1766">
+        <v>0</v>
+      </c>
+      <c r="H1766">
+        <v>0</v>
+      </c>
+      <c r="I1766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:9">
+      <c r="A1767" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1767">
+        <v>2023</v>
+      </c>
+      <c r="D1767">
+        <v>12</v>
+      </c>
+      <c r="E1767">
+        <v>8</v>
+      </c>
+      <c r="F1767">
+        <v>0</v>
+      </c>
+      <c r="G1767">
+        <v>8</v>
+      </c>
+      <c r="H1767">
+        <v>1</v>
+      </c>
+      <c r="I1767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:9">
+      <c r="A1768" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1768">
+        <v>2023</v>
+      </c>
+      <c r="D1768">
+        <v>12</v>
+      </c>
+      <c r="E1768">
+        <v>0</v>
+      </c>
+      <c r="F1768">
+        <v>0</v>
+      </c>
+      <c r="G1768">
+        <v>0</v>
+      </c>
+      <c r="H1768">
+        <v>0</v>
+      </c>
+      <c r="I1768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:9">
+      <c r="A1769" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1769">
+        <v>2023</v>
+      </c>
+      <c r="D1769">
+        <v>12</v>
+      </c>
+      <c r="E1769">
+        <v>8</v>
+      </c>
+      <c r="F1769">
+        <v>0</v>
+      </c>
+      <c r="G1769">
+        <v>8</v>
+      </c>
+      <c r="H1769">
+        <v>1</v>
+      </c>
+      <c r="I1769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:9">
+      <c r="A1770" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1770">
+        <v>2023</v>
+      </c>
+      <c r="D1770">
+        <v>12</v>
+      </c>
+      <c r="E1770">
+        <v>8</v>
+      </c>
+      <c r="F1770">
+        <v>0</v>
+      </c>
+      <c r="G1770">
+        <v>8</v>
+      </c>
+      <c r="H1770">
+        <v>1</v>
+      </c>
+      <c r="I1770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:9">
+      <c r="A1771" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1771">
+        <v>2023</v>
+      </c>
+      <c r="D1771">
+        <v>12</v>
+      </c>
+      <c r="E1771">
+        <v>8</v>
+      </c>
+      <c r="F1771">
+        <v>0</v>
+      </c>
+      <c r="G1771">
+        <v>8</v>
+      </c>
+      <c r="H1771">
+        <v>1</v>
+      </c>
+      <c r="I1771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:9">
+      <c r="A1772" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1772">
+        <v>2023</v>
+      </c>
+      <c r="D1772">
+        <v>12</v>
+      </c>
+      <c r="E1772">
+        <v>4</v>
+      </c>
+      <c r="F1772">
+        <v>0</v>
+      </c>
+      <c r="G1772">
+        <v>4</v>
+      </c>
+      <c r="H1772">
+        <v>0</v>
+      </c>
+      <c r="I1772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:9">
+      <c r="A1773" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1773">
+        <v>2023</v>
+      </c>
+      <c r="D1773">
+        <v>12</v>
+      </c>
+      <c r="E1773">
+        <v>8</v>
+      </c>
+      <c r="F1773">
+        <v>0</v>
+      </c>
+      <c r="G1773">
+        <v>8</v>
+      </c>
+      <c r="H1773">
+        <v>1</v>
+      </c>
+      <c r="I1773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:9">
+      <c r="A1774" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1774">
+        <v>2023</v>
+      </c>
+      <c r="D1774">
+        <v>12</v>
+      </c>
+      <c r="E1774">
+        <v>8</v>
+      </c>
+      <c r="F1774">
+        <v>0</v>
+      </c>
+      <c r="G1774">
+        <v>8</v>
+      </c>
+      <c r="H1774">
+        <v>1</v>
+      </c>
+      <c r="I1774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:9">
+      <c r="A1775" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1775">
+        <v>2023</v>
+      </c>
+      <c r="D1775">
+        <v>12</v>
+      </c>
+      <c r="E1775">
+        <v>8</v>
+      </c>
+      <c r="F1775">
+        <v>0</v>
+      </c>
+      <c r="G1775">
+        <v>8</v>
+      </c>
+      <c r="H1775">
+        <v>1</v>
+      </c>
+      <c r="I1775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:9">
+      <c r="A1776" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1776">
+        <v>2023</v>
+      </c>
+      <c r="D1776">
+        <v>12</v>
+      </c>
+      <c r="E1776">
+        <v>0</v>
+      </c>
+      <c r="F1776">
+        <v>0</v>
+      </c>
+      <c r="G1776">
+        <v>0</v>
+      </c>
+      <c r="H1776">
+        <v>0</v>
+      </c>
+      <c r="I1776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:9">
+      <c r="A1777" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1777">
+        <v>2023</v>
+      </c>
+      <c r="D1777">
+        <v>12</v>
+      </c>
+      <c r="E1777">
+        <v>8</v>
+      </c>
+      <c r="F1777">
+        <v>0</v>
+      </c>
+      <c r="G1777">
+        <v>8</v>
+      </c>
+      <c r="H1777">
+        <v>1</v>
+      </c>
+      <c r="I1777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:9">
+      <c r="A1778" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1778">
+        <v>2023</v>
+      </c>
+      <c r="D1778">
+        <v>11</v>
+      </c>
+      <c r="E1778">
+        <v>8</v>
+      </c>
+      <c r="F1778">
+        <v>0</v>
+      </c>
+      <c r="G1778">
+        <v>8</v>
+      </c>
+      <c r="H1778">
+        <v>1</v>
+      </c>
+      <c r="I1778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:9">
+      <c r="A1779" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1779">
+        <v>2023</v>
+      </c>
+      <c r="D1779">
+        <v>12</v>
+      </c>
+      <c r="E1779">
+        <v>8</v>
+      </c>
+      <c r="F1779">
+        <v>0</v>
+      </c>
+      <c r="G1779">
+        <v>8</v>
+      </c>
+      <c r="H1779">
+        <v>1</v>
+      </c>
+      <c r="I1779">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
